--- a/Expence - Copy.xlsx
+++ b/Expence - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" activeTab="6"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="6" activeTab="12"/>
   </bookViews>
   <sheets>
     <sheet name="June-2019" sheetId="1" r:id="rId1"/>
@@ -23,15 +23,23 @@
     <sheet name="feb-2020" sheetId="10" r:id="rId9"/>
     <sheet name="March-2020 " sheetId="11" r:id="rId10"/>
     <sheet name="April-2020" sheetId="12" r:id="rId11"/>
+    <sheet name="May-2020" sheetId="13" r:id="rId12"/>
+    <sheet name="June-2020" sheetId="14" r:id="rId13"/>
+    <sheet name="July-2020" sheetId="15" r:id="rId14"/>
+    <sheet name="Aug-2020" sheetId="16" r:id="rId15"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'April-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'Aug-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Dec-2019'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'feb-2020'!$A$1:$I$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'jan-2020'!$A$1:$I$25</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="7">'jan-2020'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'July-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'June-2019'!$A$1:$H$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020 '!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'June-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020 '!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'May-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$I$27</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Oct-2019'!$A$1:$I$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Sep-2019'!$A$1:$I$22</definedName>
@@ -54,7 +62,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="451" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="231">
   <si>
     <t>S.No</t>
   </si>
@@ -419,12 +427,6 @@
     <t xml:space="preserve">Tameer -e-Majsjid </t>
   </si>
   <si>
-    <t>01-1-2020</t>
-  </si>
-  <si>
-    <t>03-1-2020</t>
-  </si>
-  <si>
     <t>037/v</t>
   </si>
   <si>
@@ -440,15 +442,9 @@
     <t>41/v</t>
   </si>
   <si>
-    <t>23-1-2020</t>
-  </si>
-  <si>
     <t xml:space="preserve">    Expenditure From Jan-2020</t>
   </si>
   <si>
-    <t>01-2-2020</t>
-  </si>
-  <si>
     <t>042/v</t>
   </si>
   <si>
@@ -464,12 +460,6 @@
     <t>46/v</t>
   </si>
   <si>
-    <t>23-2-2020</t>
-  </si>
-  <si>
-    <t>tharo</t>
-  </si>
-  <si>
     <t>Bulb</t>
   </si>
   <si>
@@ -479,21 +469,12 @@
     <t>25-03-2019</t>
   </si>
   <si>
-    <t>25-2-2020</t>
-  </si>
-  <si>
     <t>25-03-2020</t>
   </si>
   <si>
     <t>01-03-2020</t>
   </si>
   <si>
-    <t>Pole</t>
-  </si>
-  <si>
-    <t>Electric Metered</t>
-  </si>
-  <si>
     <t>Adeel Electritian</t>
   </si>
   <si>
@@ -503,9 +484,6 @@
     <t xml:space="preserve">    Expenditure From March-2020</t>
   </si>
   <si>
-    <t xml:space="preserve">    Expenditure From Feb-2020</t>
-  </si>
-  <si>
     <t>01-04-2020</t>
   </si>
   <si>
@@ -537,6 +515,246 @@
   </si>
   <si>
     <t>21-12-2019</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From May-2020</t>
+  </si>
+  <si>
+    <t>01-05-2020</t>
+  </si>
+  <si>
+    <t>059/v</t>
+  </si>
+  <si>
+    <t>60/v</t>
+  </si>
+  <si>
+    <t>61/v</t>
+  </si>
+  <si>
+    <t>62/v</t>
+  </si>
+  <si>
+    <t>63/v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From June-2020</t>
+  </si>
+  <si>
+    <t>064/v</t>
+  </si>
+  <si>
+    <t>65/v</t>
+  </si>
+  <si>
+    <t>66/v</t>
+  </si>
+  <si>
+    <t>67/v</t>
+  </si>
+  <si>
+    <t>68/v</t>
+  </si>
+  <si>
+    <t>Increase of salery</t>
+  </si>
+  <si>
+    <t>Gas Bills</t>
+  </si>
+  <si>
+    <t>01-06-2020</t>
+  </si>
+  <si>
+    <t>23-06-2020</t>
+  </si>
+  <si>
+    <t>02-06-2020</t>
+  </si>
+  <si>
+    <t>08-06-2020</t>
+  </si>
+  <si>
+    <t>22-06-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From July-2020</t>
+  </si>
+  <si>
+    <t>01-07-2020</t>
+  </si>
+  <si>
+    <t>069/v</t>
+  </si>
+  <si>
+    <t>70/v</t>
+  </si>
+  <si>
+    <t>71/v</t>
+  </si>
+  <si>
+    <t>72/v</t>
+  </si>
+  <si>
+    <t>73/v</t>
+  </si>
+  <si>
+    <t>24-07-2020</t>
+  </si>
+  <si>
+    <t>Electric Item Purchase</t>
+  </si>
+  <si>
+    <t>Tameer-e-Masjid</t>
+  </si>
+  <si>
+    <t>12-07-2020</t>
+  </si>
+  <si>
+    <t>21-07-2020</t>
+  </si>
+  <si>
+    <t>30-07-2020</t>
+  </si>
+  <si>
+    <t>09-07-2020</t>
+  </si>
+  <si>
+    <t>Four Lock</t>
+  </si>
+  <si>
+    <t>021</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Aug-2020</t>
+  </si>
+  <si>
+    <t>01-08-2020</t>
+  </si>
+  <si>
+    <t>24-08-2020</t>
+  </si>
+  <si>
+    <t>074/v</t>
+  </si>
+  <si>
+    <t>75/v</t>
+  </si>
+  <si>
+    <t>76/v</t>
+  </si>
+  <si>
+    <t>77/v</t>
+  </si>
+  <si>
+    <t>78/v</t>
+  </si>
+  <si>
+    <t>Advance return H-31/12</t>
+  </si>
+  <si>
+    <t>79/v</t>
+  </si>
+  <si>
+    <t>09-01-2020</t>
+  </si>
+  <si>
+    <t>11-01-2020</t>
+  </si>
+  <si>
+    <t>30-01-2020</t>
+  </si>
+  <si>
+    <t>23-01-2020</t>
+  </si>
+  <si>
+    <t>03-01-2020</t>
+  </si>
+  <si>
+    <t>01-01-2020</t>
+  </si>
+  <si>
+    <t>Voucher No.</t>
+  </si>
+  <si>
+    <t>Expenditure From Feb-2020</t>
+  </si>
+  <si>
+    <t>01-02-2020</t>
+  </si>
+  <si>
+    <t>23-02-2020</t>
+  </si>
+  <si>
+    <t>Jharoo</t>
+  </si>
+  <si>
+    <t>02-02-2020</t>
+  </si>
+  <si>
+    <t>047/v</t>
+  </si>
+  <si>
+    <t>48/v</t>
+  </si>
+  <si>
+    <t>49/v</t>
+  </si>
+  <si>
+    <t>50/v</t>
+  </si>
+  <si>
+    <t>51/v</t>
+  </si>
+  <si>
+    <t>Electric Meterial</t>
+  </si>
+  <si>
+    <t>Electric Pole</t>
+  </si>
+  <si>
+    <t>15-03-2019</t>
+  </si>
+  <si>
+    <t>08-03-2019</t>
+  </si>
+  <si>
+    <t>52/v</t>
+  </si>
+  <si>
+    <t>53/v</t>
+  </si>
+  <si>
+    <t>12-03-2020</t>
+  </si>
+  <si>
+    <t>Electric Fans No.8</t>
+  </si>
+  <si>
+    <t>054/v</t>
+  </si>
+  <si>
+    <t>55/v</t>
+  </si>
+  <si>
+    <t>56/v</t>
+  </si>
+  <si>
+    <t>57/v</t>
+  </si>
+  <si>
+    <t>58/v</t>
+  </si>
+  <si>
+    <t>Electric Work H.No.H-31/12</t>
+  </si>
+  <si>
+    <t>15-05-2020</t>
+  </si>
+  <si>
+    <t>21-05-2020</t>
+  </si>
+  <si>
+    <t>Color Work H.No.H-31/12</t>
   </si>
 </sst>
 </file>
@@ -547,7 +765,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="29" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -742,6 +960,20 @@
       <sz val="48"/>
       <color theme="1"/>
       <name val="Book Antiqua"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="40"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="20"/>
+      <color theme="1"/>
+      <name val="Castellar"/>
       <family val="1"/>
     </font>
   </fonts>
@@ -1069,7 +1301,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="131">
+  <cellXfs count="158">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1123,9 +1355,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1158,9 +1387,6 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="14" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -1286,69 +1512,6 @@
     <xf numFmtId="0" fontId="14" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="15" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1402,7 +1565,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1415,6 +1577,151 @@
     <xf numFmtId="14" fontId="12" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="10" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -1747,13 +2054,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="279.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="86" t="s">
+      <c r="A1" s="108" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="87"/>
-      <c r="C1" s="87"/>
-      <c r="D1" s="87"/>
-      <c r="E1" s="87"/>
+      <c r="B1" s="109"/>
+      <c r="C1" s="109"/>
+      <c r="D1" s="109"/>
+      <c r="E1" s="109"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -1906,10 +2213,10 @@
     <row r="10" spans="1:7" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="88" t="s">
+      <c r="C10" s="110" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="89"/>
+      <c r="D10" s="111"/>
       <c r="E10" s="10">
         <f>SUM(E3:E9)</f>
         <v>23394</v>
@@ -1962,10 +2269,1403 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I22"/>
+  <dimension ref="C1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C28" sqref="C28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>139</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>209</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>210</v>
+      </c>
+      <c r="G6" s="136">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>211</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>212</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>136</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>213</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="96">
+        <v>6</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>220</v>
+      </c>
+      <c r="E10" s="98" t="s">
+        <v>221</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="136">
+        <v>34400</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="96">
+        <v>7</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="136">
+        <v>443</v>
+      </c>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="96">
+        <v>8</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>135</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="136">
+        <v>16741</v>
+      </c>
+      <c r="H12" s="100"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="96">
+        <v>9</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>134</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="136">
+        <v>2730</v>
+      </c>
+      <c r="H13" s="100"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="96">
+        <v>10</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>137</v>
+      </c>
+      <c r="F14" s="99" t="s">
+        <v>218</v>
+      </c>
+      <c r="G14" s="136">
+        <v>300</v>
+      </c>
+      <c r="H14" s="100"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="96">
+        <v>11</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>217</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>214</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="136">
+        <v>300</v>
+      </c>
+      <c r="H15" s="100"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="96">
+        <v>12</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>215</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="136">
+        <v>1000</v>
+      </c>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="96">
+        <v>13</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>216</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>133</v>
+      </c>
+      <c r="F17" s="137" t="s">
+        <v>219</v>
+      </c>
+      <c r="G17" s="138">
+        <v>8000</v>
+      </c>
+      <c r="H17" s="139"/>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="130">
+        <f>SUM(G5:G17)</f>
+        <v>98914</v>
+      </c>
+      <c r="H18" s="102"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+    </row>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="140"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="145">
+        <v>290346</v>
+      </c>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="140"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="145">
+        <f>G18</f>
+        <v>98914</v>
+      </c>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="140"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="145">
+        <f>F21-F22</f>
+        <v>191432</v>
+      </c>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+    </row>
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I24"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>138</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>222</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>223</v>
+      </c>
+      <c r="G6" s="136">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>224</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>225</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>226</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="96">
+        <v>6</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>140</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="136">
+        <v>250</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="96">
+        <v>7</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>25</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="136">
+        <v>220</v>
+      </c>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="96">
+        <v>8</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="136">
+        <v>6933</v>
+      </c>
+      <c r="H12" s="100"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="96">
+        <v>9</v>
+      </c>
+      <c r="D13" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="99"/>
+      <c r="G13" s="136">
+        <v>7967</v>
+      </c>
+      <c r="H13" s="100"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="96">
+        <v>10</v>
+      </c>
+      <c r="D14" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E14" s="101" t="s">
+        <v>142</v>
+      </c>
+      <c r="F14" s="99"/>
+      <c r="G14" s="136">
+        <v>1150</v>
+      </c>
+      <c r="H14" s="100"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="96">
+        <v>11</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>143</v>
+      </c>
+      <c r="F15" s="99"/>
+      <c r="G15" s="136">
+        <v>200</v>
+      </c>
+      <c r="H15" s="100"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="96">
+        <v>12</v>
+      </c>
+      <c r="D16" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E16" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F16" s="99"/>
+      <c r="G16" s="136">
+        <v>175</v>
+      </c>
+      <c r="H16" s="100"/>
+    </row>
+    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="96">
+        <v>13</v>
+      </c>
+      <c r="D17" s="97" t="s">
+        <v>141</v>
+      </c>
+      <c r="E17" s="101" t="s">
+        <v>144</v>
+      </c>
+      <c r="F17" s="137"/>
+      <c r="G17" s="138">
+        <v>200</v>
+      </c>
+      <c r="H17" s="139"/>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="130">
+        <f>SUM(G5:G17)</f>
+        <v>52095</v>
+      </c>
+      <c r="H18" s="102"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="140"/>
+      <c r="D19" s="140"/>
+      <c r="E19" s="140"/>
+      <c r="F19" s="140"/>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+    </row>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="140"/>
+      <c r="D21" s="143"/>
+      <c r="E21" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="145">
+        <v>283252</v>
+      </c>
+      <c r="G21" s="140"/>
+      <c r="H21" s="140"/>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="140"/>
+      <c r="D22" s="143"/>
+      <c r="E22" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="145">
+        <f>G18</f>
+        <v>52095</v>
+      </c>
+      <c r="G22" s="140"/>
+      <c r="H22" s="140"/>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C23" s="140"/>
+      <c r="D23" s="143"/>
+      <c r="E23" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="145">
+        <f>F21-F22</f>
+        <v>231157</v>
+      </c>
+      <c r="G23" s="140"/>
+      <c r="H23" s="140"/>
+    </row>
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C24" s="140"/>
+      <c r="D24" s="140"/>
+      <c r="E24" s="140"/>
+      <c r="F24" s="140"/>
+      <c r="G24" s="140"/>
+      <c r="H24" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I20"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>151</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="135" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="135" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="135" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="135" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>153</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>154</v>
+      </c>
+      <c r="G6" s="136">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>155</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>156</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>152</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>157</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="96">
+        <v>10</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>228</v>
+      </c>
+      <c r="E10" s="97" t="s">
+        <v>227</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="136">
+        <v>8000</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="96">
+        <v>11</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>229</v>
+      </c>
+      <c r="E11" s="97" t="s">
+        <v>230</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="136">
+        <v>12000</v>
+      </c>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="96">
+        <v>12</v>
+      </c>
+      <c r="D12" s="97"/>
+      <c r="E12" s="101"/>
+      <c r="F12" s="137"/>
+      <c r="G12" s="138"/>
+      <c r="H12" s="100"/>
+    </row>
+    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="96">
+        <v>13</v>
+      </c>
+      <c r="D13" s="97"/>
+      <c r="E13" s="101"/>
+      <c r="F13" s="137"/>
+      <c r="G13" s="138"/>
+      <c r="H13" s="139"/>
+    </row>
+    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C14" s="125" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="126"/>
+      <c r="E14" s="127"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="130">
+        <f>SUM(G5:G13)</f>
+        <v>55000</v>
+      </c>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+    </row>
+    <row r="16" spans="3:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C17" s="140"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="145">
+        <v>339657</v>
+      </c>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+    </row>
+    <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C18" s="140"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="144" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="145">
+        <f>G14</f>
+        <v>55000</v>
+      </c>
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="140"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="145">
+        <f>F17-F18</f>
+        <v>284657</v>
+      </c>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
+    </row>
+    <row r="20" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+      <c r="C20" s="140"/>
+      <c r="D20" s="140"/>
+      <c r="E20" s="140"/>
+      <c r="F20" s="140"/>
+      <c r="G20" s="140"/>
+      <c r="H20" s="140"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I23"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F22" sqref="F22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>158</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="150" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="150" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="150" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="150" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="150" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="150" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="151">
+        <v>1</v>
+      </c>
+      <c r="D5" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E5" s="153" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="136" t="s">
+        <v>159</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="154"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="151">
+        <v>2</v>
+      </c>
+      <c r="D6" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E6" s="153" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="136" t="s">
+        <v>160</v>
+      </c>
+      <c r="G6" s="136">
+        <v>13000</v>
+      </c>
+      <c r="H6" s="154" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="151">
+        <v>3</v>
+      </c>
+      <c r="D7" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E7" s="153" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="136" t="s">
+        <v>161</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="154"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="151">
+        <v>4</v>
+      </c>
+      <c r="D8" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E8" s="153" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="136" t="s">
+        <v>162</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="154"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="151">
+        <v>5</v>
+      </c>
+      <c r="D9" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E9" s="153" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="136" t="s">
+        <v>163</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="154"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="151">
+        <v>6</v>
+      </c>
+      <c r="D10" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E10" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="136"/>
+      <c r="G10" s="136">
+        <v>17044</v>
+      </c>
+      <c r="H10" s="154"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="151">
+        <v>7</v>
+      </c>
+      <c r="D11" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E11" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="136"/>
+      <c r="G11" s="136">
+        <v>12334</v>
+      </c>
+      <c r="H11" s="154"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="151">
+        <v>8</v>
+      </c>
+      <c r="D12" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="E12" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F12" s="138"/>
+      <c r="G12" s="138">
+        <v>16863</v>
+      </c>
+      <c r="H12" s="154"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="151">
+        <v>9</v>
+      </c>
+      <c r="D13" s="152" t="s">
+        <v>167</v>
+      </c>
+      <c r="E13" s="155" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="138"/>
+      <c r="G13" s="138">
+        <v>2796</v>
+      </c>
+      <c r="H13" s="154"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="151">
+        <v>10</v>
+      </c>
+      <c r="D14" s="152" t="s">
+        <v>166</v>
+      </c>
+      <c r="E14" s="155" t="s">
+        <v>165</v>
+      </c>
+      <c r="F14" s="138"/>
+      <c r="G14" s="138">
+        <v>230</v>
+      </c>
+      <c r="H14" s="154"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="151">
+        <v>11</v>
+      </c>
+      <c r="D15" s="152" t="s">
+        <v>168</v>
+      </c>
+      <c r="E15" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F15" s="138"/>
+      <c r="G15" s="138">
+        <v>1800</v>
+      </c>
+      <c r="H15" s="154"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="151">
+        <v>12</v>
+      </c>
+      <c r="D16" s="152" t="s">
+        <v>169</v>
+      </c>
+      <c r="E16" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F16" s="138"/>
+      <c r="G16" s="138">
+        <v>1700</v>
+      </c>
+      <c r="H16" s="154"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="151">
+        <v>13</v>
+      </c>
+      <c r="D17" s="152" t="s">
+        <v>170</v>
+      </c>
+      <c r="E17" s="155" t="s">
+        <v>6</v>
+      </c>
+      <c r="F17" s="138"/>
+      <c r="G17" s="138">
+        <v>1800</v>
+      </c>
+      <c r="H17" s="154"/>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C18" s="146" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="147"/>
+      <c r="E18" s="148"/>
+      <c r="F18" s="149"/>
+      <c r="G18" s="130">
+        <f>SUM(G5:G17)</f>
+        <v>91567</v>
+      </c>
+      <c r="H18" s="156"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C19" s="157"/>
+      <c r="D19" s="157"/>
+      <c r="E19" s="157"/>
+      <c r="F19" s="157"/>
+      <c r="G19" s="157"/>
+      <c r="H19" s="157"/>
+    </row>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="131">
+        <v>365507</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="131">
+        <f>G18</f>
+        <v>91567</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="131">
+        <f>F21-F22</f>
+        <v>273940</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C1:H1"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1979,33 +3679,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="103" t="s">
-        <v>148</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="128" t="s">
+        <v>171</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2034,13 +3734,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>131</v>
+        <v>173</v>
       </c>
       <c r="G5" s="17">
         <v>15000</v>
@@ -2052,16 +3752,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>132</v>
+        <v>174</v>
       </c>
       <c r="G6" s="17">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2070,13 +3770,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>133</v>
+        <v>175</v>
       </c>
       <c r="G7" s="17">
         <v>3000</v>
@@ -2088,13 +3788,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>134</v>
+        <v>176</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
@@ -2106,170 +3806,192 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>143</v>
+        <v>172</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>135</v>
+        <v>177</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>142</v>
-      </c>
+        <v>6</v>
+      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17">
-        <v>443</v>
+        <v>28373</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
-        <v>8</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>141</v>
-      </c>
+        <v>7</v>
+      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="19" t="s">
         <v>8</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17">
-        <v>16741</v>
+        <v>22147</v>
       </c>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>178</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>180</v>
+      </c>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="19" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>140</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
-        <v>2710</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>140</v>
+        <v>172</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>146</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
-        <v>300</v>
+        <v>6</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
+        <v>1850</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14"/>
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
       <c r="D14" s="15" t="s">
-        <v>140</v>
+        <v>181</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>145</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
-        <v>300</v>
+        <v>6</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>2000</v>
       </c>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>140</v>
+        <v>182</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>144</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>1000</v>
+        <v>6</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <v>3000</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>140</v>
+        <v>183</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>139</v>
+        <v>6</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20">
-        <v>8000</v>
-      </c>
-      <c r="H16" s="21"/>
-    </row>
-    <row r="17" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="104" t="s">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>184</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>185</v>
+      </c>
+      <c r="F17" s="107" t="s">
+        <v>186</v>
+      </c>
+      <c r="G17" s="20">
+        <v>1600</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26">
-        <f>SUM(G5:G16)</f>
-        <v>64494</v>
-      </c>
-      <c r="H17" s="2"/>
-    </row>
-    <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
+        <f>SUM(G5:G17)</f>
+        <v>107970</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="24">
-        <v>255536</v>
-      </c>
-    </row>
-    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24" t="s">
+      <c r="F21" s="23">
+        <v>270952</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="24">
-        <f>G17</f>
-        <v>64494</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24" t="s">
+      <c r="F22" s="23">
+        <f>G18</f>
+        <v>107970</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="24">
-        <f>F20-F21</f>
-        <v>191042</v>
+      <c r="F23" s="23">
+        <f>F21-F22</f>
+        <v>162982</v>
       </c>
     </row>
   </sheetData>
@@ -2277,19 +3999,19 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C17:E17"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F22" sqref="F22"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2303,33 +4025,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="102" t="s">
+      <c r="C1" s="124" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="102" t="s">
+      <c r="C2" s="124" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="103" t="s">
-        <v>147</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="128" t="s">
+        <v>187</v>
+      </c>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2358,13 +4080,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>131</v>
+        <v>190</v>
       </c>
       <c r="G5" s="17">
         <v>15000</v>
@@ -2376,16 +4098,16 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>132</v>
+        <v>191</v>
       </c>
       <c r="G6" s="17">
-        <v>11000</v>
+        <v>13000</v>
       </c>
       <c r="H6" s="18"/>
     </row>
@@ -2394,13 +4116,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>133</v>
+        <v>192</v>
       </c>
       <c r="G7" s="17">
         <v>3000</v>
@@ -2412,13 +4134,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>134</v>
+        <v>193</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
@@ -2430,13 +4152,13 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>150</v>
+        <v>188</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>135</v>
+        <v>194</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
@@ -2447,32 +4169,24 @@
       <c r="C10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="15" t="s">
-        <v>150</v>
-      </c>
+      <c r="D10" s="15"/>
       <c r="E10" s="19" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>250</v>
-      </c>
+      <c r="G10" s="17"/>
       <c r="H10" s="18"/>
     </row>
     <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="15" t="s">
-        <v>151</v>
-      </c>
+      <c r="D11" s="15"/>
       <c r="E11" s="19" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="17">
-        <v>220</v>
-      </c>
+      <c r="G11" s="17"/>
       <c r="H11" s="18"/>
     </row>
     <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -2480,142 +4194,114 @@
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>151</v>
+        <v>189</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
-        <v>6933</v>
-      </c>
-      <c r="H12" s="18"/>
+        <v>195</v>
+      </c>
+      <c r="F12" s="17" t="s">
+        <v>196</v>
+      </c>
+      <c r="G12" s="20">
+        <v>20000</v>
+      </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
-        <v>7967</v>
-      </c>
+      <c r="D13" s="15"/>
+      <c r="E13" s="19"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>152</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
-        <v>1150</v>
-      </c>
+      <c r="D14" s="15"/>
+      <c r="E14" s="19"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20"/>
       <c r="H14" s="18"/>
     </row>
     <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
-      <c r="D15" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>153</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>200</v>
-      </c>
+      <c r="D15" s="15"/>
+      <c r="E15" s="19"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
       <c r="H15" s="18"/>
     </row>
     <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>12</v>
       </c>
-      <c r="D16" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
-        <v>175</v>
-      </c>
+      <c r="D16" s="15"/>
+      <c r="E16" s="19"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20"/>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>13</v>
       </c>
-      <c r="D17" s="15" t="s">
-        <v>151</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>154</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>200</v>
-      </c>
-      <c r="H17" s="21"/>
+      <c r="D17" s="15"/>
+      <c r="E17" s="19"/>
+      <c r="F17" s="107"/>
+      <c r="G17" s="20"/>
+      <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="104" t="s">
+      <c r="C18" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="105"/>
-      <c r="E18" s="106"/>
-      <c r="F18" s="25"/>
-      <c r="G18" s="26">
+      <c r="D18" s="126"/>
+      <c r="E18" s="127"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
         <f>SUM(G5:G17)</f>
-        <v>52095</v>
+        <v>57000</v>
       </c>
       <c r="H18" s="2"/>
     </row>
     <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="24" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="24">
+      <c r="F21" s="23">
         <v>270952</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="24" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="24">
+      <c r="F22" s="23">
         <f>G18</f>
-        <v>52095</v>
+        <v>57000</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="24" t="s">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="24">
+      <c r="F23" s="23">
         <f>F21-F22</f>
-        <v>218857</v>
+        <v>213952</v>
       </c>
     </row>
   </sheetData>
@@ -2649,13 +4335,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="224.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="90" t="s">
+      <c r="A1" s="112" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="90"/>
-      <c r="C1" s="90"/>
-      <c r="D1" s="90"/>
-      <c r="E1" s="90"/>
+      <c r="B1" s="112"/>
+      <c r="C1" s="112"/>
+      <c r="D1" s="112"/>
+      <c r="E1" s="112"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2680,330 +4366,330 @@
       <c r="G2" s="1"/>
     </row>
     <row r="3" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A3" s="27">
+      <c r="A3" s="26">
         <v>1</v>
       </c>
-      <c r="B3" s="30" t="s">
+      <c r="B3" s="29" t="s">
         <v>13</v>
       </c>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="27" t="s">
         <v>16</v>
       </c>
-      <c r="D3" s="30" t="s">
+      <c r="D3" s="29" t="s">
         <v>94</v>
       </c>
-      <c r="E3" s="29">
+      <c r="E3" s="28">
         <v>14000</v>
       </c>
-      <c r="F3" s="31"/>
+      <c r="F3" s="30"/>
     </row>
     <row r="4" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A4" s="27">
+      <c r="A4" s="26">
         <v>2</v>
       </c>
-      <c r="B4" s="30" t="s">
+      <c r="B4" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="28" t="s">
+      <c r="C4" s="27" t="s">
         <v>17</v>
       </c>
-      <c r="D4" s="30" t="s">
+      <c r="D4" s="29" t="s">
         <v>102</v>
       </c>
-      <c r="E4" s="29">
+      <c r="E4" s="28">
         <v>9500</v>
       </c>
-      <c r="F4" s="31"/>
+      <c r="F4" s="30"/>
     </row>
     <row r="5" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A5" s="27">
+      <c r="A5" s="26">
         <v>3</v>
       </c>
-      <c r="B5" s="30" t="s">
+      <c r="B5" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C5" s="28" t="s">
+      <c r="C5" s="27" t="s">
         <v>18</v>
       </c>
-      <c r="D5" s="30" t="s">
+      <c r="D5" s="29" t="s">
         <v>95</v>
       </c>
-      <c r="E5" s="29">
+      <c r="E5" s="28">
         <v>3000</v>
       </c>
-      <c r="F5" s="31"/>
+      <c r="F5" s="30"/>
     </row>
     <row r="6" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A6" s="27">
+      <c r="A6" s="26">
         <v>4</v>
       </c>
-      <c r="B6" s="30" t="s">
+      <c r="B6" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="28" t="s">
+      <c r="C6" s="27" t="s">
         <v>15</v>
       </c>
-      <c r="D6" s="30" t="s">
+      <c r="D6" s="29" t="s">
         <v>96</v>
       </c>
-      <c r="E6" s="29">
+      <c r="E6" s="28">
         <v>3000</v>
       </c>
-      <c r="F6" s="31"/>
+      <c r="F6" s="30"/>
     </row>
     <row r="7" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A7" s="27">
+      <c r="A7" s="26">
         <v>5</v>
       </c>
-      <c r="B7" s="30" t="s">
+      <c r="B7" s="29" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="28" t="s">
+      <c r="C7" s="27" t="s">
         <v>19</v>
       </c>
-      <c r="D7" s="30" t="s">
+      <c r="D7" s="29" t="s">
         <v>97</v>
       </c>
-      <c r="E7" s="29">
+      <c r="E7" s="28">
         <v>3000</v>
       </c>
-      <c r="F7" s="31"/>
+      <c r="F7" s="30"/>
     </row>
     <row r="8" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A8" s="27">
+      <c r="A8" s="26">
         <v>6</v>
       </c>
-      <c r="B8" s="30" t="s">
+      <c r="B8" s="29" t="s">
         <v>20</v>
       </c>
-      <c r="C8" s="32" t="s">
+      <c r="C8" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D8" s="29"/>
-      <c r="E8" s="29">
+      <c r="D8" s="28"/>
+      <c r="E8" s="28">
         <v>1000</v>
       </c>
-      <c r="F8" s="31"/>
+      <c r="F8" s="30"/>
     </row>
     <row r="9" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A9" s="27">
+      <c r="A9" s="26">
         <v>7</v>
       </c>
-      <c r="B9" s="30" t="s">
+      <c r="B9" s="29" t="s">
         <v>21</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C9" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D9" s="29"/>
-      <c r="E9" s="29">
+      <c r="D9" s="28"/>
+      <c r="E9" s="28">
         <v>1000</v>
       </c>
-      <c r="F9" s="31"/>
+      <c r="F9" s="30"/>
     </row>
     <row r="10" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A10" s="27">
+      <c r="A10" s="26">
         <v>8</v>
       </c>
-      <c r="B10" s="30" t="s">
+      <c r="B10" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C10" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D10" s="33"/>
-      <c r="E10" s="33">
+      <c r="D10" s="32"/>
+      <c r="E10" s="32">
         <v>1000</v>
       </c>
-      <c r="F10" s="34"/>
+      <c r="F10" s="33"/>
     </row>
     <row r="11" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A11" s="27">
+      <c r="A11" s="26">
         <v>9</v>
       </c>
-      <c r="B11" s="30" t="s">
+      <c r="B11" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C11" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="D11" s="33"/>
-      <c r="E11" s="33">
+      <c r="D11" s="32"/>
+      <c r="E11" s="32">
         <v>2000</v>
       </c>
-      <c r="F11" s="34"/>
+      <c r="F11" s="33"/>
     </row>
     <row r="12" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A12" s="27">
+      <c r="A12" s="26">
         <v>10</v>
       </c>
-      <c r="B12" s="30" t="s">
+      <c r="B12" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C12" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D12" s="33"/>
-      <c r="E12" s="33">
+      <c r="D12" s="32"/>
+      <c r="E12" s="32">
         <v>35758</v>
       </c>
-      <c r="F12" s="34"/>
+      <c r="F12" s="33"/>
     </row>
     <row r="13" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A13" s="27">
+      <c r="A13" s="26">
         <v>11</v>
       </c>
-      <c r="B13" s="30" t="s">
+      <c r="B13" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C13" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="D13" s="33"/>
-      <c r="E13" s="33">
+      <c r="D13" s="32"/>
+      <c r="E13" s="32">
         <v>1090</v>
       </c>
-      <c r="F13" s="34"/>
+      <c r="F13" s="33"/>
     </row>
     <row r="14" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A14" s="27">
+      <c r="A14" s="26">
         <v>12</v>
       </c>
-      <c r="B14" s="35" t="s">
+      <c r="B14" s="34" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="32" t="s">
+      <c r="C14" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="D14" s="33"/>
-      <c r="E14" s="33">
+      <c r="D14" s="32"/>
+      <c r="E14" s="32">
         <v>220</v>
       </c>
-      <c r="F14" s="34"/>
+      <c r="F14" s="33"/>
     </row>
     <row r="15" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A15" s="27">
+      <c r="A15" s="26">
         <v>13</v>
       </c>
-      <c r="B15" s="35" t="s">
+      <c r="B15" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="C15" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="D15" s="35" t="s">
+      <c r="D15" s="34" t="s">
         <v>101</v>
       </c>
-      <c r="E15" s="33">
+      <c r="E15" s="32">
         <v>490</v>
       </c>
-      <c r="F15" s="34"/>
+      <c r="F15" s="33"/>
     </row>
     <row r="16" spans="1:7" ht="21" x14ac:dyDescent="0.4">
-      <c r="A16" s="27">
+      <c r="A16" s="26">
         <v>14</v>
       </c>
-      <c r="B16" s="35" t="s">
+      <c r="B16" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="C16" s="32" t="s">
+      <c r="C16" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="D16" s="35" t="s">
+      <c r="D16" s="34" t="s">
         <v>100</v>
       </c>
-      <c r="E16" s="33">
+      <c r="E16" s="32">
         <v>400</v>
       </c>
-      <c r="F16" s="34"/>
+      <c r="F16" s="33"/>
     </row>
     <row r="17" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A17" s="27">
+      <c r="A17" s="26">
         <v>15</v>
       </c>
-      <c r="B17" s="36" t="s">
+      <c r="B17" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="C17" s="32" t="s">
+      <c r="C17" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="D17" s="35" t="s">
+      <c r="D17" s="34" t="s">
         <v>99</v>
       </c>
-      <c r="E17" s="33">
+      <c r="E17" s="32">
         <v>2000</v>
       </c>
-      <c r="F17" s="34"/>
+      <c r="F17" s="33"/>
     </row>
     <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.4">
-      <c r="A18" s="27">
+      <c r="A18" s="26">
         <v>16</v>
       </c>
-      <c r="B18" s="37" t="s">
+      <c r="B18" s="36" t="s">
         <v>13</v>
       </c>
-      <c r="C18" s="37" t="s">
+      <c r="C18" s="36" t="s">
         <v>32</v>
       </c>
-      <c r="D18" s="35" t="s">
+      <c r="D18" s="34" t="s">
         <v>98</v>
       </c>
-      <c r="E18" s="33">
+      <c r="E18" s="32">
         <v>6000</v>
       </c>
-      <c r="F18" s="34"/>
+      <c r="F18" s="33"/>
     </row>
     <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A19" s="27"/>
-      <c r="B19" s="33"/>
-      <c r="C19" s="32"/>
-      <c r="D19" s="33"/>
-      <c r="E19" s="33"/>
-      <c r="F19" s="34"/>
+      <c r="A19" s="26"/>
+      <c r="B19" s="32"/>
+      <c r="C19" s="31"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="33"/>
     </row>
     <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
-      <c r="A20" s="27"/>
-      <c r="B20" s="33"/>
-      <c r="C20" s="32"/>
-      <c r="D20" s="33"/>
-      <c r="E20" s="33"/>
-      <c r="F20" s="34"/>
+      <c r="A20" s="26"/>
+      <c r="B20" s="32"/>
+      <c r="C20" s="31"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="91" t="s">
+      <c r="A21" s="113" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="92"/>
-      <c r="C21" s="93"/>
-      <c r="D21" s="33"/>
-      <c r="E21" s="38">
+      <c r="B21" s="114"/>
+      <c r="C21" s="115"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="37">
         <f>SUM(E3:E20)</f>
         <v>83458</v>
       </c>
-      <c r="F21" s="34"/>
+      <c r="F21" s="33"/>
     </row>
     <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="39" t="s">
+      <c r="C24" s="38" t="s">
         <v>9</v>
       </c>
-      <c r="D24" s="39">
+      <c r="D24" s="38">
         <v>129080</v>
       </c>
     </row>
     <row r="25" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="39" t="s">
+      <c r="C25" s="38" t="s">
         <v>10</v>
       </c>
-      <c r="D25" s="39">
+      <c r="D25" s="38">
         <v>83458</v>
       </c>
     </row>
     <row r="26" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="39" t="s">
+      <c r="C26" s="38" t="s">
         <v>11</v>
       </c>
-      <c r="D26" s="39">
+      <c r="D26" s="38">
         <f>D24-D25</f>
         <v>45622</v>
       </c>
@@ -3030,276 +4716,276 @@
   <cols>
     <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" style="41" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" style="39" customWidth="1"/>
     <col min="6" max="6" width="23.88671875" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="278.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C1" s="94" t="s">
-        <v>158</v>
-      </c>
-      <c r="D1" s="94"/>
-      <c r="E1" s="94"/>
-      <c r="F1" s="94"/>
-      <c r="G1" s="94"/>
-      <c r="H1" s="42"/>
+      <c r="C1" s="116" t="s">
+        <v>148</v>
+      </c>
+      <c r="D1" s="116"/>
+      <c r="E1" s="116"/>
+      <c r="F1" s="116"/>
+      <c r="G1" s="116"/>
+      <c r="H1" s="40"/>
     </row>
     <row r="2" spans="3:9" ht="51" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="73" t="s">
+      <c r="C2" s="71" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="73" t="s">
+      <c r="D2" s="71" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="73" t="s">
+      <c r="E2" s="71" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="73" t="s">
+      <c r="F2" s="71" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="73" t="s">
+      <c r="G2" s="71" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="73" t="s">
+      <c r="H2" s="71" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="51">
+      <c r="C3" s="49">
         <v>1</v>
       </c>
-      <c r="D3" s="52" t="s">
+      <c r="D3" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E3" s="60" t="s">
-        <v>157</v>
-      </c>
-      <c r="F3" s="67" t="s">
+      <c r="E3" s="58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F3" s="65" t="s">
         <v>103</v>
       </c>
-      <c r="G3" s="63">
+      <c r="G3" s="61">
         <v>15000</v>
       </c>
-      <c r="H3" s="53"/>
+      <c r="H3" s="51"/>
     </row>
     <row r="4" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="51">
+      <c r="C4" s="49">
         <v>2</v>
       </c>
-      <c r="D4" s="52" t="s">
+      <c r="D4" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E4" s="60" t="s">
-        <v>155</v>
-      </c>
-      <c r="F4" s="67" t="s">
+      <c r="E4" s="58" t="s">
+        <v>145</v>
+      </c>
+      <c r="F4" s="65" t="s">
         <v>104</v>
       </c>
-      <c r="G4" s="63">
+      <c r="G4" s="61">
         <v>11000</v>
       </c>
-      <c r="H4" s="53"/>
+      <c r="H4" s="51"/>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="51">
+      <c r="C5" s="49">
         <v>3</v>
       </c>
-      <c r="D5" s="52" t="s">
+      <c r="D5" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E5" s="60" t="s">
-        <v>156</v>
-      </c>
-      <c r="F5" s="67" t="s">
+      <c r="E5" s="58" t="s">
+        <v>146</v>
+      </c>
+      <c r="F5" s="65" t="s">
         <v>105</v>
       </c>
-      <c r="G5" s="63">
+      <c r="G5" s="61">
         <v>3000</v>
       </c>
-      <c r="H5" s="53"/>
+      <c r="H5" s="51"/>
     </row>
     <row r="6" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="51">
+      <c r="C6" s="49">
         <v>4</v>
       </c>
-      <c r="D6" s="52" t="s">
+      <c r="D6" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E6" s="60" t="s">
+      <c r="E6" s="58" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="67" t="s">
+      <c r="F6" s="65" t="s">
         <v>107</v>
       </c>
-      <c r="G6" s="63">
+      <c r="G6" s="61">
         <v>3000</v>
       </c>
-      <c r="H6" s="53"/>
+      <c r="H6" s="51"/>
     </row>
     <row r="7" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="51">
+      <c r="C7" s="49">
         <v>5</v>
       </c>
-      <c r="D7" s="52" t="s">
+      <c r="D7" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E7" s="60" t="s">
+      <c r="E7" s="58" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="67" t="s">
+      <c r="F7" s="65" t="s">
         <v>106</v>
       </c>
-      <c r="G7" s="63">
+      <c r="G7" s="61">
         <v>3000</v>
       </c>
-      <c r="H7" s="53"/>
+      <c r="H7" s="51"/>
     </row>
     <row r="8" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="51">
+      <c r="C8" s="49">
         <v>6</v>
       </c>
-      <c r="D8" s="52" t="s">
+      <c r="D8" s="50" t="s">
         <v>108</v>
       </c>
-      <c r="E8" s="61" t="s">
+      <c r="E8" s="59" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="68"/>
-      <c r="G8" s="63">
+      <c r="F8" s="66"/>
+      <c r="G8" s="61">
         <v>2000</v>
       </c>
-      <c r="H8" s="53"/>
+      <c r="H8" s="51"/>
     </row>
     <row r="9" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="51">
+      <c r="C9" s="49">
         <v>7</v>
       </c>
-      <c r="D9" s="52" t="s">
+      <c r="D9" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="E9" s="61" t="s">
+      <c r="E9" s="59" t="s">
         <v>117</v>
       </c>
-      <c r="F9" s="68"/>
-      <c r="G9" s="63">
+      <c r="F9" s="66"/>
+      <c r="G9" s="61">
         <v>340</v>
       </c>
-      <c r="H9" s="53"/>
+      <c r="H9" s="51"/>
     </row>
     <row r="10" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="51">
+      <c r="C10" s="49">
         <v>8</v>
       </c>
-      <c r="D10" s="52" t="s">
+      <c r="D10" s="50" t="s">
         <v>110</v>
       </c>
-      <c r="E10" s="61" t="s">
+      <c r="E10" s="59" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="68"/>
-      <c r="G10" s="63">
+      <c r="F10" s="66"/>
+      <c r="G10" s="61">
         <v>800</v>
       </c>
-      <c r="H10" s="53"/>
+      <c r="H10" s="51"/>
     </row>
     <row r="11" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="51">
+      <c r="C11" s="49">
         <v>9</v>
       </c>
-      <c r="D11" s="52" t="s">
+      <c r="D11" s="50" t="s">
         <v>109</v>
       </c>
-      <c r="E11" s="61" t="s">
+      <c r="E11" s="59" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="68"/>
-      <c r="G11" s="63">
+      <c r="F11" s="66"/>
+      <c r="G11" s="61">
         <v>220</v>
       </c>
-      <c r="H11" s="53"/>
+      <c r="H11" s="51"/>
     </row>
     <row r="12" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="51">
+      <c r="C12" s="49">
         <v>10</v>
       </c>
-      <c r="D12" s="52" t="s">
+      <c r="D12" s="50" t="s">
         <v>111</v>
       </c>
-      <c r="E12" s="61" t="s">
+      <c r="E12" s="59" t="s">
         <v>112</v>
       </c>
-      <c r="F12" s="69" t="s">
+      <c r="F12" s="67" t="s">
         <v>113</v>
       </c>
-      <c r="G12" s="64">
+      <c r="G12" s="62">
         <v>960</v>
       </c>
-      <c r="H12" s="54"/>
+      <c r="H12" s="52"/>
     </row>
     <row r="13" spans="3:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="55">
+      <c r="C13" s="53">
         <v>11</v>
       </c>
-      <c r="D13" s="56" t="s">
+      <c r="D13" s="54" t="s">
         <v>111</v>
       </c>
-      <c r="E13" s="62" t="s">
+      <c r="E13" s="60" t="s">
         <v>115</v>
       </c>
-      <c r="F13" s="70" t="s">
+      <c r="F13" s="68" t="s">
         <v>114</v>
       </c>
-      <c r="G13" s="65">
+      <c r="G13" s="63">
         <v>700</v>
       </c>
-      <c r="H13" s="57"/>
+      <c r="H13" s="55"/>
     </row>
     <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="95" t="s">
+      <c r="C14" s="117" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="96"/>
-      <c r="E14" s="97"/>
-      <c r="F14" s="58"/>
-      <c r="G14" s="66">
+      <c r="D14" s="118"/>
+      <c r="E14" s="119"/>
+      <c r="F14" s="56"/>
+      <c r="G14" s="64">
         <f>SUM(G3:G13)</f>
         <v>40020</v>
       </c>
-      <c r="H14" s="59"/>
+      <c r="H14" s="57"/>
     </row>
     <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="16" spans="3:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="17" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="71" t="s">
+      <c r="C17" s="21"/>
+      <c r="D17" s="22"/>
+      <c r="E17" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="70">
         <v>142622</v>
       </c>
     </row>
     <row r="18" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="71" t="s">
+      <c r="C18" s="21"/>
+      <c r="D18" s="22"/>
+      <c r="E18" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="72">
+      <c r="F18" s="70">
         <f>G14</f>
         <v>40020</v>
       </c>
     </row>
     <row r="19" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="71" t="s">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="69" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="72">
+      <c r="F19" s="70">
         <f>F17-F18</f>
         <v>102602</v>
       </c>
@@ -3335,264 +5021,264 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C1" s="101" t="s">
-        <v>159</v>
-      </c>
-      <c r="D1" s="101"/>
-      <c r="E1" s="101"/>
-      <c r="F1" s="101"/>
-      <c r="G1" s="101"/>
-      <c r="H1" s="101"/>
+      <c r="C1" s="123" t="s">
+        <v>149</v>
+      </c>
+      <c r="D1" s="123"/>
+      <c r="E1" s="123"/>
+      <c r="F1" s="123"/>
+      <c r="G1" s="123"/>
+      <c r="H1" s="123"/>
     </row>
     <row r="2" spans="3:9" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="78" t="s">
+      <c r="C2" s="76" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="78" t="s">
+      <c r="D2" s="76" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="78" t="s">
+      <c r="E2" s="76" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="78" t="s">
+      <c r="F2" s="76" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="78" t="s">
+      <c r="G2" s="76" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="78" t="s">
+      <c r="H2" s="76" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E3" s="80" t="s">
+      <c r="E3" s="78" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>34</v>
       </c>
-      <c r="G3" s="50">
+      <c r="G3" s="48">
         <v>15000</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E4" s="80" t="s">
+      <c r="E4" s="78" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>35</v>
       </c>
-      <c r="G4" s="50">
+      <c r="G4" s="48">
         <v>11000</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E5" s="80" t="s">
+      <c r="E5" s="78" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="50">
+      <c r="G5" s="48">
         <v>3000</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>4</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E6" s="80" t="s">
+      <c r="E6" s="78" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>37</v>
       </c>
-      <c r="G6" s="50">
+      <c r="G6" s="48">
         <v>3000</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>5</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>42</v>
       </c>
-      <c r="E7" s="80" t="s">
+      <c r="E7" s="78" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>38</v>
       </c>
-      <c r="G7" s="50">
+      <c r="G7" s="48">
         <v>3000</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>6</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>40</v>
       </c>
-      <c r="E8" s="81" t="s">
+      <c r="E8" s="79" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="50">
+      <c r="F8" s="43"/>
+      <c r="G8" s="48">
         <v>2000</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>7</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>41</v>
       </c>
-      <c r="E9" s="81" t="s">
+      <c r="E9" s="79" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="50">
+      <c r="F9" s="43"/>
+      <c r="G9" s="48">
         <v>1500</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>8</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>43</v>
       </c>
-      <c r="E10" s="81" t="s">
+      <c r="E10" s="79" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="50">
+      <c r="F10" s="43"/>
+      <c r="G10" s="48">
         <v>10560</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="47">
+      <c r="C11" s="45">
         <v>9</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="46" t="s">
         <v>43</v>
       </c>
-      <c r="E11" s="82" t="s">
+      <c r="E11" s="80" t="s">
         <v>25</v>
       </c>
-      <c r="F11" s="76"/>
-      <c r="G11" s="83">
+      <c r="F11" s="74"/>
+      <c r="G11" s="81">
         <v>220</v>
       </c>
-      <c r="H11" s="77"/>
+      <c r="H11" s="75"/>
     </row>
     <row r="12" spans="3:9" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="98" t="s">
+      <c r="C12" s="120" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="99"/>
-      <c r="E12" s="100"/>
-      <c r="F12" s="49"/>
-      <c r="G12" s="84">
+      <c r="D12" s="121"/>
+      <c r="E12" s="122"/>
+      <c r="F12" s="47"/>
+      <c r="G12" s="82">
         <f>SUM(G3:G11)</f>
         <v>49280</v>
       </c>
-      <c r="H12" s="79"/>
+      <c r="H12" s="77"/>
     </row>
     <row r="13" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
+      <c r="C13" s="73"/>
+      <c r="D13" s="73"/>
+      <c r="E13" s="73"/>
+      <c r="F13" s="73"/>
+      <c r="G13" s="73"/>
+      <c r="H13" s="73"/>
     </row>
     <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
+      <c r="C14" s="73"/>
+      <c r="D14" s="73"/>
+      <c r="E14" s="73"/>
+      <c r="F14" s="73"/>
+      <c r="G14" s="73"/>
+      <c r="H14" s="73"/>
     </row>
     <row r="15" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C15" s="74"/>
-      <c r="D15" s="74"/>
-      <c r="E15" s="85" t="s">
+      <c r="C15" s="72"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="83" t="s">
         <v>9</v>
       </c>
-      <c r="F15" s="72">
+      <c r="F15" s="70">
         <v>179862</v>
       </c>
-      <c r="G15" s="75"/>
-      <c r="H15" s="75"/>
+      <c r="G15" s="73"/>
+      <c r="H15" s="73"/>
     </row>
     <row r="16" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C16" s="74"/>
-      <c r="D16" s="74"/>
-      <c r="E16" s="85" t="s">
+      <c r="C16" s="72"/>
+      <c r="D16" s="72"/>
+      <c r="E16" s="83" t="s">
         <v>10</v>
       </c>
-      <c r="F16" s="72">
+      <c r="F16" s="70">
         <f>G12</f>
         <v>49280</v>
       </c>
-      <c r="G16" s="75"/>
-      <c r="H16" s="75"/>
+      <c r="G16" s="73"/>
+      <c r="H16" s="73"/>
     </row>
     <row r="17" spans="3:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="74"/>
-      <c r="D17" s="74"/>
-      <c r="E17" s="85" t="s">
+      <c r="C17" s="72"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="83" t="s">
         <v>11</v>
       </c>
-      <c r="F17" s="72">
+      <c r="F17" s="70">
         <f>F15-F16</f>
         <v>130582</v>
       </c>
-      <c r="G17" s="75"/>
-      <c r="H17" s="75"/>
+      <c r="G17" s="73"/>
+      <c r="H17" s="73"/>
     </row>
     <row r="18" spans="3:8" x14ac:dyDescent="0.3">
-      <c r="C18" s="75"/>
-      <c r="D18" s="75"/>
-      <c r="E18" s="75"/>
-      <c r="F18" s="75"/>
-      <c r="G18" s="75"/>
-      <c r="H18" s="75"/>
+      <c r="C18" s="73"/>
+      <c r="D18" s="73"/>
+      <c r="E18" s="73"/>
+      <c r="F18" s="73"/>
+      <c r="G18" s="73"/>
+      <c r="H18" s="73"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -3623,48 +5309,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="226.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="102"/>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
+      <c r="C1" s="124"/>
+      <c r="D1" s="124"/>
+      <c r="E1" s="124"/>
+      <c r="F1" s="124"/>
+      <c r="G1" s="124"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="102"/>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="61.8" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C3" s="107" t="s">
+      <c r="C3" s="84" t="s">
         <v>54</v>
       </c>
-      <c r="D3" s="107"/>
-      <c r="E3" s="107"/>
-      <c r="F3" s="107"/>
-      <c r="G3" s="107"/>
+      <c r="D3" s="84"/>
+      <c r="E3" s="84"/>
+      <c r="F3" s="84"/>
+      <c r="G3" s="84"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="108" t="s">
+      <c r="C4" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="108" t="s">
+      <c r="D4" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="108" t="s">
+      <c r="E4" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="108" t="s">
+      <c r="F4" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="108" t="s">
+      <c r="G4" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="108" t="s">
+      <c r="H4" s="85" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -3676,7 +5362,7 @@
       <c r="D5" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="86" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
@@ -3694,7 +5380,7 @@
       <c r="D6" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="86" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
@@ -3712,7 +5398,7 @@
       <c r="D7" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="86" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
@@ -3730,7 +5416,7 @@
       <c r="D8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E8" s="109" t="s">
+      <c r="E8" s="86" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
@@ -3748,7 +5434,7 @@
       <c r="D9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="E9" s="109" t="s">
+      <c r="E9" s="86" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
@@ -3766,7 +5452,7 @@
       <c r="D10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="87" t="s">
         <v>6</v>
       </c>
       <c r="F10" s="17"/>
@@ -3782,7 +5468,7 @@
       <c r="D11" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="E11" s="110" t="s">
+      <c r="E11" s="87" t="s">
         <v>6</v>
       </c>
       <c r="F11" s="17"/>
@@ -3798,7 +5484,7 @@
       <c r="D12" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="E12" s="110" t="s">
+      <c r="E12" s="87" t="s">
         <v>39</v>
       </c>
       <c r="F12" s="17"/>
@@ -3814,7 +5500,7 @@
       <c r="D13" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="87" t="s">
         <v>8</v>
       </c>
       <c r="F13" s="17"/>
@@ -3830,7 +5516,7 @@
       <c r="D14" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="87" t="s">
         <v>8</v>
       </c>
       <c r="F14" s="17"/>
@@ -3846,7 +5532,7 @@
       <c r="D15" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F15" s="17"/>
@@ -3862,7 +5548,7 @@
       <c r="D16" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="87" t="s">
         <v>25</v>
       </c>
       <c r="F16" s="17"/>
@@ -3872,13 +5558,13 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26">
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25">
         <f>SUM(G5:G16)</f>
         <v>50734</v>
       </c>
@@ -3886,64 +5572,64 @@
     </row>
     <row r="18" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="3:10" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E19" s="78"/>
-      <c r="F19" s="78"/>
-      <c r="G19" s="78"/>
-      <c r="H19" s="111"/>
-      <c r="I19" s="111"/>
-      <c r="J19" s="111"/>
+      <c r="E19" s="76"/>
+      <c r="F19" s="76"/>
+      <c r="G19" s="76"/>
+      <c r="H19" s="88"/>
+      <c r="I19" s="88"/>
+      <c r="J19" s="88"/>
     </row>
     <row r="20" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="114" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="115">
+      <c r="F20" s="92">
         <v>225332</v>
       </c>
-      <c r="G20" s="116"/>
-      <c r="H20" s="112"/>
-      <c r="I20" s="113"/>
-      <c r="J20" s="112"/>
+      <c r="G20" s="93"/>
+      <c r="H20" s="89"/>
+      <c r="I20" s="90"/>
+      <c r="J20" s="89"/>
     </row>
     <row r="21" spans="3:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="114" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="115">
+      <c r="F21" s="92">
         <f>G17</f>
         <v>50734</v>
       </c>
-      <c r="G21" s="116"/>
-      <c r="H21" s="112"/>
-      <c r="I21" s="113"/>
-      <c r="J21" s="112"/>
+      <c r="G21" s="93"/>
+      <c r="H21" s="89"/>
+      <c r="I21" s="90"/>
+      <c r="J21" s="89"/>
     </row>
     <row r="22" spans="3:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="114" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="115">
+      <c r="F22" s="92">
         <f>F20-F21</f>
         <v>174598</v>
       </c>
-      <c r="G22" s="116"/>
-      <c r="H22" s="112"/>
-      <c r="I22" s="113"/>
-      <c r="J22" s="112"/>
+      <c r="G22" s="93"/>
+      <c r="H22" s="89"/>
+      <c r="I22" s="90"/>
+      <c r="J22" s="89"/>
     </row>
     <row r="23" spans="3:10" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E23" s="114"/>
-      <c r="F23" s="115"/>
-      <c r="G23" s="116"/>
-      <c r="H23" s="112"/>
-      <c r="I23" s="113"/>
-      <c r="J23" s="112"/>
+      <c r="E23" s="91"/>
+      <c r="F23" s="92"/>
+      <c r="G23" s="93"/>
+      <c r="H23" s="89"/>
+      <c r="I23" s="90"/>
+      <c r="J23" s="89"/>
     </row>
   </sheetData>
   <mergeCells count="3">
@@ -3975,313 +5661,313 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="310.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C1" s="107" t="s">
+      <c r="C1" s="84" t="s">
         <v>66</v>
       </c>
-      <c r="D1" s="107"/>
-      <c r="E1" s="107"/>
-      <c r="F1" s="107"/>
-      <c r="G1" s="107"/>
-      <c r="H1" s="118"/>
+      <c r="D1" s="84"/>
+      <c r="E1" s="84"/>
+      <c r="F1" s="84"/>
+      <c r="G1" s="84"/>
+      <c r="H1" s="95"/>
     </row>
     <row r="2" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="85" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="119">
+      <c r="C3" s="96">
         <v>1</v>
       </c>
-      <c r="D3" s="120" t="s">
+      <c r="D3" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E3" s="121" t="s">
+      <c r="E3" s="98" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="122" t="s">
+      <c r="F3" s="99" t="s">
         <v>68</v>
       </c>
-      <c r="G3" s="122">
+      <c r="G3" s="99">
         <v>15000</v>
       </c>
-      <c r="H3" s="123"/>
+      <c r="H3" s="100"/>
     </row>
     <row r="4" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="119">
+      <c r="C4" s="96">
         <v>2</v>
       </c>
-      <c r="D4" s="120" t="s">
+      <c r="D4" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E4" s="121" t="s">
+      <c r="E4" s="98" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="122" t="s">
+      <c r="F4" s="99" t="s">
         <v>67</v>
       </c>
-      <c r="G4" s="122">
+      <c r="G4" s="99">
         <v>11000</v>
       </c>
-      <c r="H4" s="123"/>
+      <c r="H4" s="100"/>
     </row>
     <row r="5" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="119">
+      <c r="C5" s="96">
         <v>3</v>
       </c>
-      <c r="D5" s="120" t="s">
+      <c r="D5" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E5" s="121" t="s">
+      <c r="E5" s="98" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="122" t="s">
+      <c r="F5" s="99" t="s">
         <v>69</v>
       </c>
-      <c r="G5" s="122">
+      <c r="G5" s="99">
         <v>3000</v>
       </c>
-      <c r="H5" s="123"/>
+      <c r="H5" s="100"/>
     </row>
     <row r="6" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="119">
+      <c r="C6" s="96">
         <v>4</v>
       </c>
-      <c r="D6" s="120" t="s">
+      <c r="D6" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E6" s="121" t="s">
+      <c r="E6" s="98" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="122" t="s">
+      <c r="F6" s="99" t="s">
         <v>70</v>
       </c>
-      <c r="G6" s="122">
+      <c r="G6" s="99">
         <v>3000</v>
       </c>
-      <c r="H6" s="123"/>
+      <c r="H6" s="100"/>
     </row>
     <row r="7" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="119">
+      <c r="C7" s="96">
         <v>5</v>
       </c>
-      <c r="D7" s="120" t="s">
+      <c r="D7" s="97" t="s">
         <v>75</v>
       </c>
-      <c r="E7" s="121" t="s">
+      <c r="E7" s="98" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="122" t="s">
+      <c r="F7" s="99" t="s">
         <v>71</v>
       </c>
-      <c r="G7" s="122">
+      <c r="G7" s="99">
         <v>3000</v>
       </c>
-      <c r="H7" s="123"/>
+      <c r="H7" s="100"/>
     </row>
     <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="119">
+      <c r="C8" s="96">
         <v>6</v>
       </c>
-      <c r="D8" s="120" t="s">
+      <c r="D8" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E8" s="124" t="s">
+      <c r="E8" s="101" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="122"/>
-      <c r="G8" s="122">
+      <c r="F8" s="99"/>
+      <c r="G8" s="99">
         <v>2000</v>
       </c>
-      <c r="H8" s="123"/>
+      <c r="H8" s="100"/>
     </row>
     <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="119">
+      <c r="C9" s="96">
         <v>7</v>
       </c>
-      <c r="D9" s="120" t="s">
+      <c r="D9" s="97" t="s">
         <v>73</v>
       </c>
-      <c r="E9" s="124" t="s">
+      <c r="E9" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="122"/>
-      <c r="G9" s="122">
+      <c r="F9" s="99"/>
+      <c r="G9" s="99">
         <v>2500</v>
       </c>
-      <c r="H9" s="123"/>
+      <c r="H9" s="100"/>
     </row>
     <row r="10" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="119">
+      <c r="C10" s="96">
         <v>8</v>
       </c>
-      <c r="D10" s="120" t="s">
+      <c r="D10" s="97" t="s">
         <v>74</v>
       </c>
-      <c r="E10" s="124" t="s">
+      <c r="E10" s="101" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="122"/>
-      <c r="G10" s="122">
+      <c r="F10" s="99"/>
+      <c r="G10" s="99">
         <v>2000</v>
       </c>
-      <c r="H10" s="123"/>
+      <c r="H10" s="100"/>
     </row>
     <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="119">
+      <c r="C11" s="96">
         <v>9</v>
       </c>
-      <c r="D11" s="120" t="s">
+      <c r="D11" s="97" t="s">
         <v>72</v>
       </c>
-      <c r="E11" s="124" t="s">
+      <c r="E11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="122"/>
-      <c r="G11" s="122">
+      <c r="F11" s="99"/>
+      <c r="G11" s="99">
         <v>15600</v>
       </c>
-      <c r="H11" s="123"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="119">
+      <c r="C12" s="96">
         <v>10</v>
       </c>
-      <c r="D12" s="120" t="s">
+      <c r="D12" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E12" s="124" t="s">
+      <c r="E12" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="122"/>
-      <c r="G12" s="122">
+      <c r="F12" s="99"/>
+      <c r="G12" s="99">
         <v>10422</v>
       </c>
-      <c r="H12" s="123"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="119">
+      <c r="C13" s="96">
         <v>11</v>
       </c>
-      <c r="D13" s="120" t="s">
+      <c r="D13" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E13" s="124" t="s">
+      <c r="E13" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="122"/>
-      <c r="G13" s="122">
+      <c r="F13" s="99"/>
+      <c r="G13" s="99">
         <v>16189</v>
       </c>
-      <c r="H13" s="123"/>
+      <c r="H13" s="100"/>
     </row>
     <row r="14" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="119">
+      <c r="C14" s="96">
         <v>12</v>
       </c>
-      <c r="D14" s="120" t="s">
+      <c r="D14" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E14" s="124" t="s">
+      <c r="E14" s="101" t="s">
         <v>118</v>
       </c>
-      <c r="F14" s="122"/>
-      <c r="G14" s="122">
+      <c r="F14" s="99"/>
+      <c r="G14" s="99">
         <v>300</v>
       </c>
-      <c r="H14" s="123"/>
+      <c r="H14" s="100"/>
     </row>
     <row r="15" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="119">
+      <c r="C15" s="96">
         <v>13</v>
       </c>
-      <c r="D15" s="120" t="s">
+      <c r="D15" s="97" t="s">
         <v>76</v>
       </c>
-      <c r="E15" s="124" t="s">
+      <c r="E15" s="101" t="s">
         <v>119</v>
       </c>
-      <c r="F15" s="122"/>
-      <c r="G15" s="122">
+      <c r="F15" s="99"/>
+      <c r="G15" s="99">
         <v>68000</v>
       </c>
-      <c r="H15" s="123"/>
+      <c r="H15" s="100"/>
     </row>
     <row r="16" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="119">
+      <c r="C16" s="96">
         <v>14</v>
       </c>
-      <c r="D16" s="120" t="s">
-        <v>160</v>
-      </c>
-      <c r="E16" s="124" t="s">
+      <c r="D16" s="97" t="s">
+        <v>150</v>
+      </c>
+      <c r="E16" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="F16" s="122"/>
-      <c r="G16" s="122">
+      <c r="F16" s="99"/>
+      <c r="G16" s="99">
         <v>0</v>
       </c>
-      <c r="H16" s="123"/>
+      <c r="H16" s="100"/>
     </row>
     <row r="17" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="104" t="s">
+      <c r="C17" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="105"/>
-      <c r="E17" s="106"/>
-      <c r="F17" s="25"/>
-      <c r="G17" s="26">
+      <c r="D17" s="126"/>
+      <c r="E17" s="127"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="25">
         <f>SUM(G3:G16)</f>
         <v>152011</v>
       </c>
-      <c r="H17" s="125"/>
+      <c r="H17" s="102"/>
     </row>
     <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="114" t="s">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="91" t="s">
         <v>9</v>
       </c>
-      <c r="F20" s="114">
+      <c r="F20" s="91">
         <v>244448</v>
       </c>
     </row>
     <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="114" t="s">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="91" t="s">
         <v>10</v>
       </c>
-      <c r="F21" s="114">
+      <c r="F21" s="91">
         <f>G17</f>
         <v>152011</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="114" t="s">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="91" t="s">
         <v>11</v>
       </c>
-      <c r="F22" s="114">
+      <c r="F22" s="91">
         <f>F20-F21</f>
         <v>92437</v>
       </c>
@@ -4299,8 +5985,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I26"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4314,338 +6000,338 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="309.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="C1" s="126" t="s">
+      <c r="C1" s="129" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="126"/>
-      <c r="E1" s="126"/>
-      <c r="F1" s="126"/>
-      <c r="G1" s="126"/>
-      <c r="H1" s="118"/>
+      <c r="D1" s="129"/>
+      <c r="E1" s="129"/>
+      <c r="F1" s="129"/>
+      <c r="G1" s="129"/>
+      <c r="H1" s="129"/>
     </row>
     <row r="2" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C2" s="108" t="s">
+      <c r="C2" s="85" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="108" t="s">
+      <c r="D2" s="85" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="108" t="s">
+      <c r="E2" s="85" t="s">
         <v>5</v>
       </c>
-      <c r="F2" s="108" t="s">
+      <c r="F2" s="85" t="s">
         <v>7</v>
       </c>
-      <c r="G2" s="108" t="s">
+      <c r="G2" s="85" t="s">
         <v>2</v>
       </c>
-      <c r="H2" s="108" t="s">
+      <c r="H2" s="85" t="s">
         <v>3</v>
       </c>
       <c r="I2" s="1"/>
     </row>
     <row r="3" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C3" s="43">
+      <c r="C3" s="41">
         <v>1</v>
       </c>
-      <c r="D3" s="44" t="s">
+      <c r="D3" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E3" s="109" t="s">
+      <c r="E3" s="86" t="s">
         <v>16</v>
       </c>
-      <c r="F3" s="45" t="s">
+      <c r="F3" s="43" t="s">
         <v>78</v>
       </c>
-      <c r="G3" s="45">
+      <c r="G3" s="43">
         <v>15000</v>
       </c>
-      <c r="H3" s="46"/>
+      <c r="H3" s="44"/>
     </row>
     <row r="4" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C4" s="43">
+      <c r="C4" s="41">
         <v>2</v>
       </c>
-      <c r="D4" s="44" t="s">
+      <c r="D4" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E4" s="109" t="s">
+      <c r="E4" s="86" t="s">
         <v>17</v>
       </c>
-      <c r="F4" s="45" t="s">
+      <c r="F4" s="43" t="s">
         <v>79</v>
       </c>
-      <c r="G4" s="45">
+      <c r="G4" s="43">
         <v>11000</v>
       </c>
-      <c r="H4" s="46"/>
+      <c r="H4" s="44"/>
     </row>
     <row r="5" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="43">
+      <c r="C5" s="41">
         <v>3</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E5" s="109" t="s">
+      <c r="E5" s="86" t="s">
         <v>18</v>
       </c>
-      <c r="F5" s="45" t="s">
+      <c r="F5" s="43" t="s">
         <v>80</v>
       </c>
-      <c r="G5" s="45">
+      <c r="G5" s="43">
         <v>3000</v>
       </c>
-      <c r="H5" s="46"/>
+      <c r="H5" s="44"/>
     </row>
     <row r="6" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="43">
+      <c r="C6" s="41">
         <v>4</v>
       </c>
-      <c r="D6" s="44" t="s">
+      <c r="D6" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E6" s="109" t="s">
+      <c r="E6" s="86" t="s">
         <v>15</v>
       </c>
-      <c r="F6" s="45" t="s">
+      <c r="F6" s="43" t="s">
         <v>81</v>
       </c>
-      <c r="G6" s="45">
+      <c r="G6" s="43">
         <v>3000</v>
       </c>
-      <c r="H6" s="46"/>
+      <c r="H6" s="44"/>
     </row>
     <row r="7" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="43">
+      <c r="C7" s="41">
         <v>5</v>
       </c>
-      <c r="D7" s="44" t="s">
+      <c r="D7" s="42" t="s">
         <v>83</v>
       </c>
-      <c r="E7" s="109" t="s">
+      <c r="E7" s="86" t="s">
         <v>19</v>
       </c>
-      <c r="F7" s="45" t="s">
+      <c r="F7" s="43" t="s">
         <v>82</v>
       </c>
-      <c r="G7" s="45">
+      <c r="G7" s="43">
         <v>3000</v>
       </c>
-      <c r="H7" s="46"/>
+      <c r="H7" s="44"/>
     </row>
     <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="43">
+      <c r="C8" s="41">
         <v>6</v>
       </c>
-      <c r="D8" s="44" t="s">
+      <c r="D8" s="42" t="s">
         <v>84</v>
       </c>
-      <c r="E8" s="110" t="s">
+      <c r="E8" s="87" t="s">
         <v>6</v>
       </c>
-      <c r="F8" s="45"/>
-      <c r="G8" s="45">
+      <c r="F8" s="43"/>
+      <c r="G8" s="43">
         <v>1000</v>
       </c>
-      <c r="H8" s="46"/>
+      <c r="H8" s="44"/>
     </row>
     <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="43">
+      <c r="C9" s="41">
         <v>7</v>
       </c>
-      <c r="D9" s="44" t="s">
+      <c r="D9" s="42" t="s">
         <v>85</v>
       </c>
-      <c r="E9" s="110" t="s">
+      <c r="E9" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F9" s="45"/>
-      <c r="G9" s="45">
+      <c r="F9" s="43"/>
+      <c r="G9" s="43">
         <v>1000</v>
       </c>
-      <c r="H9" s="46"/>
+      <c r="H9" s="44"/>
     </row>
     <row r="10" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="43">
+      <c r="C10" s="41">
         <v>8</v>
       </c>
-      <c r="D10" s="44" t="s">
+      <c r="D10" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E10" s="110" t="s">
+      <c r="E10" s="87" t="s">
         <v>39</v>
       </c>
-      <c r="F10" s="45"/>
-      <c r="G10" s="45">
+      <c r="F10" s="43"/>
+      <c r="G10" s="43">
         <v>1000</v>
       </c>
-      <c r="H10" s="46"/>
+      <c r="H10" s="44"/>
     </row>
     <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="43">
+      <c r="C11" s="41">
         <v>9</v>
       </c>
-      <c r="D11" s="44"/>
-      <c r="E11" s="110" t="s">
+      <c r="D11" s="42"/>
+      <c r="E11" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="45" t="s">
+      <c r="F11" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G11" s="45"/>
-      <c r="H11" s="46"/>
+      <c r="G11" s="43"/>
+      <c r="H11" s="44"/>
     </row>
     <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="43">
+      <c r="C12" s="41">
         <v>10</v>
       </c>
-      <c r="D12" s="44"/>
-      <c r="E12" s="110" t="s">
+      <c r="D12" s="42"/>
+      <c r="E12" s="87" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="45" t="s">
+      <c r="F12" s="43" t="s">
         <v>87</v>
       </c>
-      <c r="G12" s="45"/>
-      <c r="H12" s="46"/>
+      <c r="G12" s="43"/>
+      <c r="H12" s="44"/>
     </row>
     <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="43">
+      <c r="C13" s="41">
         <v>11</v>
       </c>
-      <c r="D13" s="44" t="s">
+      <c r="D13" s="42" t="s">
         <v>88</v>
       </c>
-      <c r="E13" s="110" t="s">
+      <c r="E13" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="45"/>
-      <c r="G13" s="45">
+      <c r="F13" s="43"/>
+      <c r="G13" s="43">
         <v>250</v>
       </c>
-      <c r="H13" s="46"/>
+      <c r="H13" s="44"/>
     </row>
     <row r="14" spans="3:9" ht="46.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="43">
+      <c r="C14" s="41">
         <v>12</v>
       </c>
-      <c r="D14" s="44" t="s">
+      <c r="D14" s="42" t="s">
         <v>86</v>
       </c>
-      <c r="E14" s="110" t="s">
+      <c r="E14" s="87" t="s">
         <v>25</v>
       </c>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127">
+      <c r="F14" s="103"/>
+      <c r="G14" s="103">
         <v>220</v>
       </c>
-      <c r="H14" s="128"/>
+      <c r="H14" s="104"/>
     </row>
     <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="43">
+      <c r="C15" s="41">
         <v>13</v>
       </c>
-      <c r="D15" s="129" t="s">
+      <c r="D15" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="110" t="s">
+      <c r="E15" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="127"/>
-      <c r="G15" s="127">
+      <c r="F15" s="103"/>
+      <c r="G15" s="103">
         <v>160</v>
       </c>
-      <c r="H15" s="128"/>
+      <c r="H15" s="104"/>
     </row>
     <row r="16" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="43">
+      <c r="C16" s="41">
         <v>14</v>
       </c>
-      <c r="D16" s="129" t="s">
+      <c r="D16" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E16" s="110" t="s">
+      <c r="E16" s="87" t="s">
         <v>90</v>
       </c>
-      <c r="F16" s="127"/>
-      <c r="G16" s="127">
+      <c r="F16" s="103"/>
+      <c r="G16" s="103">
         <v>240</v>
       </c>
-      <c r="H16" s="128"/>
+      <c r="H16" s="104"/>
     </row>
     <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="43">
+      <c r="C17" s="41">
         <v>15</v>
       </c>
-      <c r="D17" s="129" t="s">
+      <c r="D17" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E17" s="110" t="s">
+      <c r="E17" s="87" t="s">
         <v>91</v>
       </c>
-      <c r="F17" s="127"/>
-      <c r="G17" s="127">
+      <c r="F17" s="103"/>
+      <c r="G17" s="103">
         <v>130</v>
       </c>
-      <c r="H17" s="128"/>
+      <c r="H17" s="104"/>
     </row>
     <row r="18" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="43">
+      <c r="C18" s="41">
         <v>16</v>
       </c>
-      <c r="D18" s="129" t="s">
+      <c r="D18" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E18" s="110" t="s">
+      <c r="E18" s="87" t="s">
         <v>92</v>
       </c>
-      <c r="F18" s="127"/>
-      <c r="G18" s="127">
+      <c r="F18" s="103"/>
+      <c r="G18" s="103">
         <v>500</v>
       </c>
-      <c r="H18" s="128"/>
+      <c r="H18" s="104"/>
     </row>
     <row r="19" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="43">
+      <c r="C19" s="41">
         <v>17</v>
       </c>
-      <c r="D19" s="130">
+      <c r="D19" s="106">
         <v>43597</v>
       </c>
-      <c r="E19" s="110" t="s">
+      <c r="E19" s="87" t="s">
         <v>120</v>
       </c>
-      <c r="F19" s="127"/>
-      <c r="G19" s="127">
+      <c r="F19" s="103"/>
+      <c r="G19" s="103">
         <v>13000</v>
       </c>
-      <c r="H19" s="128"/>
+      <c r="H19" s="104"/>
     </row>
     <row r="20" spans="3:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="43">
+      <c r="C20" s="41">
         <v>18</v>
       </c>
-      <c r="D20" s="129" t="s">
+      <c r="D20" s="105" t="s">
         <v>89</v>
       </c>
-      <c r="E20" s="110" t="s">
+      <c r="E20" s="87" t="s">
         <v>93</v>
       </c>
-      <c r="F20" s="127"/>
-      <c r="G20" s="127">
+      <c r="F20" s="103"/>
+      <c r="G20" s="103">
         <v>240</v>
       </c>
-      <c r="H20" s="128"/>
+      <c r="H20" s="104"/>
     </row>
     <row r="21" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="104" t="s">
+      <c r="C21" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="105"/>
-      <c r="E21" s="106"/>
-      <c r="F21" s="25"/>
-      <c r="G21" s="26">
+      <c r="D21" s="126"/>
+      <c r="E21" s="127"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
         <f>SUM(G3:G20)</f>
         <v>52740</v>
       </c>
@@ -4654,40 +6340,41 @@
     <row r="22" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
     <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="24" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="117" t="s">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="94" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="117">
+      <c r="F24" s="94">
         <v>164737</v>
       </c>
     </row>
     <row r="25" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="117" t="s">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="94" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="117">
+      <c r="F25" s="94">
         <f>G21</f>
         <v>52740</v>
       </c>
     </row>
     <row r="26" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="22"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="117" t="s">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="94" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="117">
+      <c r="F26" s="94">
         <f>F24-F25</f>
         <v>111997</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="1">
+  <mergeCells count="2">
     <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4696,10 +6383,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I20"/>
+  <dimension ref="C1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4707,286 +6394,299 @@
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="5"/>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>126</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="103" t="s">
-        <v>129</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+      <c r="C4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>121</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>122</v>
+      </c>
+      <c r="G6" s="136">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>123</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>124</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>202</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>125</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="96">
+        <v>6</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>201</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>6</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="136">
+        <v>2000</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="96">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>123</v>
-      </c>
-      <c r="G5" s="17">
-        <v>15000</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>124</v>
-      </c>
-      <c r="G6" s="17">
-        <v>11000</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>125</v>
-      </c>
-      <c r="G7" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>126</v>
-      </c>
-      <c r="G8" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>127</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>122</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>6</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>2000</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>7</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E11" s="19" t="s">
+      <c r="D11" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E11" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
+      <c r="F11" s="99"/>
+      <c r="G11" s="136">
         <v>12440</v>
       </c>
-      <c r="H11" s="18"/>
+      <c r="H11" s="100"/>
     </row>
     <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
+      <c r="C12" s="96">
         <v>8</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>128</v>
-      </c>
-      <c r="E12" s="19" t="s">
+      <c r="D12" s="97" t="s">
+        <v>200</v>
+      </c>
+      <c r="E12" s="101" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
+      <c r="F12" s="99"/>
+      <c r="G12" s="136">
         <v>2435</v>
       </c>
-      <c r="H12" s="18"/>
+      <c r="H12" s="100"/>
     </row>
     <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
+      <c r="C13" s="96">
         <v>9</v>
       </c>
-      <c r="D13" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E13" s="19" t="s">
+      <c r="D13" s="97" t="s">
+        <v>199</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>25</v>
       </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
+      <c r="F13" s="99"/>
+      <c r="G13" s="136">
         <v>240</v>
       </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14">
+      <c r="H13" s="100"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="96">
         <v>10</v>
       </c>
-      <c r="D14" s="40">
-        <v>43597</v>
-      </c>
-      <c r="E14" s="19" t="s">
+      <c r="D14" s="97" t="s">
+        <v>197</v>
+      </c>
+      <c r="E14" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
+      <c r="F14" s="99"/>
+      <c r="G14" s="136">
         <v>100000</v>
       </c>
-      <c r="H14" s="21"/>
-    </row>
-    <row r="15" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="104" t="s">
+      <c r="H14" s="100"/>
+    </row>
+    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="96">
+        <v>11</v>
+      </c>
+      <c r="D15" s="97" t="s">
+        <v>198</v>
+      </c>
+      <c r="E15" s="101" t="s">
+        <v>120</v>
+      </c>
+      <c r="F15" s="137"/>
+      <c r="G15" s="138">
+        <v>990</v>
+      </c>
+      <c r="H15" s="139"/>
+    </row>
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="C16" s="125" t="s">
         <v>33</v>
       </c>
-      <c r="D15" s="105"/>
-      <c r="E15" s="106"/>
-      <c r="F15" s="25"/>
-      <c r="G15" s="26">
-        <f>SUM(G5:G14)</f>
-        <v>152115</v>
-      </c>
-      <c r="H15" s="2"/>
-    </row>
-    <row r="16" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="17" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="D16" s="126"/>
+      <c r="E16" s="127"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="130">
+        <f>SUM(G5:G15)</f>
+        <v>153105</v>
+      </c>
+      <c r="H16" s="102"/>
+    </row>
+    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="132" t="s">
         <v>9</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F19" s="133">
         <v>290397</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24" t="s">
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="132" t="s">
         <v>10</v>
       </c>
-      <c r="F19" s="24">
-        <f>G15</f>
-        <v>152115</v>
-      </c>
-    </row>
-    <row r="20" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="24" t="s">
+      <c r="F20" s="133">
+        <f>G16</f>
+        <v>153105</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="132" t="s">
         <v>11</v>
       </c>
-      <c r="F20" s="24">
-        <f>F18-F19</f>
-        <v>138282</v>
+      <c r="F21" s="133">
+        <f>F19-F20</f>
+        <v>137292</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="C16:E16"/>
+    <mergeCell ref="C1:H1"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
@@ -4994,10 +6694,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I19"/>
+  <dimension ref="A1:I19"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -5005,270 +6705,319 @@
     <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
     <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
     <col min="7" max="7" width="29.109375" customWidth="1"/>
     <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="102" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="102"/>
-      <c r="E1" s="102"/>
-      <c r="F1" s="102"/>
-      <c r="G1" s="102"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="102" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="102"/>
-      <c r="E2" s="102"/>
-      <c r="F2" s="102"/>
-      <c r="G2" s="102"/>
+    <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="134" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="134"/>
+      <c r="E1" s="134"/>
+      <c r="F1" s="134"/>
+      <c r="G1" s="134"/>
+      <c r="H1" s="134"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="124"/>
+      <c r="D2" s="124"/>
+      <c r="E2" s="124"/>
+      <c r="F2" s="124"/>
+      <c r="G2" s="124"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="103" t="s">
-        <v>149</v>
-      </c>
-      <c r="D3" s="103"/>
-      <c r="E3" s="103"/>
-      <c r="F3" s="103"/>
-      <c r="G3" s="103"/>
+    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="128"/>
+      <c r="D3" s="128"/>
+      <c r="E3" s="128"/>
+      <c r="F3" s="128"/>
+      <c r="G3" s="128"/>
       <c r="H3" s="4"/>
     </row>
-    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
+    <row r="4" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="140"/>
+      <c r="B4" s="140"/>
+      <c r="C4" s="135" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="3" t="s">
+      <c r="D4" s="135" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="3" t="s">
+      <c r="E4" s="135" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="3" t="s">
+      <c r="F4" s="135" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="135" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="135" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="140"/>
+      <c r="B5" s="140"/>
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="136">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="140"/>
+      <c r="B6" s="140"/>
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="136">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="140"/>
+      <c r="B7" s="140"/>
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="140"/>
+      <c r="B8" s="140"/>
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="140"/>
+      <c r="B9" s="140"/>
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="136">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="140"/>
+      <c r="B10" s="140"/>
+      <c r="C10" s="96">
         <v>7</v>
       </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>131</v>
-      </c>
-      <c r="G5" s="17">
-        <v>15000</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17" t="s">
+      <c r="D10" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="136">
+        <v>721</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="140"/>
+      <c r="B11" s="140"/>
+      <c r="C11" s="96">
+        <v>8</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="136">
+        <v>5225</v>
+      </c>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="140"/>
+      <c r="B12" s="140"/>
+      <c r="C12" s="96">
+        <v>9</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="136">
+        <v>400</v>
+      </c>
+      <c r="H12" s="100"/>
+    </row>
+    <row r="13" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="140"/>
+      <c r="B13" s="140"/>
+      <c r="C13" s="96">
+        <v>10</v>
+      </c>
+      <c r="D13" s="141" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="G6" s="17">
-        <v>11000</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>133</v>
-      </c>
-      <c r="G7" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>134</v>
-      </c>
-      <c r="G8" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>130</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>135</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>7</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>721</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>8</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>136</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
-        <v>5225</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
-        <v>9</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>88</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>137</v>
-      </c>
-      <c r="F12" s="17"/>
-      <c r="G12" s="17">
-        <v>400</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
-        <v>10</v>
-      </c>
-      <c r="D13" s="40">
-        <v>43597</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>138</v>
-      </c>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20">
+      <c r="F13" s="137"/>
+      <c r="G13" s="138">
         <v>600</v>
       </c>
-      <c r="H13" s="21"/>
-    </row>
-    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="104" t="s">
+      <c r="H13" s="139"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="142"/>
+      <c r="B14" s="142"/>
+      <c r="C14" s="142" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="105"/>
-      <c r="E14" s="106"/>
-      <c r="F14" s="25"/>
-      <c r="G14" s="26">
+      <c r="D14" s="142"/>
+      <c r="E14" s="142"/>
+      <c r="F14" s="142"/>
+      <c r="G14" s="130">
         <f>SUM(G5:G13)</f>
         <v>41946</v>
       </c>
-      <c r="H14" s="2"/>
-    </row>
-    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="24" t="s">
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="140"/>
+      <c r="B15" s="140"/>
+      <c r="C15" s="140"/>
+      <c r="D15" s="140"/>
+      <c r="E15" s="140"/>
+      <c r="F15" s="140"/>
+      <c r="G15" s="140"/>
+      <c r="H15" s="140"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="140"/>
+      <c r="B16" s="140"/>
+      <c r="C16" s="140"/>
+      <c r="D16" s="140"/>
+      <c r="E16" s="140"/>
+      <c r="F16" s="140"/>
+      <c r="G16" s="140"/>
+      <c r="H16" s="140"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="140"/>
+      <c r="B17" s="140"/>
+      <c r="C17" s="140"/>
+      <c r="D17" s="143"/>
+      <c r="E17" s="144" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="24">
-        <v>205132</v>
-      </c>
-    </row>
-    <row r="18" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="24" t="s">
+      <c r="F17" s="145">
+        <v>216142</v>
+      </c>
+      <c r="G17" s="140"/>
+      <c r="H17" s="140"/>
+    </row>
+    <row r="18" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="140"/>
+      <c r="B18" s="140"/>
+      <c r="C18" s="140"/>
+      <c r="D18" s="143"/>
+      <c r="E18" s="144" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="24">
+      <c r="F18" s="145">
         <f>G14</f>
         <v>41946</v>
       </c>
-    </row>
-    <row r="19" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="24" t="s">
+      <c r="G18" s="140"/>
+      <c r="H18" s="140"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="140"/>
+      <c r="B19" s="140"/>
+      <c r="C19" s="140"/>
+      <c r="D19" s="143"/>
+      <c r="E19" s="144" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="24">
+      <c r="F19" s="145">
         <f>F17-F18</f>
-        <v>163186</v>
-      </c>
+        <v>174196</v>
+      </c>
+      <c r="G19" s="140"/>
+      <c r="H19" s="140"/>
     </row>
   </sheetData>
   <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C14:E14"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A14:F14"/>
   </mergeCells>
+  <printOptions horizontalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>

--- a/Expence - Copy.xlsx
+++ b/Expence - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="6" activeTab="12"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="10" activeTab="18"/>
   </bookViews>
   <sheets>
     <sheet name="June-2019" sheetId="1" r:id="rId1"/>
@@ -27,12 +27,17 @@
     <sheet name="June-2020" sheetId="14" r:id="rId13"/>
     <sheet name="July-2020" sheetId="15" r:id="rId14"/>
     <sheet name="Aug-2020" sheetId="16" r:id="rId15"/>
+    <sheet name="sep-2020 " sheetId="20" r:id="rId16"/>
+    <sheet name="OCt-2020" sheetId="19" r:id="rId17"/>
+    <sheet name="Nov-2020" sheetId="21" r:id="rId18"/>
+    <sheet name="Dec-2020" sheetId="22" r:id="rId19"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'April-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'Aug-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Dec-2019'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Dec-2020'!$A$1:$I$30</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'feb-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="7">'jan-2020'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'July-2020'!$A$1:$I$28</definedName>
@@ -41,8 +46,11 @@
     <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020 '!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'May-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$I$27</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'Nov-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Oct-2019'!$A$1:$I$23</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'OCt-2020'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Sep-2019'!$A$1:$I$22</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'sep-2020 '!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -62,7 +70,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="601" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="314">
   <si>
     <t>S.No</t>
   </si>
@@ -755,6 +763,255 @@
   </si>
   <si>
     <t>Color Work H.No.H-31/12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Sep-2020</t>
+  </si>
+  <si>
+    <t>01-10-2020</t>
+  </si>
+  <si>
+    <t>087/v</t>
+  </si>
+  <si>
+    <t>088/v</t>
+  </si>
+  <si>
+    <t>089/v</t>
+  </si>
+  <si>
+    <t>90/v</t>
+  </si>
+  <si>
+    <t>091/v</t>
+  </si>
+  <si>
+    <t>4-10-2020</t>
+  </si>
+  <si>
+    <t>Buring</t>
+  </si>
+  <si>
+    <t>092/v</t>
+  </si>
+  <si>
+    <t>01-09-2020</t>
+  </si>
+  <si>
+    <t>4-09-2020</t>
+  </si>
+  <si>
+    <t>28-10-2020</t>
+  </si>
+  <si>
+    <t>28-09-2020</t>
+  </si>
+  <si>
+    <t>6-10-2020</t>
+  </si>
+  <si>
+    <t>11-10-2020</t>
+  </si>
+  <si>
+    <t>20-10-2020</t>
+  </si>
+  <si>
+    <t>25-10-2020</t>
+  </si>
+  <si>
+    <t>water Leakage (Imam sahab)</t>
+  </si>
+  <si>
+    <t>water Leakage (moazin sahab)</t>
+  </si>
+  <si>
+    <t>03-10-2020</t>
+  </si>
+  <si>
+    <t>10-10-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brush </t>
+  </si>
+  <si>
+    <t>Unit Repairing</t>
+  </si>
+  <si>
+    <t>p/lag</t>
+  </si>
+  <si>
+    <t>Electric wires</t>
+  </si>
+  <si>
+    <t>14-10-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Oct-2020</t>
+  </si>
+  <si>
+    <t>080/v</t>
+  </si>
+  <si>
+    <t>081/v</t>
+  </si>
+  <si>
+    <t>082/v</t>
+  </si>
+  <si>
+    <t>083/v</t>
+  </si>
+  <si>
+    <t>084/v</t>
+  </si>
+  <si>
+    <t>6-09-2020</t>
+  </si>
+  <si>
+    <t>11-09-2020</t>
+  </si>
+  <si>
+    <t>03-09-2020</t>
+  </si>
+  <si>
+    <t>2 pices Cupishe4l</t>
+  </si>
+  <si>
+    <t>cuile</t>
+  </si>
+  <si>
+    <t>Mike Wire/Mike Jack</t>
+  </si>
+  <si>
+    <t>Electric lines</t>
+  </si>
+  <si>
+    <t>26-09-2020</t>
+  </si>
+  <si>
+    <t>15-09-2020</t>
+  </si>
+  <si>
+    <t>Oraq Lifting</t>
+  </si>
+  <si>
+    <t>086/v</t>
+  </si>
+  <si>
+    <t>085/v</t>
+  </si>
+  <si>
+    <t>01-11-2020</t>
+  </si>
+  <si>
+    <t>28-11-2020</t>
+  </si>
+  <si>
+    <t>4-11-2020</t>
+  </si>
+  <si>
+    <t>6-11-2020</t>
+  </si>
+  <si>
+    <t>11-11-2020</t>
+  </si>
+  <si>
+    <t>20-11-2020</t>
+  </si>
+  <si>
+    <t>093/v</t>
+  </si>
+  <si>
+    <t>094/v</t>
+  </si>
+  <si>
+    <t>095/v</t>
+  </si>
+  <si>
+    <t>096/v</t>
+  </si>
+  <si>
+    <t>not a payable</t>
+  </si>
+  <si>
+    <t>Gernatore Service</t>
+  </si>
+  <si>
+    <t>Carborater 2.5km</t>
+  </si>
+  <si>
+    <t>construction of Roof</t>
+  </si>
+  <si>
+    <t>097/v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Nov-2020</t>
+  </si>
+  <si>
+    <t>01-12-2020</t>
+  </si>
+  <si>
+    <t>28-12-2020</t>
+  </si>
+  <si>
+    <t>4-12-2020</t>
+  </si>
+  <si>
+    <t>6-12-2020</t>
+  </si>
+  <si>
+    <t>11-12-2020</t>
+  </si>
+  <si>
+    <t>099/v</t>
+  </si>
+  <si>
+    <t>098/v</t>
+  </si>
+  <si>
+    <t>201/v</t>
+  </si>
+  <si>
+    <t>100/v</t>
+  </si>
+  <si>
+    <t>202/v</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Khad </t>
+  </si>
+  <si>
+    <t>203/v</t>
+  </si>
+  <si>
+    <t>locks</t>
+  </si>
+  <si>
+    <t>Centary Items</t>
+  </si>
+  <si>
+    <t>Electric Items</t>
+  </si>
+  <si>
+    <t>capacitor 3.5</t>
+  </si>
+  <si>
+    <t>3N0 D/s 40Watts</t>
+  </si>
+  <si>
+    <t>__</t>
+  </si>
+  <si>
+    <t>09-12-2020</t>
+  </si>
+  <si>
+    <t>10-12-2020</t>
+  </si>
+  <si>
+    <t>12-12-2020</t>
+  </si>
+  <si>
+    <t>30-12-2020</t>
   </si>
 </sst>
 </file>
@@ -1580,72 +1837,6 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1657,9 +1848,6 @@
     </xf>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1680,9 +1868,6 @@
     <xf numFmtId="14" fontId="27" fillId="0" borderId="2" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="27" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1690,6 +1875,101 @@
     <xf numFmtId="164" fontId="27" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="2" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="24" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="28" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="29" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="30" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="164" fontId="7" fillId="0" borderId="9" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -1699,29 +1979,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="1" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="6" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="27" fillId="0" borderId="2" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2054,13 +2311,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="279.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="108" t="s">
+      <c r="A1" s="131" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="109"/>
-      <c r="C1" s="109"/>
-      <c r="D1" s="109"/>
-      <c r="E1" s="109"/>
+      <c r="B1" s="132"/>
+      <c r="C1" s="132"/>
+      <c r="D1" s="132"/>
+      <c r="E1" s="132"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -2213,10 +2470,10 @@
     <row r="10" spans="1:7" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="110" t="s">
+      <c r="C10" s="133" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="111"/>
+      <c r="D10" s="134"/>
       <c r="E10" s="10">
         <f>SUM(E3:E9)</f>
         <v>23394</v>
@@ -2286,48 +2543,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -2345,7 +2602,7 @@
       <c r="F5" s="99" t="s">
         <v>209</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
       <c r="H5" s="100"/>
@@ -2363,7 +2620,7 @@
       <c r="F6" s="99" t="s">
         <v>210</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
@@ -2381,7 +2638,7 @@
       <c r="F7" s="99" t="s">
         <v>211</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
@@ -2399,7 +2656,7 @@
       <c r="F8" s="99" t="s">
         <v>212</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
@@ -2417,7 +2674,7 @@
       <c r="F9" s="99" t="s">
         <v>213</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
@@ -2433,7 +2690,7 @@
         <v>221</v>
       </c>
       <c r="F10" s="99"/>
-      <c r="G10" s="136">
+      <c r="G10" s="113">
         <v>34400</v>
       </c>
       <c r="H10" s="100"/>
@@ -2449,7 +2706,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="136">
+      <c r="G11" s="113">
         <v>443</v>
       </c>
       <c r="H11" s="100"/>
@@ -2465,7 +2722,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="99"/>
-      <c r="G12" s="136">
+      <c r="G12" s="113">
         <v>16741</v>
       </c>
       <c r="H12" s="100"/>
@@ -2481,7 +2738,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="99"/>
-      <c r="G13" s="136">
+      <c r="G13" s="113">
         <v>2730</v>
       </c>
       <c r="H13" s="100"/>
@@ -2499,7 +2756,7 @@
       <c r="F14" s="99" t="s">
         <v>218</v>
       </c>
-      <c r="G14" s="136">
+      <c r="G14" s="113">
         <v>300</v>
       </c>
       <c r="H14" s="100"/>
@@ -2515,7 +2772,7 @@
         <v>214</v>
       </c>
       <c r="F15" s="99"/>
-      <c r="G15" s="136">
+      <c r="G15" s="113">
         <v>300</v>
       </c>
       <c r="H15" s="100"/>
@@ -2531,7 +2788,7 @@
         <v>215</v>
       </c>
       <c r="F16" s="99"/>
-      <c r="G16" s="136">
+      <c r="G16" s="113">
         <v>1000</v>
       </c>
       <c r="H16" s="100"/>
@@ -2546,88 +2803,88 @@
       <c r="E17" s="101" t="s">
         <v>133</v>
       </c>
-      <c r="F17" s="137" t="s">
+      <c r="F17" s="114" t="s">
         <v>219</v>
       </c>
-      <c r="G17" s="138">
+      <c r="G17" s="115">
         <v>8000</v>
       </c>
-      <c r="H17" s="139"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="130">
+      <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
         <v>98914</v>
       </c>
       <c r="H18" s="102"/>
     </row>
     <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="140"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="145">
+      <c r="F21" s="121">
         <v>290346</v>
       </c>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="140"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144" t="s">
+      <c r="C22" s="117"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="145">
+      <c r="F22" s="121">
         <f>G18</f>
         <v>98914</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="140"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144" t="s">
+      <c r="C23" s="117"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="145">
+      <c r="F23" s="121">
         <f>F21-F22</f>
         <v>191432</v>
       </c>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
     </row>
     <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -2661,48 +2918,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -2720,7 +2977,7 @@
       <c r="F5" s="99" t="s">
         <v>222</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
       <c r="H5" s="100"/>
@@ -2738,7 +2995,7 @@
       <c r="F6" s="99" t="s">
         <v>223</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
@@ -2756,7 +3013,7 @@
       <c r="F7" s="99" t="s">
         <v>224</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
@@ -2774,7 +3031,7 @@
       <c r="F8" s="99" t="s">
         <v>225</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
@@ -2792,7 +3049,7 @@
       <c r="F9" s="99" t="s">
         <v>226</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
@@ -2808,7 +3065,7 @@
         <v>25</v>
       </c>
       <c r="F10" s="99"/>
-      <c r="G10" s="136">
+      <c r="G10" s="113">
         <v>250</v>
       </c>
       <c r="H10" s="100"/>
@@ -2824,7 +3081,7 @@
         <v>25</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="136">
+      <c r="G11" s="113">
         <v>220</v>
       </c>
       <c r="H11" s="100"/>
@@ -2840,7 +3097,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="99"/>
-      <c r="G12" s="136">
+      <c r="G12" s="113">
         <v>6933</v>
       </c>
       <c r="H12" s="100"/>
@@ -2856,7 +3113,7 @@
         <v>8</v>
       </c>
       <c r="F13" s="99"/>
-      <c r="G13" s="136">
+      <c r="G13" s="113">
         <v>7967</v>
       </c>
       <c r="H13" s="100"/>
@@ -2872,7 +3129,7 @@
         <v>142</v>
       </c>
       <c r="F14" s="99"/>
-      <c r="G14" s="136">
+      <c r="G14" s="113">
         <v>1150</v>
       </c>
       <c r="H14" s="100"/>
@@ -2888,7 +3145,7 @@
         <v>143</v>
       </c>
       <c r="F15" s="99"/>
-      <c r="G15" s="136">
+      <c r="G15" s="113">
         <v>200</v>
       </c>
       <c r="H15" s="100"/>
@@ -2904,7 +3161,7 @@
         <v>144</v>
       </c>
       <c r="F16" s="99"/>
-      <c r="G16" s="136">
+      <c r="G16" s="113">
         <v>175</v>
       </c>
       <c r="H16" s="100"/>
@@ -2919,86 +3176,86 @@
       <c r="E17" s="101" t="s">
         <v>144</v>
       </c>
-      <c r="F17" s="137"/>
-      <c r="G17" s="138">
+      <c r="F17" s="114"/>
+      <c r="G17" s="115">
         <v>200</v>
       </c>
-      <c r="H17" s="139"/>
+      <c r="H17" s="116"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="24"/>
-      <c r="G18" s="130">
+      <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
         <v>52095</v>
       </c>
       <c r="H18" s="102"/>
     </row>
     <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="140"/>
-      <c r="D19" s="140"/>
-      <c r="E19" s="140"/>
-      <c r="F19" s="140"/>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="117"/>
+      <c r="E19" s="117"/>
+      <c r="F19" s="117"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
     <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C21" s="140"/>
-      <c r="D21" s="143"/>
-      <c r="E21" s="144" t="s">
+      <c r="C21" s="117"/>
+      <c r="D21" s="119"/>
+      <c r="E21" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="145">
+      <c r="F21" s="121">
         <v>283252</v>
       </c>
-      <c r="G21" s="140"/>
-      <c r="H21" s="140"/>
+      <c r="G21" s="117"/>
+      <c r="H21" s="117"/>
     </row>
     <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C22" s="140"/>
-      <c r="D22" s="143"/>
-      <c r="E22" s="144" t="s">
+      <c r="C22" s="117"/>
+      <c r="D22" s="119"/>
+      <c r="E22" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="145">
+      <c r="F22" s="121">
         <f>G18</f>
         <v>52095</v>
       </c>
-      <c r="G22" s="140"/>
-      <c r="H22" s="140"/>
+      <c r="G22" s="117"/>
+      <c r="H22" s="117"/>
     </row>
     <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C23" s="140"/>
-      <c r="D23" s="143"/>
-      <c r="E23" s="144" t="s">
+      <c r="C23" s="117"/>
+      <c r="D23" s="119"/>
+      <c r="E23" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="145">
+      <c r="F23" s="121">
         <f>F21-F22</f>
         <v>231157</v>
       </c>
-      <c r="G23" s="140"/>
-      <c r="H23" s="140"/>
+      <c r="G23" s="117"/>
+      <c r="H23" s="117"/>
     </row>
     <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C24" s="140"/>
-      <c r="D24" s="140"/>
-      <c r="E24" s="140"/>
-      <c r="F24" s="140"/>
-      <c r="G24" s="140"/>
-      <c r="H24" s="140"/>
+      <c r="C24" s="117"/>
+      <c r="D24" s="117"/>
+      <c r="E24" s="117"/>
+      <c r="F24" s="117"/>
+      <c r="G24" s="117"/>
+      <c r="H24" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3032,48 +3289,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="112" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -3091,7 +3348,7 @@
       <c r="F5" s="99" t="s">
         <v>153</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
       <c r="H5" s="100"/>
@@ -3109,7 +3366,7 @@
       <c r="F6" s="99" t="s">
         <v>154</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
@@ -3127,7 +3384,7 @@
       <c r="F7" s="99" t="s">
         <v>155</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
@@ -3145,7 +3402,7 @@
       <c r="F8" s="99" t="s">
         <v>156</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
@@ -3163,7 +3420,7 @@
       <c r="F9" s="99" t="s">
         <v>157</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
@@ -3179,7 +3436,7 @@
         <v>227</v>
       </c>
       <c r="F10" s="99"/>
-      <c r="G10" s="136">
+      <c r="G10" s="113">
         <v>8000</v>
       </c>
       <c r="H10" s="100"/>
@@ -3195,7 +3452,7 @@
         <v>230</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="136">
+      <c r="G11" s="113">
         <v>12000</v>
       </c>
       <c r="H11" s="100"/>
@@ -3206,8 +3463,8 @@
       </c>
       <c r="D12" s="97"/>
       <c r="E12" s="101"/>
-      <c r="F12" s="137"/>
-      <c r="G12" s="138"/>
+      <c r="F12" s="114"/>
+      <c r="G12" s="115"/>
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
@@ -3216,84 +3473,84 @@
       </c>
       <c r="D13" s="97"/>
       <c r="E13" s="101"/>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138"/>
-      <c r="H13" s="139"/>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="125" t="s">
+      <c r="C14" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="126"/>
-      <c r="E14" s="127"/>
+      <c r="D14" s="149"/>
+      <c r="E14" s="150"/>
       <c r="F14" s="24"/>
-      <c r="G14" s="130">
+      <c r="G14" s="108">
         <f>SUM(G5:G13)</f>
         <v>55000</v>
       </c>
       <c r="H14" s="102"/>
     </row>
     <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="3:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
     </row>
     <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C17" s="140"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="144" t="s">
+      <c r="C17" s="117"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="121">
         <v>339657</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C18" s="140"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144" t="s">
+      <c r="C18" s="117"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="121">
         <f>G14</f>
         <v>55000</v>
       </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="C19" s="140"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144" t="s">
+      <c r="C19" s="117"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="145">
+      <c r="F19" s="121">
         <f>F17-F18</f>
         <v>284657</v>
       </c>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
     </row>
     <row r="20" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
-      <c r="C20" s="140"/>
-      <c r="D20" s="140"/>
-      <c r="E20" s="140"/>
-      <c r="F20" s="140"/>
-      <c r="G20" s="140"/>
-      <c r="H20" s="140"/>
+      <c r="C20" s="117"/>
+      <c r="D20" s="117"/>
+      <c r="E20" s="117"/>
+      <c r="F20" s="117"/>
+      <c r="G20" s="117"/>
+      <c r="H20" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -3312,7 +3569,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
@@ -3327,292 +3584,292 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="150" t="s">
+      <c r="C4" s="123" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="150" t="s">
+      <c r="D4" s="123" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="150" t="s">
+      <c r="E4" s="123" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="150" t="s">
+      <c r="F4" s="123" t="s">
         <v>7</v>
       </c>
-      <c r="G4" s="150" t="s">
+      <c r="G4" s="123" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="150" t="s">
+      <c r="H4" s="123" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="151">
+      <c r="C5" s="124">
         <v>1</v>
       </c>
-      <c r="D5" s="152" t="s">
+      <c r="D5" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E5" s="153" t="s">
+      <c r="E5" s="126" t="s">
         <v>16</v>
       </c>
-      <c r="F5" s="136" t="s">
+      <c r="F5" s="113" t="s">
         <v>159</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
-      <c r="H5" s="154"/>
+      <c r="H5" s="127"/>
     </row>
     <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="151">
+      <c r="C6" s="124">
         <v>2</v>
       </c>
-      <c r="D6" s="152" t="s">
+      <c r="D6" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E6" s="153" t="s">
+      <c r="E6" s="126" t="s">
         <v>17</v>
       </c>
-      <c r="F6" s="136" t="s">
+      <c r="F6" s="113" t="s">
         <v>160</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>13000</v>
       </c>
-      <c r="H6" s="154" t="s">
+      <c r="H6" s="127" t="s">
         <v>164</v>
       </c>
     </row>
     <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="151">
+      <c r="C7" s="124">
         <v>3</v>
       </c>
-      <c r="D7" s="152" t="s">
+      <c r="D7" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E7" s="153" t="s">
+      <c r="E7" s="126" t="s">
         <v>18</v>
       </c>
-      <c r="F7" s="136" t="s">
+      <c r="F7" s="113" t="s">
         <v>161</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
-      <c r="H7" s="154"/>
+      <c r="H7" s="127"/>
     </row>
     <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="151">
+      <c r="C8" s="124">
         <v>4</v>
       </c>
-      <c r="D8" s="152" t="s">
+      <c r="D8" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E8" s="153" t="s">
+      <c r="E8" s="126" t="s">
         <v>15</v>
       </c>
-      <c r="F8" s="136" t="s">
+      <c r="F8" s="113" t="s">
         <v>162</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
-      <c r="H8" s="154"/>
+      <c r="H8" s="127"/>
     </row>
     <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="151">
+      <c r="C9" s="124">
         <v>5</v>
       </c>
-      <c r="D9" s="152" t="s">
+      <c r="D9" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E9" s="153" t="s">
+      <c r="E9" s="126" t="s">
         <v>19</v>
       </c>
-      <c r="F9" s="136" t="s">
+      <c r="F9" s="113" t="s">
         <v>163</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
-      <c r="H9" s="154"/>
+      <c r="H9" s="127"/>
     </row>
     <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="151">
+      <c r="C10" s="124">
         <v>6</v>
       </c>
-      <c r="D10" s="152" t="s">
+      <c r="D10" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E10" s="155" t="s">
+      <c r="E10" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F10" s="136"/>
-      <c r="G10" s="136">
+      <c r="F10" s="113"/>
+      <c r="G10" s="113">
         <v>17044</v>
       </c>
-      <c r="H10" s="154"/>
+      <c r="H10" s="127"/>
     </row>
     <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="151">
+      <c r="C11" s="124">
         <v>7</v>
       </c>
-      <c r="D11" s="152" t="s">
+      <c r="D11" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E11" s="155" t="s">
+      <c r="E11" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F11" s="136"/>
-      <c r="G11" s="136">
+      <c r="F11" s="113"/>
+      <c r="G11" s="113">
         <v>12334</v>
       </c>
-      <c r="H11" s="154"/>
+      <c r="H11" s="127"/>
     </row>
     <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="151">
+      <c r="C12" s="124">
         <v>8</v>
       </c>
-      <c r="D12" s="152" t="s">
+      <c r="D12" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="E12" s="155" t="s">
+      <c r="E12" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F12" s="138"/>
-      <c r="G12" s="138">
+      <c r="F12" s="115"/>
+      <c r="G12" s="115">
         <v>16863</v>
       </c>
-      <c r="H12" s="154"/>
+      <c r="H12" s="127"/>
     </row>
     <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="151">
+      <c r="C13" s="124">
         <v>9</v>
       </c>
-      <c r="D13" s="152" t="s">
+      <c r="D13" s="125" t="s">
         <v>167</v>
       </c>
-      <c r="E13" s="155" t="s">
+      <c r="E13" s="128" t="s">
         <v>8</v>
       </c>
-      <c r="F13" s="138"/>
-      <c r="G13" s="138">
+      <c r="F13" s="115"/>
+      <c r="G13" s="115">
         <v>2796</v>
       </c>
-      <c r="H13" s="154"/>
+      <c r="H13" s="127"/>
     </row>
     <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="151">
+      <c r="C14" s="124">
         <v>10</v>
       </c>
-      <c r="D14" s="152" t="s">
+      <c r="D14" s="125" t="s">
         <v>166</v>
       </c>
-      <c r="E14" s="155" t="s">
+      <c r="E14" s="128" t="s">
         <v>165</v>
       </c>
-      <c r="F14" s="138"/>
-      <c r="G14" s="138">
+      <c r="F14" s="115"/>
+      <c r="G14" s="115">
         <v>230</v>
       </c>
-      <c r="H14" s="154"/>
+      <c r="H14" s="127"/>
     </row>
     <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="151">
+      <c r="C15" s="124">
         <v>11</v>
       </c>
-      <c r="D15" s="152" t="s">
+      <c r="D15" s="125" t="s">
         <v>168</v>
       </c>
-      <c r="E15" s="155" t="s">
+      <c r="E15" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F15" s="138"/>
-      <c r="G15" s="138">
+      <c r="F15" s="115"/>
+      <c r="G15" s="115">
         <v>1800</v>
       </c>
-      <c r="H15" s="154"/>
+      <c r="H15" s="127"/>
     </row>
     <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="151">
+      <c r="C16" s="124">
         <v>12</v>
       </c>
-      <c r="D16" s="152" t="s">
+      <c r="D16" s="125" t="s">
         <v>169</v>
       </c>
-      <c r="E16" s="155" t="s">
+      <c r="E16" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F16" s="138"/>
-      <c r="G16" s="138">
+      <c r="F16" s="115"/>
+      <c r="G16" s="115">
         <v>1700</v>
       </c>
-      <c r="H16" s="154"/>
+      <c r="H16" s="127"/>
     </row>
     <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="151">
+      <c r="C17" s="124">
         <v>13</v>
       </c>
-      <c r="D17" s="152" t="s">
+      <c r="D17" s="125" t="s">
         <v>170</v>
       </c>
-      <c r="E17" s="155" t="s">
+      <c r="E17" s="128" t="s">
         <v>6</v>
       </c>
-      <c r="F17" s="138"/>
-      <c r="G17" s="138">
+      <c r="F17" s="115"/>
+      <c r="G17" s="115">
         <v>1800</v>
       </c>
-      <c r="H17" s="154"/>
+      <c r="H17" s="127"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="146" t="s">
+      <c r="C18" s="155" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="147"/>
-      <c r="E18" s="148"/>
-      <c r="F18" s="149"/>
-      <c r="G18" s="130">
+      <c r="D18" s="156"/>
+      <c r="E18" s="157"/>
+      <c r="F18" s="122"/>
+      <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
         <v>91567</v>
       </c>
-      <c r="H18" s="156"/>
+      <c r="H18" s="129"/>
     </row>
     <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C19" s="157"/>
-      <c r="D19" s="157"/>
-      <c r="E19" s="157"/>
-      <c r="F19" s="157"/>
-      <c r="G19" s="157"/>
-      <c r="H19" s="157"/>
+      <c r="C19" s="130"/>
+      <c r="D19" s="130"/>
+      <c r="E19" s="130"/>
+      <c r="F19" s="130"/>
+      <c r="G19" s="130"/>
+      <c r="H19" s="130"/>
     </row>
     <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -3621,7 +3878,7 @@
       <c r="E21" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F21" s="131">
+      <c r="F21" s="109">
         <v>365507</v>
       </c>
     </row>
@@ -3631,7 +3888,7 @@
       <c r="E22" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F22" s="131">
+      <c r="F22" s="109">
         <f>G18</f>
         <v>91567</v>
       </c>
@@ -3642,7 +3899,7 @@
       <c r="E23" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="131">
+      <c r="F23" s="109">
         <f>F21-F22</f>
         <v>273940</v>
       </c>
@@ -3679,33 +3936,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="152" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3948,11 +4205,11 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25">
         <f>SUM(G5:G17)</f>
@@ -4025,33 +4282,33 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="124" t="s">
+      <c r="C1" s="147" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124" t="s">
+      <c r="C2" s="147" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128" t="s">
+      <c r="C3" s="152" t="s">
         <v>187</v>
       </c>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4258,11 +4515,11 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="125" t="s">
+      <c r="C18" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="126"/>
-      <c r="E18" s="127"/>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25">
         <f>SUM(G5:G17)</f>
@@ -4310,6 +4567,1580 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I26"/>
+  <sheetViews>
+    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>231</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>259</v>
+      </c>
+      <c r="G5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>260</v>
+      </c>
+      <c r="G6" s="17">
+        <v>13000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>261</v>
+      </c>
+      <c r="G7" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>262</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>241</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>263</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>19541</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>244</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>1979</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>242</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>1100</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>265</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>267</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <v>200</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>266</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>268</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>3200</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>270</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>400</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>271</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>273</v>
+      </c>
+      <c r="F18" s="20" t="s">
+        <v>274</v>
+      </c>
+      <c r="G18" s="20">
+        <v>300</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>272</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>269</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
+        <v>1200</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>264</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F20" s="107" t="s">
+        <v>275</v>
+      </c>
+      <c r="G20" s="20">
+        <v>500</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="25">
+        <f>SUM(G5:G20)</f>
+        <v>69420</v>
+      </c>
+      <c r="H21" s="2"/>
+    </row>
+    <row r="22" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F24" s="23">
+        <v>191111</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F25" s="23">
+        <f>G21</f>
+        <v>69420</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C26" s="21"/>
+      <c r="D26" s="22"/>
+      <c r="E26" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F26" s="23">
+        <f>F24-F25</f>
+        <v>121691</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C21:E21"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I30"/>
+  <sheetViews>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>233</v>
+      </c>
+      <c r="G5" s="17">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>234</v>
+      </c>
+      <c r="G6" s="17">
+        <v>13000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>236</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>232</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>237</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>32700</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>243</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>12149</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>239</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>240</v>
+      </c>
+      <c r="G12" s="20">
+        <v>1500</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>1865</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>7</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>250</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14"/>
+      <c r="D15" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
+        <v>246</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14"/>
+      <c r="D17" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14"/>
+      <c r="D18" s="15" t="s">
+        <v>248</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14"/>
+      <c r="D19" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>249</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
+        <v>10000</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14"/>
+      <c r="D20" s="15" t="s">
+        <v>251</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>250</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
+        <v>10000</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14"/>
+      <c r="D21" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>253</v>
+      </c>
+      <c r="F21" s="20"/>
+      <c r="G21" s="20">
+        <v>750</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14"/>
+      <c r="D22" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>254</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
+        <v>150</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14">
+        <v>12</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>247</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>255</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
+        <v>1750</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14">
+        <v>13</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>257</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>256</v>
+      </c>
+      <c r="F24" s="107"/>
+      <c r="G24" s="20">
+        <v>1100</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D25" s="149"/>
+      <c r="E25" s="150"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="25">
+        <f>SUM(G5:G24)</f>
+        <v>119214</v>
+      </c>
+      <c r="H25" s="2"/>
+    </row>
+    <row r="26" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="23">
+        <f>G25</f>
+        <v>119214</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" s="23">
+        <f>F28-F29</f>
+        <v>75487</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C25:E25"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I23"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>291</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>282</v>
+      </c>
+      <c r="G5" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>283</v>
+      </c>
+      <c r="G6" s="17">
+        <v>14000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>284</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>285</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>276</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>290</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>12013</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>277</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>14446</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>9</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>8</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>287</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>2000</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>9</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>278</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>288</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>450</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>10</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>279</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>11</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>280</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>12</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>281</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>289</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>20000</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D18" s="149"/>
+      <c r="E18" s="150"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
+        <f>SUM(G5:G17)</f>
+        <v>94909</v>
+      </c>
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="23">
+        <f>G18</f>
+        <v>94909</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F23" s="23">
+        <f>F21-F22</f>
+        <v>99792</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C18:E18"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C20" sqref="C20:E20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>258</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="17">
+        <v>14000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>11350</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="17">
+        <v>200</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>1400</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>400</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>300</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>1860</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
+        <v>1260</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25">
+        <f>SUM(G5:G19)</f>
+        <v>60770</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="23">
+        <f>G20</f>
+        <v>60770</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="23">
+        <f>F23-F24</f>
+        <v>133931</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -4335,13 +6166,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="224.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="112" t="s">
+      <c r="A1" s="135" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="112"/>
-      <c r="C1" s="112"/>
-      <c r="D1" s="112"/>
-      <c r="E1" s="112"/>
+      <c r="B1" s="135"/>
+      <c r="C1" s="135"/>
+      <c r="D1" s="135"/>
+      <c r="E1" s="135"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4656,11 +6487,11 @@
       <c r="F20" s="33"/>
     </row>
     <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="113" t="s">
+      <c r="A21" s="136" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="114"/>
-      <c r="C21" s="115"/>
+      <c r="B21" s="137"/>
+      <c r="C21" s="138"/>
       <c r="D21" s="32"/>
       <c r="E21" s="37">
         <f>SUM(E3:E20)</f>
@@ -4723,13 +6554,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="278.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C1" s="116" t="s">
+      <c r="C1" s="139" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="116"/>
-      <c r="E1" s="116"/>
-      <c r="F1" s="116"/>
-      <c r="G1" s="116"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
+      <c r="F1" s="139"/>
+      <c r="G1" s="139"/>
       <c r="H1" s="40"/>
     </row>
     <row r="2" spans="3:9" ht="51" thickBot="1" x14ac:dyDescent="0.35">
@@ -4944,11 +6775,11 @@
       <c r="H13" s="55"/>
     </row>
     <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="117" t="s">
+      <c r="C14" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="118"/>
-      <c r="E14" s="119"/>
+      <c r="D14" s="141"/>
+      <c r="E14" s="142"/>
       <c r="F14" s="56"/>
       <c r="G14" s="64">
         <f>SUM(G3:G13)</f>
@@ -5021,14 +6852,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C1" s="123" t="s">
+      <c r="C1" s="146" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="123"/>
-      <c r="E1" s="123"/>
-      <c r="F1" s="123"/>
-      <c r="G1" s="123"/>
-      <c r="H1" s="123"/>
+      <c r="D1" s="146"/>
+      <c r="E1" s="146"/>
+      <c r="F1" s="146"/>
+      <c r="G1" s="146"/>
+      <c r="H1" s="146"/>
     </row>
     <row r="2" spans="3:9" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="76" t="s">
@@ -5206,11 +7037,11 @@
       <c r="H11" s="75"/>
     </row>
     <row r="12" spans="3:9" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="120" t="s">
+      <c r="C12" s="143" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="121"/>
-      <c r="E12" s="122"/>
+      <c r="D12" s="144"/>
+      <c r="E12" s="145"/>
       <c r="F12" s="47"/>
       <c r="G12" s="82">
         <f>SUM(G3:G11)</f>
@@ -5309,19 +7140,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="226.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="124"/>
-      <c r="D1" s="124"/>
-      <c r="E1" s="124"/>
-      <c r="F1" s="124"/>
-      <c r="G1" s="124"/>
+      <c r="C1" s="147"/>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="61.8" thickBot="1" x14ac:dyDescent="1.1499999999999999">
@@ -5558,11 +7389,11 @@
       <c r="H16" s="18"/>
     </row>
     <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f>SUM(G5:G16)</f>
@@ -5646,7 +7477,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I22"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A5" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
@@ -5926,11 +7757,11 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="125" t="s">
+      <c r="C17" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="126"/>
-      <c r="E17" s="127"/>
+      <c r="D17" s="149"/>
+      <c r="E17" s="150"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f>SUM(G3:G16)</f>
@@ -6000,14 +7831,14 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="309.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="C1" s="129" t="s">
+      <c r="C1" s="151" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="129"/>
-      <c r="E1" s="129"/>
-      <c r="F1" s="129"/>
-      <c r="G1" s="129"/>
-      <c r="H1" s="129"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
+      <c r="H1" s="151"/>
     </row>
     <row r="2" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="85" t="s">
@@ -6325,11 +8156,11 @@
       <c r="H20" s="104"/>
     </row>
     <row r="21" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="125" t="s">
+      <c r="C21" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="126"/>
-      <c r="E21" s="127"/>
+      <c r="D21" s="149"/>
+      <c r="E21" s="150"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f>SUM(G3:G20)</f>
@@ -6400,48 +8231,48 @@
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="135" t="s">
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
@@ -6459,7 +8290,7 @@
       <c r="F5" s="99" t="s">
         <v>121</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
       <c r="H5" s="100"/>
@@ -6477,7 +8308,7 @@
       <c r="F6" s="99" t="s">
         <v>122</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
@@ -6495,7 +8326,7 @@
       <c r="F7" s="99" t="s">
         <v>123</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
@@ -6513,7 +8344,7 @@
       <c r="F8" s="99" t="s">
         <v>124</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
@@ -6531,7 +8362,7 @@
       <c r="F9" s="99" t="s">
         <v>125</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
@@ -6547,7 +8378,7 @@
         <v>6</v>
       </c>
       <c r="F10" s="99"/>
-      <c r="G10" s="136">
+      <c r="G10" s="113">
         <v>2000</v>
       </c>
       <c r="H10" s="100"/>
@@ -6563,7 +8394,7 @@
         <v>8</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="136">
+      <c r="G11" s="113">
         <v>12440</v>
       </c>
       <c r="H11" s="100"/>
@@ -6579,7 +8410,7 @@
         <v>8</v>
       </c>
       <c r="F12" s="99"/>
-      <c r="G12" s="136">
+      <c r="G12" s="113">
         <v>2435</v>
       </c>
       <c r="H12" s="100"/>
@@ -6595,7 +8426,7 @@
         <v>25</v>
       </c>
       <c r="F13" s="99"/>
-      <c r="G13" s="136">
+      <c r="G13" s="113">
         <v>240</v>
       </c>
       <c r="H13" s="100"/>
@@ -6611,7 +8442,7 @@
         <v>120</v>
       </c>
       <c r="F14" s="99"/>
-      <c r="G14" s="136">
+      <c r="G14" s="113">
         <v>100000</v>
       </c>
       <c r="H14" s="100"/>
@@ -6626,20 +8457,20 @@
       <c r="E15" s="101" t="s">
         <v>120</v>
       </c>
-      <c r="F15" s="137"/>
-      <c r="G15" s="138">
+      <c r="F15" s="114"/>
+      <c r="G15" s="115">
         <v>990</v>
       </c>
-      <c r="H15" s="139"/>
+      <c r="H15" s="116"/>
     </row>
     <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="125" t="s">
+      <c r="C16" s="148" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="126"/>
-      <c r="E16" s="127"/>
+      <c r="D16" s="149"/>
+      <c r="E16" s="150"/>
       <c r="F16" s="24"/>
-      <c r="G16" s="130">
+      <c r="G16" s="108">
         <f>SUM(G5:G15)</f>
         <v>153105</v>
       </c>
@@ -6650,20 +8481,20 @@
     <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
-      <c r="E19" s="132" t="s">
+      <c r="E19" s="110" t="s">
         <v>9</v>
       </c>
-      <c r="F19" s="133">
+      <c r="F19" s="111">
         <v>290397</v>
       </c>
     </row>
     <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
-      <c r="E20" s="132" t="s">
+      <c r="E20" s="110" t="s">
         <v>10</v>
       </c>
-      <c r="F20" s="133">
+      <c r="F20" s="111">
         <f>G16</f>
         <v>153105</v>
       </c>
@@ -6671,10 +8502,10 @@
     <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
-      <c r="E21" s="132" t="s">
+      <c r="E21" s="110" t="s">
         <v>11</v>
       </c>
-      <c r="F21" s="133">
+      <c r="F21" s="111">
         <f>F19-F20</f>
         <v>137292</v>
       </c>
@@ -6711,57 +8542,57 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="134" t="s">
+      <c r="C1" s="153" t="s">
         <v>204</v>
       </c>
-      <c r="D1" s="134"/>
-      <c r="E1" s="134"/>
-      <c r="F1" s="134"/>
-      <c r="G1" s="134"/>
-      <c r="H1" s="134"/>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="124"/>
-      <c r="D2" s="124"/>
-      <c r="E2" s="124"/>
-      <c r="F2" s="124"/>
-      <c r="G2" s="124"/>
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
       <c r="H2" s="4"/>
     </row>
     <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="128"/>
-      <c r="D3" s="128"/>
-      <c r="E3" s="128"/>
-      <c r="F3" s="128"/>
-      <c r="G3" s="128"/>
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="140"/>
-      <c r="B4" s="140"/>
-      <c r="C4" s="135" t="s">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="112" t="s">
         <v>0</v>
       </c>
-      <c r="D4" s="135" t="s">
+      <c r="D4" s="112" t="s">
         <v>1</v>
       </c>
-      <c r="E4" s="135" t="s">
+      <c r="E4" s="112" t="s">
         <v>5</v>
       </c>
-      <c r="F4" s="135" t="s">
+      <c r="F4" s="112" t="s">
         <v>203</v>
       </c>
-      <c r="G4" s="135" t="s">
+      <c r="G4" s="112" t="s">
         <v>2</v>
       </c>
-      <c r="H4" s="135" t="s">
+      <c r="H4" s="112" t="s">
         <v>3</v>
       </c>
       <c r="I4" s="1"/>
     </row>
     <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="140"/>
-      <c r="B5" s="140"/>
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
       <c r="C5" s="96">
         <v>1</v>
       </c>
@@ -6774,14 +8605,14 @@
       <c r="F5" s="99" t="s">
         <v>127</v>
       </c>
-      <c r="G5" s="136">
+      <c r="G5" s="113">
         <v>15000</v>
       </c>
       <c r="H5" s="100"/>
     </row>
     <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="140"/>
-      <c r="B6" s="140"/>
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
       <c r="C6" s="96">
         <v>2</v>
       </c>
@@ -6794,14 +8625,14 @@
       <c r="F6" s="99" t="s">
         <v>128</v>
       </c>
-      <c r="G6" s="136">
+      <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
     </row>
     <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="140"/>
-      <c r="B7" s="140"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -6814,14 +8645,14 @@
       <c r="F7" s="99" t="s">
         <v>129</v>
       </c>
-      <c r="G7" s="136">
+      <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
     </row>
     <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="140"/>
-      <c r="B8" s="140"/>
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -6834,14 +8665,14 @@
       <c r="F8" s="99" t="s">
         <v>130</v>
       </c>
-      <c r="G8" s="136">
+      <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
     </row>
     <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="140"/>
-      <c r="B9" s="140"/>
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -6854,14 +8685,14 @@
       <c r="F9" s="99" t="s">
         <v>131</v>
       </c>
-      <c r="G9" s="136">
+      <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
     </row>
     <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="140"/>
-      <c r="B10" s="140"/>
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
       <c r="C10" s="96">
         <v>7</v>
       </c>
@@ -6872,14 +8703,14 @@
         <v>8</v>
       </c>
       <c r="F10" s="99"/>
-      <c r="G10" s="136">
+      <c r="G10" s="113">
         <v>721</v>
       </c>
       <c r="H10" s="100"/>
     </row>
     <row r="11" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="140"/>
-      <c r="B11" s="140"/>
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
       <c r="C11" s="96">
         <v>8</v>
       </c>
@@ -6890,14 +8721,14 @@
         <v>8</v>
       </c>
       <c r="F11" s="99"/>
-      <c r="G11" s="136">
+      <c r="G11" s="113">
         <v>5225</v>
       </c>
       <c r="H11" s="100"/>
     </row>
     <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="140"/>
-      <c r="B12" s="140"/>
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
       <c r="C12" s="96">
         <v>9</v>
       </c>
@@ -6908,107 +8739,107 @@
         <v>207</v>
       </c>
       <c r="F12" s="99"/>
-      <c r="G12" s="136">
+      <c r="G12" s="113">
         <v>400</v>
       </c>
       <c r="H12" s="100"/>
     </row>
     <row r="13" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="140"/>
-      <c r="B13" s="140"/>
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
       <c r="C13" s="96">
         <v>10</v>
       </c>
-      <c r="D13" s="141" t="s">
+      <c r="D13" s="118" t="s">
         <v>208</v>
       </c>
       <c r="E13" s="101" t="s">
         <v>132</v>
       </c>
-      <c r="F13" s="137"/>
-      <c r="G13" s="138">
+      <c r="F13" s="114"/>
+      <c r="G13" s="115">
         <v>600</v>
       </c>
-      <c r="H13" s="139"/>
+      <c r="H13" s="116"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="142"/>
-      <c r="B14" s="142"/>
-      <c r="C14" s="142" t="s">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="142"/>
-      <c r="E14" s="142"/>
-      <c r="F14" s="142"/>
-      <c r="G14" s="130">
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="108">
         <f>SUM(G5:G13)</f>
         <v>41946</v>
       </c>
       <c r="H14" s="102"/>
     </row>
     <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="140"/>
-      <c r="B15" s="140"/>
-      <c r="C15" s="140"/>
-      <c r="D15" s="140"/>
-      <c r="E15" s="140"/>
-      <c r="F15" s="140"/>
-      <c r="G15" s="140"/>
-      <c r="H15" s="140"/>
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
     </row>
     <row r="16" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="140"/>
-      <c r="B16" s="140"/>
-      <c r="C16" s="140"/>
-      <c r="D16" s="140"/>
-      <c r="E16" s="140"/>
-      <c r="F16" s="140"/>
-      <c r="G16" s="140"/>
-      <c r="H16" s="140"/>
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
     </row>
     <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="140"/>
-      <c r="B17" s="140"/>
-      <c r="C17" s="140"/>
-      <c r="D17" s="143"/>
-      <c r="E17" s="144" t="s">
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120" t="s">
         <v>9</v>
       </c>
-      <c r="F17" s="145">
+      <c r="F17" s="121">
         <v>216142</v>
       </c>
-      <c r="G17" s="140"/>
-      <c r="H17" s="140"/>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
     </row>
     <row r="18" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="140"/>
-      <c r="B18" s="140"/>
-      <c r="C18" s="140"/>
-      <c r="D18" s="143"/>
-      <c r="E18" s="144" t="s">
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120" t="s">
         <v>10</v>
       </c>
-      <c r="F18" s="145">
+      <c r="F18" s="121">
         <f>G14</f>
         <v>41946</v>
       </c>
-      <c r="G18" s="140"/>
-      <c r="H18" s="140"/>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
     </row>
     <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="140"/>
-      <c r="B19" s="140"/>
-      <c r="C19" s="140"/>
-      <c r="D19" s="143"/>
-      <c r="E19" s="144" t="s">
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120" t="s">
         <v>11</v>
       </c>
-      <c r="F19" s="145">
+      <c r="F19" s="121">
         <f>F17-F18</f>
         <v>174196</v>
       </c>
-      <c r="G19" s="140"/>
-      <c r="H19" s="140"/>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
     </row>
   </sheetData>
   <mergeCells count="4">

--- a/Expence - Copy.xlsx
+++ b/Expence - Copy.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="10" activeTab="18"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="June-2019" sheetId="1" r:id="rId1"/>
@@ -19,38 +19,41 @@
     <sheet name="Oct-2019" sheetId="6" r:id="rId5"/>
     <sheet name="Nov-2019" sheetId="7" r:id="rId6"/>
     <sheet name="Dec-2019" sheetId="8" r:id="rId7"/>
-    <sheet name="jan-2020" sheetId="9" r:id="rId8"/>
-    <sheet name="feb-2020" sheetId="10" r:id="rId9"/>
-    <sheet name="March-2020 " sheetId="11" r:id="rId10"/>
-    <sheet name="April-2020" sheetId="12" r:id="rId11"/>
-    <sheet name="May-2020" sheetId="13" r:id="rId12"/>
-    <sheet name="June-2020" sheetId="14" r:id="rId13"/>
-    <sheet name="July-2020" sheetId="15" r:id="rId14"/>
-    <sheet name="Aug-2020" sheetId="16" r:id="rId15"/>
-    <sheet name="sep-2020 " sheetId="20" r:id="rId16"/>
-    <sheet name="OCt-2020" sheetId="19" r:id="rId17"/>
-    <sheet name="Nov-2020" sheetId="21" r:id="rId18"/>
-    <sheet name="Dec-2020" sheetId="22" r:id="rId19"/>
+    <sheet name="Sheet2" sheetId="24" r:id="rId8"/>
+    <sheet name="jan-2020" sheetId="9" r:id="rId9"/>
+    <sheet name="feb-2020" sheetId="10" r:id="rId10"/>
+    <sheet name="March-2020 " sheetId="11" r:id="rId11"/>
+    <sheet name="April-2020" sheetId="12" r:id="rId12"/>
+    <sheet name="May-2020" sheetId="13" r:id="rId13"/>
+    <sheet name="June-2020" sheetId="14" r:id="rId14"/>
+    <sheet name="July-2020" sheetId="15" r:id="rId15"/>
+    <sheet name="Aug-2020" sheetId="16" r:id="rId16"/>
+    <sheet name="sep-2020 " sheetId="20" r:id="rId17"/>
+    <sheet name="OCt-2020" sheetId="19" r:id="rId18"/>
+    <sheet name="Nov-2020" sheetId="21" r:id="rId19"/>
+    <sheet name="Dec-2020" sheetId="22" r:id="rId20"/>
+    <sheet name="jan-2021" sheetId="23" r:id="rId21"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm.Print_Area" localSheetId="10">'April-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="11">'April-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$1:$I$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="14">'Aug-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'Aug-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Dec-2019'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'Dec-2020'!$A$1:$I$30</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="8">'feb-2020'!$A$1:$I$24</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="7">'jan-2020'!$A$1:$I$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="13">'July-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'Dec-2020'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="9">'feb-2020'!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="8">'jan-2020'!$A$1:$I$26</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'jan-2021'!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="14">'July-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'June-2019'!$A$1:$H$19</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="12">'June-2020'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="9">'March-2020 '!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="11">'May-2020'!$A$1:$I$24</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="13">'June-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="10">'March-2020 '!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="12">'May-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$I$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="17">'Nov-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Nov-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Oct-2019'!$A$1:$I$23</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'OCt-2020'!$A$1:$I$35</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="17">'OCt-2020'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Sep-2019'!$A$1:$I$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'sep-2020 '!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'sep-2020 '!$A$1:$I$31</definedName>
   </definedNames>
   <calcPr calcId="162913"/>
   <extLst>
@@ -69,8 +72,42 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>HP</author>
+  </authors>
+  <commentList>
+    <comment ref="C21" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t>HP:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <charset val="1"/>
+          </rPr>
+          <t xml:space="preserve">
+</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="314">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="345">
   <si>
     <t>S.No</t>
   </si>
@@ -1012,6 +1049,99 @@
   </si>
   <si>
     <t>30-12-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Dec-2020</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Expenditure From Jan-2021</t>
+  </si>
+  <si>
+    <t>204/v</t>
+  </si>
+  <si>
+    <t>205/v</t>
+  </si>
+  <si>
+    <t>206/v</t>
+  </si>
+  <si>
+    <t>207/v</t>
+  </si>
+  <si>
+    <t>208/v</t>
+  </si>
+  <si>
+    <t>Bursh</t>
+  </si>
+  <si>
+    <t>cement</t>
+  </si>
+  <si>
+    <t>Tank with Rent</t>
+  </si>
+  <si>
+    <t>Door Repairing</t>
+  </si>
+  <si>
+    <t>Gizer Fiting</t>
+  </si>
+  <si>
+    <t>sand Lifting</t>
+  </si>
+  <si>
+    <t>Dumper of Sand</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> </t>
+  </si>
+  <si>
+    <t>Faisal pilamber</t>
+  </si>
+  <si>
+    <t>01-01-2021</t>
+  </si>
+  <si>
+    <t>12-01-2021</t>
+  </si>
+  <si>
+    <t>09-01-2021</t>
+  </si>
+  <si>
+    <t>6-01-2021</t>
+  </si>
+  <si>
+    <t>25-01-2021</t>
+  </si>
+  <si>
+    <t>7-01-2021</t>
+  </si>
+  <si>
+    <t>15-01-2021</t>
+  </si>
+  <si>
+    <t>17-01-2021</t>
+  </si>
+  <si>
+    <t>04-01-2021</t>
+  </si>
+  <si>
+    <t>21-01-2021</t>
+  </si>
+  <si>
+    <t>20-01-2021</t>
+  </si>
+  <si>
+    <t>212/v</t>
+  </si>
+  <si>
+    <t>Tunk Mazdori</t>
+  </si>
+  <si>
+    <t>Chemical  Water Tank</t>
+  </si>
+  <si>
+    <t>Batteries</t>
   </si>
 </sst>
 </file>
@@ -1022,7 +1152,7 @@
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="31" x14ac:knownFonts="1">
+  <fonts count="33" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1232,6 +1362,19 @@
       <color theme="1"/>
       <name val="Castellar"/>
       <family val="1"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Tahoma"/>
+      <charset val="1"/>
     </font>
   </fonts>
   <fills count="3">
@@ -1558,7 +1701,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="158">
+  <cellXfs count="161">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1979,6 +2122,13 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2526,6 +2676,337 @@
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:I19"/>
+  <sheetViews>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D21" sqref="D21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
+      <c r="C1" s="153" t="s">
+        <v>204</v>
+      </c>
+      <c r="D1" s="153"/>
+      <c r="E1" s="153"/>
+      <c r="F1" s="153"/>
+      <c r="G1" s="153"/>
+      <c r="H1" s="153"/>
+    </row>
+    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147"/>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152"/>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A4" s="117"/>
+      <c r="B4" s="117"/>
+      <c r="C4" s="112" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="112" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="112" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="112" t="s">
+        <v>203</v>
+      </c>
+      <c r="G4" s="112" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="112" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A5" s="117"/>
+      <c r="B5" s="117"/>
+      <c r="C5" s="96">
+        <v>1</v>
+      </c>
+      <c r="D5" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E5" s="98" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="99" t="s">
+        <v>127</v>
+      </c>
+      <c r="G5" s="113">
+        <v>15000</v>
+      </c>
+      <c r="H5" s="100"/>
+    </row>
+    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A6" s="117"/>
+      <c r="B6" s="117"/>
+      <c r="C6" s="96">
+        <v>2</v>
+      </c>
+      <c r="D6" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E6" s="98" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="99" t="s">
+        <v>128</v>
+      </c>
+      <c r="G6" s="113">
+        <v>11000</v>
+      </c>
+      <c r="H6" s="100"/>
+    </row>
+    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="96">
+        <v>3</v>
+      </c>
+      <c r="D7" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E7" s="98" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="99" t="s">
+        <v>129</v>
+      </c>
+      <c r="G7" s="113">
+        <v>3000</v>
+      </c>
+      <c r="H7" s="100"/>
+    </row>
+    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A8" s="117"/>
+      <c r="B8" s="117"/>
+      <c r="C8" s="96">
+        <v>4</v>
+      </c>
+      <c r="D8" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E8" s="98" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="99" t="s">
+        <v>130</v>
+      </c>
+      <c r="G8" s="113">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="100"/>
+    </row>
+    <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A9" s="117"/>
+      <c r="B9" s="117"/>
+      <c r="C9" s="96">
+        <v>5</v>
+      </c>
+      <c r="D9" s="97" t="s">
+        <v>205</v>
+      </c>
+      <c r="E9" s="98" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="99" t="s">
+        <v>131</v>
+      </c>
+      <c r="G9" s="113">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="100"/>
+    </row>
+    <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="117"/>
+      <c r="B10" s="117"/>
+      <c r="C10" s="96">
+        <v>7</v>
+      </c>
+      <c r="D10" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E10" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="99"/>
+      <c r="G10" s="113">
+        <v>721</v>
+      </c>
+      <c r="H10" s="100"/>
+    </row>
+    <row r="11" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A11" s="117"/>
+      <c r="B11" s="117"/>
+      <c r="C11" s="96">
+        <v>8</v>
+      </c>
+      <c r="D11" s="97" t="s">
+        <v>206</v>
+      </c>
+      <c r="E11" s="101" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="99"/>
+      <c r="G11" s="113">
+        <v>5225</v>
+      </c>
+      <c r="H11" s="100"/>
+    </row>
+    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A12" s="117"/>
+      <c r="B12" s="117"/>
+      <c r="C12" s="96">
+        <v>9</v>
+      </c>
+      <c r="D12" s="97" t="s">
+        <v>208</v>
+      </c>
+      <c r="E12" s="101" t="s">
+        <v>207</v>
+      </c>
+      <c r="F12" s="99"/>
+      <c r="G12" s="113">
+        <v>400</v>
+      </c>
+      <c r="H12" s="100"/>
+    </row>
+    <row r="13" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A13" s="117"/>
+      <c r="B13" s="117"/>
+      <c r="C13" s="96">
+        <v>10</v>
+      </c>
+      <c r="D13" s="118" t="s">
+        <v>208</v>
+      </c>
+      <c r="E13" s="101" t="s">
+        <v>132</v>
+      </c>
+      <c r="F13" s="114"/>
+      <c r="G13" s="115">
+        <v>600</v>
+      </c>
+      <c r="H13" s="116"/>
+    </row>
+    <row r="14" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A14" s="154"/>
+      <c r="B14" s="154"/>
+      <c r="C14" s="154" t="s">
+        <v>33</v>
+      </c>
+      <c r="D14" s="154"/>
+      <c r="E14" s="154"/>
+      <c r="F14" s="154"/>
+      <c r="G14" s="108">
+        <f>SUM(G5:G13)</f>
+        <v>41946</v>
+      </c>
+      <c r="H14" s="102"/>
+    </row>
+    <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="117"/>
+      <c r="B15" s="117"/>
+      <c r="C15" s="117"/>
+      <c r="D15" s="117"/>
+      <c r="E15" s="117"/>
+      <c r="F15" s="117"/>
+      <c r="G15" s="117"/>
+      <c r="H15" s="117"/>
+    </row>
+    <row r="16" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A16" s="117"/>
+      <c r="B16" s="117"/>
+      <c r="C16" s="117"/>
+      <c r="D16" s="117"/>
+      <c r="E16" s="117"/>
+      <c r="F16" s="117"/>
+      <c r="G16" s="117"/>
+      <c r="H16" s="117"/>
+    </row>
+    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A17" s="117"/>
+      <c r="B17" s="117"/>
+      <c r="C17" s="117"/>
+      <c r="D17" s="119"/>
+      <c r="E17" s="120" t="s">
+        <v>9</v>
+      </c>
+      <c r="F17" s="121">
+        <v>216142</v>
+      </c>
+      <c r="G17" s="117"/>
+      <c r="H17" s="117"/>
+    </row>
+    <row r="18" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A18" s="117"/>
+      <c r="B18" s="117"/>
+      <c r="C18" s="117"/>
+      <c r="D18" s="119"/>
+      <c r="E18" s="120" t="s">
+        <v>10</v>
+      </c>
+      <c r="F18" s="121">
+        <f>G14</f>
+        <v>41946</v>
+      </c>
+      <c r="G18" s="117"/>
+      <c r="H18" s="117"/>
+    </row>
+    <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="A19" s="117"/>
+      <c r="B19" s="117"/>
+      <c r="C19" s="117"/>
+      <c r="D19" s="119"/>
+      <c r="E19" s="120" t="s">
+        <v>11</v>
+      </c>
+      <c r="F19" s="121">
+        <f>F17-F18</f>
+        <v>174196</v>
+      </c>
+      <c r="G19" s="117"/>
+      <c r="H19" s="117"/>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C1:H1"/>
+    <mergeCell ref="A14:F14"/>
+  </mergeCells>
+  <printOptions horizontalCentered="1"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I24"/>
   <sheetViews>
     <sheetView topLeftCell="A13" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -2899,7 +3380,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I24"/>
   <sheetViews>
@@ -3270,7 +3751,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I20"/>
   <sheetViews>
@@ -3565,7 +4046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
@@ -3917,7 +4398,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
@@ -4263,7 +4744,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
@@ -4573,11 +5054,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I26"/>
   <sheetViews>
-    <sheetView topLeftCell="A15" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="F25" sqref="F25"/>
     </sheetView>
   </sheetViews>
@@ -4971,7 +5452,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I30"/>
   <sheetViews>
@@ -5415,11 +5896,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
@@ -5757,390 +6238,6 @@
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
     <mergeCell ref="C18:E18"/>
-  </mergeCells>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I25"/>
-  <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20:E20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
-        <v>53</v>
-      </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
-        <v>52</v>
-      </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C4" s="3" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="G4" s="3" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C5" s="14">
-        <v>1</v>
-      </c>
-      <c r="D5" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E5" s="16" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="17" t="s">
-        <v>298</v>
-      </c>
-      <c r="G5" s="17">
-        <v>17000</v>
-      </c>
-      <c r="H5" s="18"/>
-    </row>
-    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C6" s="14">
-        <v>2</v>
-      </c>
-      <c r="D6" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E6" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="17" t="s">
-        <v>297</v>
-      </c>
-      <c r="G6" s="17">
-        <v>14000</v>
-      </c>
-      <c r="H6" s="18"/>
-    </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C7" s="14">
-        <v>3</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E7" s="16" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="17" t="s">
-        <v>299</v>
-      </c>
-      <c r="G7" s="17">
-        <v>5000</v>
-      </c>
-      <c r="H7" s="18"/>
-    </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C8" s="14">
-        <v>4</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E8" s="16" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="17" t="s">
-        <v>300</v>
-      </c>
-      <c r="G8" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="18"/>
-    </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C9" s="14">
-        <v>5</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>292</v>
-      </c>
-      <c r="E9" s="16" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="17" t="s">
-        <v>301</v>
-      </c>
-      <c r="G9" s="17">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="18"/>
-    </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>6</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17">
-        <v>11350</v>
-      </c>
-      <c r="H10" s="18"/>
-    </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>7</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>286</v>
-      </c>
-      <c r="G11" s="17">
-        <v>0</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
-        <v>8</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
-      </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
-        <v>9</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>302</v>
-      </c>
-      <c r="F13" s="17" t="s">
-        <v>303</v>
-      </c>
-      <c r="G13" s="17">
-        <v>200</v>
-      </c>
-      <c r="H13" s="18"/>
-    </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14">
-        <v>10</v>
-      </c>
-      <c r="D14" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>304</v>
-      </c>
-      <c r="F14" s="17"/>
-      <c r="G14" s="17">
-        <v>1400</v>
-      </c>
-      <c r="H14" s="18"/>
-    </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14">
-        <v>11</v>
-      </c>
-      <c r="D15" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>306</v>
-      </c>
-      <c r="F15" s="17"/>
-      <c r="G15" s="17">
-        <v>400</v>
-      </c>
-      <c r="H15" s="18"/>
-    </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14">
-        <v>12</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>310</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>307</v>
-      </c>
-      <c r="F16" s="17"/>
-      <c r="G16" s="17">
-        <v>300</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14">
-        <v>13</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>311</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>308</v>
-      </c>
-      <c r="F17" s="17"/>
-      <c r="G17" s="17">
-        <v>1860</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20">
-        <v>1260</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="148" t="s">
-        <v>33</v>
-      </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25">
-        <f>SUM(G5:G19)</f>
-        <v>60770</v>
-      </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F23" s="23">
-        <v>194701</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="23">
-        <f>G20</f>
-        <v>60770</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="23">
-        <f>F23-F24</f>
-        <v>133931</v>
-      </c>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C1:G1"/>
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C20:E20"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6532,6 +6629,907 @@
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" scale="73" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A5" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C3" sqref="C3:G3"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>314</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>298</v>
+      </c>
+      <c r="G5" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>297</v>
+      </c>
+      <c r="G6" s="17">
+        <v>14000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>299</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>300</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>292</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>301</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>293</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>11350</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>286</v>
+      </c>
+      <c r="G11" s="17">
+        <v>0</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>309</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12" s="20" t="s">
+        <v>286</v>
+      </c>
+      <c r="G12" s="20">
+        <v>0</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>312</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>302</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>303</v>
+      </c>
+      <c r="G13" s="17">
+        <v>200</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>313</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>304</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>1400</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>294</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>400</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>310</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>307</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>300</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>311</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>308</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>1860</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>295</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F18" s="20"/>
+      <c r="G18" s="20">
+        <v>1260</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>296</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F19" s="20"/>
+      <c r="G19" s="20">
+        <v>2000</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D20" s="149"/>
+      <c r="E20" s="150"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="25">
+        <f>SUM(G5:G19)</f>
+        <v>60770</v>
+      </c>
+      <c r="H20" s="2"/>
+    </row>
+    <row r="21" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="23" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C23" s="21"/>
+      <c r="D23" s="22"/>
+      <c r="E23" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F23" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F24" s="23">
+        <f>G20</f>
+        <v>60770</v>
+      </c>
+    </row>
+    <row r="25" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C25" s="21"/>
+      <c r="D25" s="22"/>
+      <c r="E25" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F25" s="23">
+        <f>F23-F24</f>
+        <v>133931</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C20:E20"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I32"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="4" max="4" width="18" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="18" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="147" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" s="147"/>
+      <c r="E1" s="147"/>
+      <c r="F1" s="147"/>
+      <c r="G1" s="147"/>
+      <c r="H1" s="5"/>
+    </row>
+    <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
+      <c r="C2" s="147" t="s">
+        <v>52</v>
+      </c>
+      <c r="D2" s="147"/>
+      <c r="E2" s="147"/>
+      <c r="F2" s="147"/>
+      <c r="G2" s="147"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="152" t="s">
+        <v>315</v>
+      </c>
+      <c r="D3" s="152"/>
+      <c r="E3" s="152"/>
+      <c r="F3" s="152"/>
+      <c r="G3" s="152"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C4" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1"/>
+    </row>
+    <row r="5" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C5" s="14">
+        <v>1</v>
+      </c>
+      <c r="D5" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E5" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="F5" s="17" t="s">
+        <v>316</v>
+      </c>
+      <c r="G5" s="17">
+        <v>17000</v>
+      </c>
+      <c r="H5" s="18"/>
+    </row>
+    <row r="6" spans="3:9" ht="51" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C6" s="14">
+        <v>2</v>
+      </c>
+      <c r="D6" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E6" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>317</v>
+      </c>
+      <c r="G6" s="17">
+        <v>14000</v>
+      </c>
+      <c r="H6" s="18"/>
+    </row>
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C7" s="14">
+        <v>3</v>
+      </c>
+      <c r="D7" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E7" s="16" t="s">
+        <v>18</v>
+      </c>
+      <c r="F7" s="17" t="s">
+        <v>318</v>
+      </c>
+      <c r="G7" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H7" s="18"/>
+    </row>
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C8" s="14">
+        <v>4</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E8" s="16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>319</v>
+      </c>
+      <c r="G8" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H8" s="18"/>
+    </row>
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C9" s="14">
+        <v>5</v>
+      </c>
+      <c r="D9" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E9" s="16" t="s">
+        <v>19</v>
+      </c>
+      <c r="F9" s="17" t="s">
+        <v>320</v>
+      </c>
+      <c r="G9" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H9" s="18"/>
+    </row>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
+      <c r="D10" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E10" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17">
+        <v>19902</v>
+      </c>
+      <c r="H10" s="18"/>
+    </row>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
+      <c r="D11" s="15" t="s">
+        <v>335</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F11" s="17"/>
+      <c r="G11" s="17">
+        <v>3780</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>321</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>680</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>322</v>
+      </c>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17">
+        <v>2800</v>
+      </c>
+      <c r="H13" s="18"/>
+    </row>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
+      <c r="D14" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
+        <v>7650</v>
+      </c>
+      <c r="H14" s="18"/>
+    </row>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
+      <c r="D15" s="15" t="s">
+        <v>336</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H15" s="18"/>
+    </row>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
+      <c r="D16" s="15" t="s">
+        <v>330</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>1500</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
+      <c r="D17" s="15" t="s">
+        <v>338</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>325</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>2000</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>339</v>
+      </c>
+      <c r="E18" s="19" t="s">
+        <v>343</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
+        <v>5000</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>337</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>326</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>1100</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C20" s="14">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>327</v>
+      </c>
+      <c r="F20" s="20"/>
+      <c r="G20" s="20">
+        <v>3300</v>
+      </c>
+      <c r="H20" s="18"/>
+    </row>
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C21" s="14">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>340</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>342</v>
+      </c>
+      <c r="F21" s="17" t="s">
+        <v>341</v>
+      </c>
+      <c r="G21" s="17">
+        <v>7500</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C22" s="14">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>329</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <v>3000</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C23" s="14">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
+        <v>2090</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C24" s="14">
+        <v>19</v>
+      </c>
+      <c r="D24" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E24" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
+        <v>1875</v>
+      </c>
+      <c r="H24" s="18"/>
+    </row>
+    <row r="25" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C25" s="14">
+        <v>20</v>
+      </c>
+      <c r="D25" s="15" t="s">
+        <v>332</v>
+      </c>
+      <c r="E25" s="19" t="s">
+        <v>305</v>
+      </c>
+      <c r="F25" s="17"/>
+      <c r="G25" s="17">
+        <v>980</v>
+      </c>
+      <c r="H25" s="18"/>
+    </row>
+    <row r="26" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C26" s="14">
+        <v>21</v>
+      </c>
+      <c r="D26" s="15" t="s">
+        <v>334</v>
+      </c>
+      <c r="E26" s="19" t="s">
+        <v>8</v>
+      </c>
+      <c r="F26" s="17"/>
+      <c r="G26" s="17">
+        <v>1416</v>
+      </c>
+      <c r="H26" s="18"/>
+    </row>
+    <row r="27" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C27" s="14">
+        <v>22</v>
+      </c>
+      <c r="D27" s="15" t="s">
+        <v>333</v>
+      </c>
+      <c r="E27" s="19" t="s">
+        <v>344</v>
+      </c>
+      <c r="F27" s="20"/>
+      <c r="G27" s="20">
+        <v>16000</v>
+      </c>
+      <c r="H27" s="18"/>
+    </row>
+    <row r="28" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C28" s="148" t="s">
+        <v>33</v>
+      </c>
+      <c r="D28" s="149"/>
+      <c r="E28" s="150"/>
+      <c r="F28" s="24"/>
+      <c r="G28" s="25" t="s">
+        <v>328</v>
+      </c>
+      <c r="H28" s="2"/>
+    </row>
+    <row r="29" spans="3:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C29" s="158"/>
+      <c r="D29" s="158"/>
+      <c r="E29" s="158"/>
+      <c r="F29" s="159"/>
+      <c r="G29" s="158">
+        <f>SUM(G5:G28)</f>
+        <v>125573</v>
+      </c>
+      <c r="H29" s="160"/>
+    </row>
+    <row r="30" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C30" s="21"/>
+      <c r="D30" s="22"/>
+      <c r="E30" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F30" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="31" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C31" s="21"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="23">
+        <f>G29</f>
+        <v>125573</v>
+      </c>
+    </row>
+    <row r="32" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C32" s="21"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="23" t="s">
+        <v>11</v>
+      </c>
+      <c r="F32" s="23">
+        <f>F30-F31</f>
+        <v>69128</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="C2:G2"/>
+    <mergeCell ref="C3:G3"/>
+    <mergeCell ref="C28:E28"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -8214,6 +9212,18 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I21"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
@@ -8521,335 +9531,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:I19"/>
-  <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D21" sqref="D21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
-    <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
-    </row>
-    <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
-      <c r="H2" s="4"/>
-    </row>
-    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
-      <c r="H3" s="4"/>
-    </row>
-    <row r="4" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" s="117"/>
-      <c r="B4" s="117"/>
-      <c r="C4" s="112" t="s">
-        <v>0</v>
-      </c>
-      <c r="D4" s="112" t="s">
-        <v>1</v>
-      </c>
-      <c r="E4" s="112" t="s">
-        <v>5</v>
-      </c>
-      <c r="F4" s="112" t="s">
-        <v>203</v>
-      </c>
-      <c r="G4" s="112" t="s">
-        <v>2</v>
-      </c>
-      <c r="H4" s="112" t="s">
-        <v>3</v>
-      </c>
-      <c r="I4" s="1"/>
-    </row>
-    <row r="5" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A5" s="117"/>
-      <c r="B5" s="117"/>
-      <c r="C5" s="96">
-        <v>1</v>
-      </c>
-      <c r="D5" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E5" s="98" t="s">
-        <v>16</v>
-      </c>
-      <c r="F5" s="99" t="s">
-        <v>127</v>
-      </c>
-      <c r="G5" s="113">
-        <v>15000</v>
-      </c>
-      <c r="H5" s="100"/>
-    </row>
-    <row r="6" spans="1:9" ht="51" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="117"/>
-      <c r="B6" s="117"/>
-      <c r="C6" s="96">
-        <v>2</v>
-      </c>
-      <c r="D6" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E6" s="98" t="s">
-        <v>17</v>
-      </c>
-      <c r="F6" s="99" t="s">
-        <v>128</v>
-      </c>
-      <c r="G6" s="113">
-        <v>11000</v>
-      </c>
-      <c r="H6" s="100"/>
-    </row>
-    <row r="7" spans="1:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A7" s="117"/>
-      <c r="B7" s="117"/>
-      <c r="C7" s="96">
-        <v>3</v>
-      </c>
-      <c r="D7" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E7" s="98" t="s">
-        <v>18</v>
-      </c>
-      <c r="F7" s="99" t="s">
-        <v>129</v>
-      </c>
-      <c r="G7" s="113">
-        <v>3000</v>
-      </c>
-      <c r="H7" s="100"/>
-    </row>
-    <row r="8" spans="1:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="117"/>
-      <c r="B8" s="117"/>
-      <c r="C8" s="96">
-        <v>4</v>
-      </c>
-      <c r="D8" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E8" s="98" t="s">
-        <v>15</v>
-      </c>
-      <c r="F8" s="99" t="s">
-        <v>130</v>
-      </c>
-      <c r="G8" s="113">
-        <v>3000</v>
-      </c>
-      <c r="H8" s="100"/>
-    </row>
-    <row r="9" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="117"/>
-      <c r="B9" s="117"/>
-      <c r="C9" s="96">
-        <v>5</v>
-      </c>
-      <c r="D9" s="97" t="s">
-        <v>205</v>
-      </c>
-      <c r="E9" s="98" t="s">
-        <v>19</v>
-      </c>
-      <c r="F9" s="99" t="s">
-        <v>131</v>
-      </c>
-      <c r="G9" s="113">
-        <v>3000</v>
-      </c>
-      <c r="H9" s="100"/>
-    </row>
-    <row r="10" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="117"/>
-      <c r="B10" s="117"/>
-      <c r="C10" s="96">
-        <v>7</v>
-      </c>
-      <c r="D10" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="E10" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="99"/>
-      <c r="G10" s="113">
-        <v>721</v>
-      </c>
-      <c r="H10" s="100"/>
-    </row>
-    <row r="11" spans="1:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A11" s="117"/>
-      <c r="B11" s="117"/>
-      <c r="C11" s="96">
-        <v>8</v>
-      </c>
-      <c r="D11" s="97" t="s">
-        <v>206</v>
-      </c>
-      <c r="E11" s="101" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="99"/>
-      <c r="G11" s="113">
-        <v>5225</v>
-      </c>
-      <c r="H11" s="100"/>
-    </row>
-    <row r="12" spans="1:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="117"/>
-      <c r="B12" s="117"/>
-      <c r="C12" s="96">
-        <v>9</v>
-      </c>
-      <c r="D12" s="97" t="s">
-        <v>208</v>
-      </c>
-      <c r="E12" s="101" t="s">
-        <v>207</v>
-      </c>
-      <c r="F12" s="99"/>
-      <c r="G12" s="113">
-        <v>400</v>
-      </c>
-      <c r="H12" s="100"/>
-    </row>
-    <row r="13" spans="1:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A13" s="117"/>
-      <c r="B13" s="117"/>
-      <c r="C13" s="96">
-        <v>10</v>
-      </c>
-      <c r="D13" s="118" t="s">
-        <v>208</v>
-      </c>
-      <c r="E13" s="101" t="s">
-        <v>132</v>
-      </c>
-      <c r="F13" s="114"/>
-      <c r="G13" s="115">
-        <v>600</v>
-      </c>
-      <c r="H13" s="116"/>
-    </row>
-    <row r="14" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154" t="s">
-        <v>33</v>
-      </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
-      <c r="G14" s="108">
-        <f>SUM(G5:G13)</f>
-        <v>41946</v>
-      </c>
-      <c r="H14" s="102"/>
-    </row>
-    <row r="15" spans="1:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="117"/>
-      <c r="B15" s="117"/>
-      <c r="C15" s="117"/>
-      <c r="D15" s="117"/>
-      <c r="E15" s="117"/>
-      <c r="F15" s="117"/>
-      <c r="G15" s="117"/>
-      <c r="H15" s="117"/>
-    </row>
-    <row r="16" spans="1:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" s="117"/>
-      <c r="B16" s="117"/>
-      <c r="C16" s="117"/>
-      <c r="D16" s="117"/>
-      <c r="E16" s="117"/>
-      <c r="F16" s="117"/>
-      <c r="G16" s="117"/>
-      <c r="H16" s="117"/>
-    </row>
-    <row r="17" spans="1:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" s="117"/>
-      <c r="B17" s="117"/>
-      <c r="C17" s="117"/>
-      <c r="D17" s="119"/>
-      <c r="E17" s="120" t="s">
-        <v>9</v>
-      </c>
-      <c r="F17" s="121">
-        <v>216142</v>
-      </c>
-      <c r="G17" s="117"/>
-      <c r="H17" s="117"/>
-    </row>
-    <row r="18" spans="1:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" s="117"/>
-      <c r="B18" s="117"/>
-      <c r="C18" s="117"/>
-      <c r="D18" s="119"/>
-      <c r="E18" s="120" t="s">
-        <v>10</v>
-      </c>
-      <c r="F18" s="121">
-        <f>G14</f>
-        <v>41946</v>
-      </c>
-      <c r="G18" s="117"/>
-      <c r="H18" s="117"/>
-    </row>
-    <row r="19" spans="1:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" s="117"/>
-      <c r="B19" s="117"/>
-      <c r="C19" s="117"/>
-      <c r="D19" s="119"/>
-      <c r="E19" s="120" t="s">
-        <v>11</v>
-      </c>
-      <c r="F19" s="121">
-        <f>F17-F18</f>
-        <v>174196</v>
-      </c>
-      <c r="G19" s="117"/>
-      <c r="H19" s="117"/>
-    </row>
-  </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="C2:G2"/>
-    <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C1:H1"/>
-    <mergeCell ref="A14:F14"/>
-  </mergeCells>
-  <printOptions horizontalCentered="1"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>
--- a/Expence - Copy.xlsx
+++ b/Expence - Copy.xlsx
@@ -1,15 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Masjid-record-master\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20736" windowHeight="11160" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" firstSheet="12" activeTab="20"/>
   </bookViews>
   <sheets>
     <sheet name="June-2019" sheetId="1" r:id="rId1"/>
@@ -37,25 +32,25 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="11">'April-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="2">'Aug-2019 '!$A$1:$I$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="15">'Aug-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="15">'Aug-2020'!$A$1:$I$29</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="6">'Dec-2019'!$A$1:$I$28</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="19">'Dec-2020'!$A$1:$I$30</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="19">'Dec-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="9">'feb-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="8">'jan-2020'!$A$1:$I$26</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="20">'jan-2021'!$A$1:$I$37</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="20">'jan-2021'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="14">'July-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'June-2019'!$A$1:$H$19</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="13">'June-2020'!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="10">'March-2020 '!$A$1:$I$28</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="12">'May-2020'!$A$1:$I$24</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="5">'Nov-2019'!$A$1:$I$27</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="18">'Nov-2020'!$A$1:$I$28</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="18">'Nov-2020'!$A$1:$I$26</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="4">'Oct-2019'!$A$1:$I$23</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="17">'OCt-2020'!$A$1:$I$35</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Sep-2019'!$A$1:$I$22</definedName>
-    <definedName name="_xlnm.Print_Area" localSheetId="16">'sep-2020 '!$A$1:$I$31</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="16">'sep-2020 '!$A$1:$I$34</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="145621"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -72,42 +67,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author>HP</author>
-  </authors>
-  <commentList>
-    <comment ref="C21" authorId="0" shapeId="0">
-      <text>
-        <r>
-          <rPr>
-            <b/>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t>HP:</t>
-        </r>
-        <r>
-          <rPr>
-            <sz val="9"/>
-            <color indexed="81"/>
-            <rFont val="Tahoma"/>
-            <charset val="1"/>
-          </rPr>
-          <t xml:space="preserve">
-</t>
-        </r>
-      </text>
-    </comment>
-  </commentList>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="874" uniqueCount="345">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="359">
   <si>
     <t>S.No</t>
   </si>
@@ -646,12 +607,6 @@
     <t>24-07-2020</t>
   </si>
   <si>
-    <t>Electric Item Purchase</t>
-  </si>
-  <si>
-    <t>Tameer-e-Masjid</t>
-  </si>
-  <si>
     <t>12-07-2020</t>
   </si>
   <si>
@@ -694,9 +649,6 @@
     <t>78/v</t>
   </si>
   <si>
-    <t>Advance return H-31/12</t>
-  </si>
-  <si>
     <t>79/v</t>
   </si>
   <si>
@@ -823,30 +775,12 @@
     <t>091/v</t>
   </si>
   <si>
-    <t>4-10-2020</t>
-  </si>
-  <si>
-    <t>Buring</t>
-  </si>
-  <si>
     <t>092/v</t>
   </si>
   <si>
     <t>01-09-2020</t>
   </si>
   <si>
-    <t>4-09-2020</t>
-  </si>
-  <si>
-    <t>28-10-2020</t>
-  </si>
-  <si>
-    <t>28-09-2020</t>
-  </si>
-  <si>
-    <t>6-10-2020</t>
-  </si>
-  <si>
     <t>11-10-2020</t>
   </si>
   <si>
@@ -856,12 +790,6 @@
     <t>25-10-2020</t>
   </si>
   <si>
-    <t>water Leakage (Imam sahab)</t>
-  </si>
-  <si>
-    <t>water Leakage (moazin sahab)</t>
-  </si>
-  <si>
     <t>03-10-2020</t>
   </si>
   <si>
@@ -874,9 +802,6 @@
     <t>Unit Repairing</t>
   </si>
   <si>
-    <t>p/lag</t>
-  </si>
-  <si>
     <t>Electric wires</t>
   </si>
   <si>
@@ -904,30 +829,15 @@
     <t>6-09-2020</t>
   </si>
   <si>
-    <t>11-09-2020</t>
-  </si>
-  <si>
-    <t>03-09-2020</t>
-  </si>
-  <si>
-    <t>2 pices Cupishe4l</t>
-  </si>
-  <si>
     <t>cuile</t>
   </si>
   <si>
     <t>Mike Wire/Mike Jack</t>
   </si>
   <si>
-    <t>Electric lines</t>
-  </si>
-  <si>
     <t>26-09-2020</t>
   </si>
   <si>
-    <t>15-09-2020</t>
-  </si>
-  <si>
     <t>Oraq Lifting</t>
   </si>
   <si>
@@ -940,21 +850,6 @@
     <t>01-11-2020</t>
   </si>
   <si>
-    <t>28-11-2020</t>
-  </si>
-  <si>
-    <t>4-11-2020</t>
-  </si>
-  <si>
-    <t>6-11-2020</t>
-  </si>
-  <si>
-    <t>11-11-2020</t>
-  </si>
-  <si>
-    <t>20-11-2020</t>
-  </si>
-  <si>
     <t>093/v</t>
   </si>
   <si>
@@ -967,18 +862,9 @@
     <t>096/v</t>
   </si>
   <si>
-    <t>not a payable</t>
-  </si>
-  <si>
     <t>Gernatore Service</t>
   </si>
   <si>
-    <t>Carborater 2.5km</t>
-  </si>
-  <si>
-    <t>construction of Roof</t>
-  </si>
-  <si>
     <t>097/v</t>
   </si>
   <si>
@@ -991,15 +877,6 @@
     <t>28-12-2020</t>
   </si>
   <si>
-    <t>4-12-2020</t>
-  </si>
-  <si>
-    <t>6-12-2020</t>
-  </si>
-  <si>
-    <t>11-12-2020</t>
-  </si>
-  <si>
     <t>099/v</t>
   </si>
   <si>
@@ -1024,21 +901,9 @@
     <t>locks</t>
   </si>
   <si>
-    <t>Centary Items</t>
-  </si>
-  <si>
     <t>Electric Items</t>
   </si>
   <si>
-    <t>capacitor 3.5</t>
-  </si>
-  <si>
-    <t>3N0 D/s 40Watts</t>
-  </si>
-  <si>
-    <t>__</t>
-  </si>
-  <si>
     <t>09-12-2020</t>
   </si>
   <si>
@@ -1072,54 +937,21 @@
     <t>208/v</t>
   </si>
   <si>
-    <t>Bursh</t>
-  </si>
-  <si>
-    <t>cement</t>
-  </si>
-  <si>
     <t>Tank with Rent</t>
   </si>
   <si>
-    <t>Door Repairing</t>
-  </si>
-  <si>
-    <t>Gizer Fiting</t>
-  </si>
-  <si>
-    <t>sand Lifting</t>
-  </si>
-  <si>
-    <t>Dumper of Sand</t>
-  </si>
-  <si>
     <t xml:space="preserve"> </t>
   </si>
   <si>
-    <t>Faisal pilamber</t>
-  </si>
-  <si>
     <t>01-01-2021</t>
   </si>
   <si>
     <t>12-01-2021</t>
   </si>
   <si>
-    <t>09-01-2021</t>
-  </si>
-  <si>
-    <t>6-01-2021</t>
-  </si>
-  <si>
     <t>25-01-2021</t>
   </si>
   <si>
-    <t>7-01-2021</t>
-  </si>
-  <si>
-    <t>15-01-2021</t>
-  </si>
-  <si>
     <t>17-01-2021</t>
   </si>
   <si>
@@ -1135,24 +967,195 @@
     <t>212/v</t>
   </si>
   <si>
-    <t>Tunk Mazdori</t>
-  </si>
-  <si>
-    <t>Chemical  Water Tank</t>
-  </si>
-  <si>
-    <t>Batteries</t>
+    <t>27-07-2020</t>
+  </si>
+  <si>
+    <t>Tameer-e-Masjid Funds</t>
+  </si>
+  <si>
+    <t>25-08-2020</t>
+  </si>
+  <si>
+    <t>Mumtaz Advance return H-31/12</t>
+  </si>
+  <si>
+    <t>10-08-2020</t>
+  </si>
+  <si>
+    <t>Capiciter</t>
+  </si>
+  <si>
+    <t>30-08-2020</t>
+  </si>
+  <si>
+    <t>Masjid Slip</t>
+  </si>
+  <si>
+    <t>12-08-2020</t>
+  </si>
+  <si>
+    <t>26-08-2020</t>
+  </si>
+  <si>
+    <t>Cleaning Item</t>
+  </si>
+  <si>
+    <t>2 Capiciter 3.5</t>
+  </si>
+  <si>
+    <t>06-09-2020</t>
+  </si>
+  <si>
+    <t>14-09-2020</t>
+  </si>
+  <si>
+    <t>17-09-2020</t>
+  </si>
+  <si>
+    <t>24-09-2020</t>
+  </si>
+  <si>
+    <t>25-09-2020</t>
+  </si>
+  <si>
+    <t>29-09-2020</t>
+  </si>
+  <si>
+    <t>Electronic Item</t>
+  </si>
+  <si>
+    <t>30-09-2020</t>
+  </si>
+  <si>
+    <t>Senatory Item</t>
+  </si>
+  <si>
+    <t>08-09-2020</t>
+  </si>
+  <si>
+    <t>Electric Item</t>
+  </si>
+  <si>
+    <t>04-10-2020</t>
+  </si>
+  <si>
+    <t>Labour of Boring</t>
+  </si>
+  <si>
+    <t>Water Proofing</t>
+  </si>
+  <si>
+    <t>21-10-2020</t>
+  </si>
+  <si>
+    <t>Electronic Items</t>
+  </si>
+  <si>
+    <t>06-10-2020</t>
+  </si>
+  <si>
+    <t>26-10-2020</t>
+  </si>
+  <si>
+    <t>22-11-2020</t>
+  </si>
+  <si>
+    <t>23-11-2020</t>
+  </si>
+  <si>
+    <t>24-11-2020</t>
+  </si>
+  <si>
+    <t>25-11-2020</t>
+  </si>
+  <si>
+    <t>04-12-2020</t>
+  </si>
+  <si>
+    <t>21-12-2020</t>
+  </si>
+  <si>
+    <t>Sanatery Item</t>
+  </si>
+  <si>
+    <t>26-12-2020</t>
+  </si>
+  <si>
+    <t>Repairning of door</t>
+  </si>
+  <si>
+    <t>209/v</t>
+  </si>
+  <si>
+    <t>Geezer repairning &amp; tanki fitting</t>
+  </si>
+  <si>
+    <t>210/v</t>
+  </si>
+  <si>
+    <t>Battery Purchase</t>
+  </si>
+  <si>
+    <t>6 Bags Cements</t>
+  </si>
+  <si>
+    <t>07-01-2021</t>
+  </si>
+  <si>
+    <t>10-01-2021</t>
+  </si>
+  <si>
+    <t>052</t>
+  </si>
+  <si>
+    <t>Sainatery Items</t>
+  </si>
+  <si>
+    <t>Cleaning Items</t>
+  </si>
+  <si>
+    <t>SRC Power</t>
+  </si>
+  <si>
+    <t>Water Proffing</t>
+  </si>
+  <si>
+    <t>24-01-2021</t>
+  </si>
+  <si>
+    <t>Labour</t>
+  </si>
+  <si>
+    <t>Amanullah Labour</t>
+  </si>
+  <si>
+    <t>Dumper</t>
+  </si>
+  <si>
+    <t>28-01-2021</t>
+  </si>
+  <si>
+    <t>Tanki Fitting</t>
+  </si>
+  <si>
+    <t>214/v</t>
+  </si>
+  <si>
+    <t>211/v</t>
+  </si>
+  <si>
+    <t>213/v</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
   </numFmts>
-  <fonts count="33" x14ac:knownFonts="1">
+  <fonts count="31" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1363,19 +1366,6 @@
       <name val="Castellar"/>
       <family val="1"/>
     </font>
-    <font>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="9"/>
-      <color indexed="81"/>
-      <name val="Tahoma"/>
-      <charset val="1"/>
-    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -1391,7 +1381,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="24">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -1696,12 +1686,23 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="43" fontId="9" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="161">
+  <cellXfs count="162">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -2041,6 +2042,16 @@
     </xf>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="3" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2122,13 +2133,6 @@
     <xf numFmtId="164" fontId="7" fillId="0" borderId="11" xfId="1" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Comma" xfId="1" builtinId="3"/>
@@ -2436,7 +2440,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2450,27 +2454,27 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="25.5546875" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="28.109375" customWidth="1"/>
-    <col min="6" max="6" width="40.88671875" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="2" width="25.54296875" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="28.08984375" customWidth="1"/>
+    <col min="6" max="6" width="40.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="279.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
-      <c r="A1" s="131" t="s">
+    <row r="1" spans="1:7" ht="279.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
+      <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="132"/>
-      <c r="C1" s="132"/>
-      <c r="D1" s="132"/>
-      <c r="E1" s="132"/>
+      <c r="B1" s="136"/>
+      <c r="C1" s="136"/>
+      <c r="D1" s="136"/>
+      <c r="E1" s="136"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2490,7 +2494,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="22.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2620,10 +2624,10 @@
     <row r="10" spans="1:7" ht="47.25" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="133" t="s">
+      <c r="C10" s="137" t="s">
         <v>51</v>
       </c>
-      <c r="D10" s="134"/>
+      <c r="D10" s="138"/>
       <c r="E10" s="10">
         <f>SUM(E3:E9)</f>
         <v>23394</v>
@@ -2682,40 +2686,40 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="22.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="22.90625" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
-        <v>204</v>
-      </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="C1" s="157" t="s">
+        <v>201</v>
+      </c>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="1:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="1:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="1:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
@@ -2731,7 +2735,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="112" t="s">
         <v>2</v>
@@ -2748,7 +2752,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E5" s="98" t="s">
         <v>16</v>
@@ -2768,7 +2772,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E6" s="98" t="s">
         <v>17</v>
@@ -2788,7 +2792,7 @@
         <v>3</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E7" s="98" t="s">
         <v>18</v>
@@ -2808,7 +2812,7 @@
         <v>4</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>15</v>
@@ -2828,7 +2832,7 @@
         <v>5</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>205</v>
+        <v>202</v>
       </c>
       <c r="E9" s="98" t="s">
         <v>19</v>
@@ -2848,7 +2852,7 @@
         <v>7</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>8</v>
@@ -2866,7 +2870,7 @@
         <v>8</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>206</v>
+        <v>203</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>8</v>
@@ -2884,10 +2888,10 @@
         <v>9</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E12" s="101" t="s">
-        <v>207</v>
+        <v>204</v>
       </c>
       <c r="F12" s="99"/>
       <c r="G12" s="113">
@@ -2902,7 +2906,7 @@
         <v>10</v>
       </c>
       <c r="D13" s="118" t="s">
-        <v>208</v>
+        <v>205</v>
       </c>
       <c r="E13" s="101" t="s">
         <v>132</v>
@@ -2914,14 +2918,14 @@
       <c r="H13" s="116"/>
     </row>
     <row r="14" spans="1:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" s="154"/>
-      <c r="B14" s="154"/>
-      <c r="C14" s="154" t="s">
+      <c r="A14" s="158"/>
+      <c r="B14" s="158"/>
+      <c r="C14" s="158" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="154"/>
-      <c r="E14" s="154"/>
-      <c r="F14" s="154"/>
+      <c r="D14" s="158"/>
+      <c r="E14" s="158"/>
+      <c r="F14" s="158"/>
       <c r="G14" s="108">
         <f>SUM(G5:G13)</f>
         <v>41946</v>
@@ -3013,40 +3017,40 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.109375" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.08984375" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="157" t="s">
         <v>139</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3081,7 +3085,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>209</v>
+        <v>206</v>
       </c>
       <c r="G5" s="113">
         <v>15000</v>
@@ -3099,7 +3103,7 @@
         <v>17</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
       <c r="G6" s="113">
         <v>11000</v>
@@ -3117,7 +3121,7 @@
         <v>18</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="G7" s="113">
         <v>3000</v>
@@ -3135,7 +3139,7 @@
         <v>15</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G8" s="113">
         <v>3000</v>
@@ -3153,7 +3157,7 @@
         <v>19</v>
       </c>
       <c r="F9" s="99" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="G9" s="113">
         <v>3000</v>
@@ -3165,10 +3169,10 @@
         <v>6</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="E10" s="98" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="113">
@@ -3229,13 +3233,13 @@
         <v>10</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E14" s="101" t="s">
         <v>137</v>
       </c>
       <c r="F14" s="99" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G14" s="113">
         <v>300</v>
@@ -3247,10 +3251,10 @@
         <v>11</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="E15" s="101" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="F15" s="99"/>
       <c r="G15" s="113">
@@ -3263,10 +3267,10 @@
         <v>12</v>
       </c>
       <c r="D16" s="97" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E16" s="101" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F16" s="99"/>
       <c r="G16" s="113">
@@ -3279,13 +3283,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="97" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="E17" s="101" t="s">
         <v>133</v>
       </c>
       <c r="F17" s="114" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="G17" s="115">
         <v>8000</v>
@@ -3293,11 +3297,11 @@
       <c r="H17" s="116"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
       <c r="F18" s="24"/>
       <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
@@ -3359,7 +3363,7 @@
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
     </row>
-    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:8" ht="25.75" x14ac:dyDescent="0.5">
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -3388,40 +3392,40 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="20.33203125" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="20.36328125" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="157" t="s">
         <v>138</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3456,7 +3460,7 @@
         <v>16</v>
       </c>
       <c r="F5" s="99" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G5" s="113">
         <v>15000</v>
@@ -3474,14 +3478,14 @@
         <v>17</v>
       </c>
       <c r="F6" s="99" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="G6" s="113">
         <v>11000</v>
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -3492,14 +3496,14 @@
         <v>18</v>
       </c>
       <c r="F7" s="99" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G7" s="113">
         <v>3000</v>
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -3510,14 +3514,14 @@
         <v>15</v>
       </c>
       <c r="F8" s="99" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="G8" s="113">
         <v>3000</v>
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -3528,14 +3532,14 @@
         <v>19</v>
       </c>
       <c r="F9" s="99" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G9" s="113">
         <v>3000</v>
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="96">
         <v>6</v>
       </c>
@@ -3551,7 +3555,7 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="96">
         <v>7</v>
       </c>
@@ -3567,7 +3571,7 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="96">
         <v>8</v>
       </c>
@@ -3583,7 +3587,7 @@
       </c>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="96">
         <v>9</v>
       </c>
@@ -3599,7 +3603,7 @@
       </c>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="96">
         <v>10</v>
       </c>
@@ -3615,7 +3619,7 @@
       </c>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="96">
         <v>11</v>
       </c>
@@ -3631,7 +3635,7 @@
       </c>
       <c r="H15" s="100"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="96">
         <v>12</v>
       </c>
@@ -3647,7 +3651,7 @@
       </c>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="96">
         <v>13</v>
       </c>
@@ -3663,12 +3667,12 @@
       </c>
       <c r="H17" s="116"/>
     </row>
-    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="148" t="s">
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
       <c r="F18" s="24"/>
       <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
@@ -3676,7 +3680,7 @@
       </c>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
       <c r="E19" s="117"/>
@@ -3684,7 +3688,7 @@
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
     </row>
-    <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
       <c r="E20" s="117"/>
@@ -3692,7 +3696,7 @@
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
     </row>
-    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C21" s="117"/>
       <c r="D21" s="119"/>
       <c r="E21" s="120" t="s">
@@ -3704,7 +3708,7 @@
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
     </row>
-    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C22" s="117"/>
       <c r="D22" s="119"/>
       <c r="E22" s="120" t="s">
@@ -3717,7 +3721,7 @@
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
     </row>
-    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C23" s="117"/>
       <c r="D23" s="119"/>
       <c r="E23" s="120" t="s">
@@ -3730,7 +3734,7 @@
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
     </row>
-    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:8" ht="26" x14ac:dyDescent="0.6">
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -3755,44 +3759,44 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I20"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1:H1"/>
+    <sheetView topLeftCell="A7" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="157" t="s">
         <v>151</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -3852,7 +3856,7 @@
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -3870,7 +3874,7 @@
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -3888,7 +3892,7 @@
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -3906,15 +3910,15 @@
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="96">
         <v>10</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="E10" s="97" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F10" s="99"/>
       <c r="G10" s="113">
@@ -3922,15 +3926,15 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="96">
         <v>11</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="E11" s="97" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="F11" s="99"/>
       <c r="G11" s="113">
@@ -3938,7 +3942,7 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="96">
         <v>12</v>
       </c>
@@ -3948,7 +3952,7 @@
       <c r="G12" s="115"/>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="96">
         <v>13</v>
       </c>
@@ -3958,12 +3962,12 @@
       <c r="G13" s="115"/>
       <c r="H13" s="116"/>
     </row>
-    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C14" s="148" t="s">
+    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C14" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="149"/>
-      <c r="E14" s="150"/>
+      <c r="D14" s="153"/>
+      <c r="E14" s="154"/>
       <c r="F14" s="24"/>
       <c r="G14" s="108">
         <f>SUM(G5:G13)</f>
@@ -3971,7 +3975,7 @@
       </c>
       <c r="H14" s="102"/>
     </row>
-    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.6">
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
       <c r="E15" s="117"/>
@@ -3979,7 +3983,7 @@
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
     </row>
-    <row r="16" spans="3:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="3:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C16" s="117"/>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -3987,7 +3991,7 @@
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
     </row>
-    <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C17" s="117"/>
       <c r="D17" s="119"/>
       <c r="E17" s="120" t="s">
@@ -3999,7 +4003,7 @@
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
     </row>
-    <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C18" s="117"/>
       <c r="D18" s="119"/>
       <c r="E18" s="120" t="s">
@@ -4012,7 +4016,7 @@
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
     </row>
-    <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
       <c r="C19" s="117"/>
       <c r="D19" s="119"/>
       <c r="E19" s="120" t="s">
@@ -4025,7 +4029,7 @@
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
     </row>
-    <row r="20" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
+    <row r="20" spans="3:8" ht="26" x14ac:dyDescent="0.6">
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
       <c r="E20" s="117"/>
@@ -4054,40 +4058,40 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.88671875" customWidth="1"/>
+    <col min="3" max="3" width="7.90625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="157" t="s">
         <v>158</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4332,11 +4336,11 @@
       <c r="H17" s="127"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C18" s="155" t="s">
+      <c r="C18" s="159" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="156"/>
-      <c r="E18" s="157"/>
+      <c r="D18" s="160"/>
+      <c r="E18" s="161"/>
       <c r="F18" s="122"/>
       <c r="G18" s="108">
         <f>SUM(G5:G17)</f>
@@ -4402,48 +4406,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A9" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
+    <sheetView topLeftCell="A11" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
         <v>171</v>
       </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4561,7 +4565,9 @@
       <c r="C10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="E10" s="19" t="s">
         <v>8</v>
       </c>
@@ -4575,7 +4581,9 @@
       <c r="C11" s="14">
         <v>7</v>
       </c>
-      <c r="D11" s="15"/>
+      <c r="D11" s="15" t="s">
+        <v>299</v>
+      </c>
       <c r="E11" s="19" t="s">
         <v>8</v>
       </c>
@@ -4585,7 +4593,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -4593,15 +4601,13 @@
         <v>178</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>180</v>
+        <v>300</v>
       </c>
       <c r="F12" s="20"/>
       <c r="G12" s="20">
-        <v>10000</v>
-      </c>
-      <c r="H12" s="19" t="s">
-        <v>179</v>
-      </c>
+        <v>113000</v>
+      </c>
+      <c r="H12" s="19"/>
     </row>
     <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
@@ -4624,7 +4630,7 @@
         <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
       <c r="E14" s="19" t="s">
         <v>6</v>
@@ -4640,7 +4646,7 @@
         <v>11</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>6</v>
@@ -4656,7 +4662,7 @@
         <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
       <c r="E16" s="19" t="s">
         <v>6</v>
@@ -4672,13 +4678,13 @@
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
+        <v>182</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>183</v>
+      </c>
+      <c r="F17" s="107" t="s">
         <v>184</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>185</v>
-      </c>
-      <c r="F17" s="107" t="s">
-        <v>186</v>
       </c>
       <c r="G17" s="20">
         <v>1600</v>
@@ -4686,15 +4692,15 @@
       <c r="H17" s="18"/>
     </row>
     <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="148" t="s">
+      <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
       <c r="F18" s="24"/>
       <c r="G18" s="25">
         <f>SUM(G5:G17)</f>
-        <v>107970</v>
+        <v>210970</v>
       </c>
       <c r="H18" s="2"/>
     </row>
@@ -4707,7 +4713,7 @@
         <v>9</v>
       </c>
       <c r="F21" s="23">
-        <v>270952</v>
+        <v>386760</v>
       </c>
     </row>
     <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4718,7 +4724,7 @@
       </c>
       <c r="F22" s="23">
         <f>G18</f>
-        <v>107970</v>
+        <v>210970</v>
       </c>
     </row>
     <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
@@ -4729,7 +4735,7 @@
       </c>
       <c r="F23" s="23">
         <f>F21-F22</f>
-        <v>162982</v>
+        <v>175790</v>
       </c>
     </row>
   </sheetData>
@@ -4746,50 +4752,50 @@
 
 <file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I23"/>
+  <dimension ref="C1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F23" sqref="F23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>187</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>185</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -4818,13 +4824,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="G5" s="17">
         <v>15000</v>
@@ -4836,13 +4842,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="G6" s="17">
         <v>13000</v>
@@ -4854,13 +4860,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="G7" s="17">
         <v>3000</v>
@@ -4872,13 +4878,13 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
@@ -4890,156 +4896,202 @@
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14">
         <v>6</v>
       </c>
-      <c r="D10" s="15"/>
+      <c r="D10" s="15" t="s">
+        <v>303</v>
+      </c>
       <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17"/>
-      <c r="G10" s="17"/>
+        <v>304</v>
+      </c>
+      <c r="F10" s="17">
+        <v>2507</v>
+      </c>
+      <c r="G10" s="17">
+        <v>990</v>
+      </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>7</v>
-      </c>
-      <c r="D11" s="15"/>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="14"/>
+      <c r="D11" s="15" t="s">
+        <v>307</v>
+      </c>
       <c r="E11" s="19" t="s">
-        <v>8</v>
+        <v>300</v>
       </c>
       <c r="F11" s="17"/>
-      <c r="G11" s="17"/>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="G11" s="17">
+        <v>99000</v>
+      </c>
+      <c r="H11" s="134"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="14">
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>195</v>
+        <v>302</v>
       </c>
       <c r="F12" s="17" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
       <c r="G12" s="20">
         <v>20000</v>
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D13" s="15"/>
-      <c r="E13" s="19"/>
+      <c r="D13" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
+      <c r="G13" s="20">
+        <v>1763</v>
+      </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
         <v>10</v>
       </c>
-      <c r="D14" s="15"/>
-      <c r="E14" s="19"/>
+      <c r="D14" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E14" s="19" t="s">
+        <v>8</v>
+      </c>
       <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
+      <c r="G14" s="20">
+        <v>13966</v>
+      </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
         <v>11</v>
       </c>
-      <c r="D15" s="15"/>
-      <c r="E15" s="19"/>
+      <c r="D15" s="15" t="s">
+        <v>301</v>
+      </c>
+      <c r="E15" s="19" t="s">
+        <v>6</v>
+      </c>
       <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
+      <c r="G15" s="20">
+        <v>2000</v>
+      </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="14"/>
+      <c r="D16" s="15" t="s">
+        <v>308</v>
+      </c>
+      <c r="E16" s="19" t="s">
+        <v>309</v>
+      </c>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20">
+        <v>1300</v>
+      </c>
+      <c r="H16" s="18"/>
+    </row>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="14">
         <v>12</v>
       </c>
-      <c r="D16" s="15"/>
-      <c r="E16" s="19"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14">
+      <c r="D17" s="15" t="s">
+        <v>305</v>
+      </c>
+      <c r="E17" s="19" t="s">
+        <v>306</v>
+      </c>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20">
+        <v>1700</v>
+      </c>
+      <c r="H17" s="18"/>
+    </row>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C18" s="14">
         <v>13</v>
       </c>
-      <c r="D17" s="15"/>
-      <c r="E17" s="19"/>
-      <c r="F17" s="107"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="148" t="s">
+      <c r="D18" s="15"/>
+      <c r="E18" s="19"/>
+      <c r="F18" s="107"/>
+      <c r="G18" s="20"/>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C19" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25">
-        <f>SUM(G5:G17)</f>
-        <v>57000</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C21" s="21"/>
-      <c r="D21" s="22"/>
-      <c r="E21" s="23" t="s">
-        <v>9</v>
-      </c>
-      <c r="F21" s="23">
-        <v>270952</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D19" s="153"/>
+      <c r="E19" s="154"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="25">
+        <f>SUM(G5:G18)</f>
+        <v>177719</v>
+      </c>
+      <c r="H19" s="2"/>
+    </row>
+    <row r="20" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="22" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="F22" s="23">
-        <f>G18</f>
-        <v>57000</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>290100</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F23" s="23">
+        <f>G19</f>
+        <v>177719</v>
+      </c>
+    </row>
+    <row r="24" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C24" s="21"/>
+      <c r="D24" s="22"/>
+      <c r="E24" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F23" s="23">
-        <f>F21-F22</f>
-        <v>213952</v>
+      <c r="F24" s="23">
+        <f>F22-F23</f>
+        <v>112381</v>
       </c>
     </row>
   </sheetData>
@@ -5047,7 +5099,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C19:E19"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5056,50 +5108,50 @@
 
 <file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I26"/>
+  <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F25" sqref="F25"/>
+    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>231</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>228</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5128,13 +5180,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>259</v>
+        <v>247</v>
       </c>
       <c r="G5" s="17">
         <v>15000</v>
@@ -5146,13 +5198,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>260</v>
+        <v>248</v>
       </c>
       <c r="G6" s="17">
         <v>13000</v>
@@ -5164,13 +5216,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>261</v>
+        <v>249</v>
       </c>
       <c r="G7" s="17">
         <v>3000</v>
@@ -5182,75 +5234,77 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>262</v>
+        <v>250</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>263</v>
+        <v>251</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>244</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
+        <v>311</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>310</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17">
-        <v>19541</v>
+        <v>200</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14">
         <v>7</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="E11" s="19" t="s">
         <v>244</v>
       </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
-        <v>1979</v>
+      <c r="F11" s="107" t="s">
+        <v>258</v>
+      </c>
+      <c r="G11" s="20">
+        <v>500</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="14">
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>242</v>
+        <v>320</v>
       </c>
       <c r="E12" s="19" t="s">
         <v>165</v>
@@ -5261,183 +5315,229 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="14">
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>264</v>
+        <v>312</v>
       </c>
       <c r="E13" s="19" t="s">
-        <v>39</v>
+        <v>253</v>
       </c>
       <c r="F13" s="20"/>
       <c r="G13" s="20">
-        <v>2000</v>
+        <v>3200</v>
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>265</v>
+        <v>313</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20">
+        <v>6</v>
+      </c>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17">
         <v>2000</v>
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
         <v>11</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>266</v>
+        <v>313</v>
       </c>
       <c r="E15" s="19" t="s">
-        <v>267</v>
+        <v>254</v>
       </c>
       <c r="F15" s="20"/>
       <c r="G15" s="20">
-        <v>200</v>
+        <v>1200</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14">
         <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>266</v>
+        <v>314</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>268</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
-        <v>3200</v>
+        <v>6</v>
+      </c>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17">
+        <v>2000</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>270</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>400</v>
+        <v>8</v>
+      </c>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17">
+        <v>1979</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="14">
         <v>14</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>271</v>
+        <v>315</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>273</v>
-      </c>
-      <c r="F18" s="20" t="s">
-        <v>274</v>
-      </c>
-      <c r="G18" s="20">
-        <v>300</v>
+        <v>8</v>
+      </c>
+      <c r="F18" s="17"/>
+      <c r="G18" s="17">
+        <v>19541</v>
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="14">
         <v>15</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>272</v>
+        <v>315</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>269</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
-        <v>1200</v>
+        <v>321</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>400</v>
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="14">
         <v>16</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E20" s="19" t="s">
         <v>256</v>
       </c>
-      <c r="F20" s="107" t="s">
-        <v>275</v>
+      <c r="F20" s="20" t="s">
+        <v>257</v>
       </c>
       <c r="G20" s="20">
-        <v>500</v>
+        <v>300</v>
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="148" t="s">
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="14">
+        <v>17</v>
+      </c>
+      <c r="D21" s="15" t="s">
+        <v>316</v>
+      </c>
+      <c r="E21" s="19" t="s">
+        <v>317</v>
+      </c>
+      <c r="F21" s="17"/>
+      <c r="G21" s="17">
+        <v>1180</v>
+      </c>
+      <c r="H21" s="18"/>
+    </row>
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="14">
+        <v>18</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E22" s="19" t="s">
+        <v>165</v>
+      </c>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20">
+        <v>850</v>
+      </c>
+      <c r="H22" s="18"/>
+    </row>
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C23" s="14">
+        <v>19</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>318</v>
+      </c>
+      <c r="E23" s="19" t="s">
+        <v>319</v>
+      </c>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20">
+        <v>300</v>
+      </c>
+      <c r="H23" s="18"/>
+    </row>
+    <row r="24" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C24" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="25">
-        <f>SUM(G5:G20)</f>
-        <v>69420</v>
-      </c>
-      <c r="H21" s="2"/>
-    </row>
-    <row r="22" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="23" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
+      <c r="D24" s="153"/>
+      <c r="E24" s="154"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="25">
+        <f>SUM(G5:G23)</f>
+        <v>71750</v>
+      </c>
+      <c r="H24" s="2"/>
+    </row>
+    <row r="25" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="27" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C27" s="21"/>
+      <c r="D27" s="22"/>
+      <c r="E27" s="23" t="s">
         <v>9</v>
       </c>
-      <c r="F24" s="23">
-        <v>191111</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
+      <c r="F27" s="23">
+        <v>227111</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
         <v>10</v>
       </c>
-      <c r="F25" s="23">
-        <f>G21</f>
-        <v>69420</v>
-      </c>
-    </row>
-    <row r="26" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C26" s="21"/>
-      <c r="D26" s="22"/>
-      <c r="E26" s="23" t="s">
+      <c r="F28" s="23">
+        <f>G24</f>
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
         <v>11</v>
       </c>
-      <c r="F26" s="23">
-        <f>F24-F25</f>
-        <v>121691</v>
+      <c r="F29" s="23">
+        <f>F27-F28</f>
+        <v>155361</v>
       </c>
     </row>
   </sheetData>
@@ -5445,7 +5545,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C21:E21"/>
+    <mergeCell ref="C24:E24"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -5456,48 +5556,48 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F30" sqref="F30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>258</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>246</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5526,13 +5626,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="G5" s="17">
         <v>15000</v>
@@ -5544,13 +5644,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G6" s="17">
         <v>13000</v>
@@ -5562,13 +5662,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="G7" s="17">
         <v>5000</v>
@@ -5580,112 +5680,116 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>237</v>
+        <v>234</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>243</v>
+        <v>229</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17">
-        <v>32700</v>
+        <v>1865</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14">
         <v>7</v>
       </c>
       <c r="D11" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E11" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F11" s="17">
         <v>243</v>
       </c>
-      <c r="E11" s="19" t="s">
+      <c r="G11" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H11" s="18"/>
+    </row>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="14">
         <v>8</v>
       </c>
-      <c r="F11" s="17"/>
-      <c r="G11" s="17">
-        <v>12149</v>
-      </c>
-      <c r="H11" s="18"/>
-    </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
+      <c r="D12" s="15" t="s">
+        <v>240</v>
+      </c>
+      <c r="E12" s="19" t="s">
+        <v>324</v>
+      </c>
+      <c r="F12" s="17">
+        <v>244</v>
+      </c>
+      <c r="G12" s="17">
+        <v>10000</v>
+      </c>
+      <c r="H12" s="18"/>
+    </row>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="14">
         <v>9</v>
       </c>
-      <c r="D12" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>239</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>240</v>
-      </c>
-      <c r="G12" s="20">
+      <c r="D13" s="15" t="s">
+        <v>322</v>
+      </c>
+      <c r="E13" s="19" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="17" t="s">
+        <v>235</v>
+      </c>
+      <c r="G13" s="17">
         <v>1500</v>
       </c>
-      <c r="H12" s="18"/>
-    </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
-        <v>6</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>238</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F13" s="17"/>
-      <c r="G13" s="17">
-        <v>1865</v>
-      </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>238</v>
+        <v>322</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>8</v>
+        <v>277</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17">
@@ -5693,38 +5797,44 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14"/>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
       <c r="D15" s="15" t="s">
-        <v>245</v>
+        <v>327</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>39</v>
       </c>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20">
+      <c r="F15" s="17"/>
+      <c r="G15" s="17">
         <v>2000</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14"/>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
       <c r="D16" s="15" t="s">
-        <v>246</v>
+        <v>241</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>39</v>
+        <v>242</v>
       </c>
       <c r="F16" s="20"/>
       <c r="G16" s="20">
-        <v>2000</v>
+        <v>750</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14"/>
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="14">
+        <v>13</v>
+      </c>
       <c r="D17" s="15" t="s">
-        <v>247</v>
+        <v>237</v>
       </c>
       <c r="E17" s="19" t="s">
         <v>39</v>
@@ -5735,114 +5845,124 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14"/>
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="14">
+        <v>14</v>
+      </c>
       <c r="D18" s="15" t="s">
-        <v>248</v>
+        <v>245</v>
       </c>
       <c r="E18" s="19" t="s">
-        <v>39</v>
+        <v>243</v>
       </c>
       <c r="F18" s="20"/>
       <c r="G18" s="20">
+        <v>150</v>
+      </c>
+      <c r="H18" s="18"/>
+    </row>
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C19" s="14">
+        <v>15</v>
+      </c>
+      <c r="D19" s="15" t="s">
+        <v>245</v>
+      </c>
+      <c r="E19" s="19" t="s">
+        <v>277</v>
+      </c>
+      <c r="F19" s="17"/>
+      <c r="G19" s="17">
+        <v>1100</v>
+      </c>
+      <c r="H19" s="18"/>
+    </row>
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C20" s="14">
+        <v>16</v>
+      </c>
+      <c r="D20" s="15" t="s">
+        <v>238</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="F20" s="17"/>
+      <c r="G20" s="17">
         <v>2000</v>
       </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14"/>
-      <c r="D19" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>249</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
-        <v>10000</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="14"/>
-      <c r="D20" s="15" t="s">
-        <v>251</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>250</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20">
-        <v>10000</v>
-      </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="14"/>
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C21" s="14">
+        <v>17</v>
+      </c>
       <c r="D21" s="15" t="s">
-        <v>252</v>
+        <v>325</v>
       </c>
       <c r="E21" s="19" t="s">
-        <v>253</v>
+        <v>326</v>
       </c>
       <c r="F21" s="20"/>
       <c r="G21" s="20">
-        <v>750</v>
+        <v>1750</v>
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C22" s="14"/>
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C22" s="14">
+        <v>18</v>
+      </c>
       <c r="D22" s="15" t="s">
-        <v>257</v>
+        <v>239</v>
       </c>
       <c r="E22" s="19" t="s">
-        <v>254</v>
-      </c>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20">
-        <v>150</v>
+        <v>39</v>
+      </c>
+      <c r="F22" s="17"/>
+      <c r="G22" s="17">
+        <v>2000</v>
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="14">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>247</v>
+        <v>328</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>255</v>
-      </c>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20">
-        <v>1750</v>
+        <v>8</v>
+      </c>
+      <c r="F23" s="17"/>
+      <c r="G23" s="17">
+        <v>32700</v>
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="14">
-        <v>13</v>
+        <v>20</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>257</v>
+        <v>328</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>256</v>
-      </c>
-      <c r="F24" s="107"/>
-      <c r="G24" s="20">
-        <v>1100</v>
+        <v>8</v>
+      </c>
+      <c r="F24" s="17"/>
+      <c r="G24" s="17">
+        <v>12149</v>
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C25" s="148" t="s">
+    <row r="25" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C25" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D25" s="149"/>
-      <c r="E25" s="150"/>
+      <c r="D25" s="153"/>
+      <c r="E25" s="154"/>
       <c r="F25" s="24"/>
       <c r="G25" s="25">
         <f>SUM(G5:G24)</f>
@@ -5851,18 +5971,18 @@
       <c r="H25" s="2"/>
     </row>
     <row r="26" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
         <v>9</v>
       </c>
       <c r="F28" s="23">
-        <v>194701</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+        <v>228371</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
       <c r="E29" s="23" t="s">
@@ -5873,7 +5993,7 @@
         <v>119214</v>
       </c>
     </row>
-    <row r="30" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="30" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
@@ -5881,7 +6001,7 @@
       </c>
       <c r="F30" s="23">
         <f>F28-F29</f>
-        <v>75487</v>
+        <v>109157</v>
       </c>
     </row>
   </sheetData>
@@ -5898,50 +6018,50 @@
 
 <file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I23"/>
+  <dimension ref="C1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView topLeftCell="A11" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F20" sqref="F20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>291</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>266</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -5970,13 +6090,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>282</v>
+        <v>260</v>
       </c>
       <c r="G5" s="17">
         <v>17000</v>
@@ -5988,13 +6108,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>283</v>
+        <v>261</v>
       </c>
       <c r="G6" s="17">
         <v>14000</v>
@@ -6006,13 +6126,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>284</v>
+        <v>262</v>
       </c>
       <c r="G7" s="17">
         <v>5000</v>
@@ -6024,125 +6144,121 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>285</v>
+        <v>263</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>276</v>
+        <v>259</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>290</v>
+        <v>265</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>6</v>
-      </c>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17"/>
+        <v>264</v>
+      </c>
+      <c r="F10" s="17">
+        <v>276</v>
+      </c>
       <c r="G10" s="17">
-        <v>12013</v>
+        <v>2000</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>7</v>
-      </c>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>277</v>
+        <v>329</v>
       </c>
       <c r="E11" s="19" t="s">
-        <v>8</v>
+        <v>39</v>
       </c>
       <c r="F11" s="17"/>
       <c r="G11" s="17">
-        <v>14446</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
-        <v>9</v>
-      </c>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>278</v>
+        <v>330</v>
       </c>
       <c r="E12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
+        <v>264</v>
+      </c>
+      <c r="F12" s="17">
+        <v>279</v>
+      </c>
+      <c r="G12" s="17">
+        <v>450</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="14">
+        <v>6</v>
+      </c>
+      <c r="D13" s="15" t="s">
+        <v>331</v>
+      </c>
+      <c r="E13" s="19" t="s">
         <v>8</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>278</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>287</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17">
-        <v>2000</v>
+        <v>12013</v>
       </c>
       <c r="H13" s="18"/>
     </row>
     <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>278</v>
+        <v>331</v>
       </c>
       <c r="E14" s="19" t="s">
-        <v>288</v>
+        <v>8</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17">
-        <v>450</v>
+        <v>14446</v>
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>279</v>
+        <v>332</v>
       </c>
       <c r="E15" s="19" t="s">
         <v>39</v>
@@ -6153,83 +6269,51 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C16" s="14">
-        <v>11</v>
-      </c>
-      <c r="D16" s="15" t="s">
-        <v>280</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20">
-        <v>2000</v>
-      </c>
-      <c r="H16" s="18"/>
-    </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="14">
-        <v>12</v>
-      </c>
-      <c r="D17" s="15" t="s">
-        <v>281</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>289</v>
-      </c>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20">
-        <v>20000</v>
-      </c>
-      <c r="H17" s="18"/>
-    </row>
-    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="148" t="s">
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C16" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D18" s="149"/>
-      <c r="E18" s="150"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="25">
-        <f>SUM(G5:G17)</f>
-        <v>94909</v>
-      </c>
-      <c r="H18" s="2"/>
-    </row>
-    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="25">
+        <f>SUM(G5:G15)</f>
+        <v>74909</v>
+      </c>
+      <c r="H16" s="2"/>
+    </row>
+    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C19" s="21"/>
+      <c r="D19" s="22"/>
+      <c r="E19" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F19" s="23">
+        <v>229597</v>
+      </c>
+    </row>
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C20" s="21"/>
+      <c r="D20" s="22"/>
+      <c r="E20" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F20" s="23">
+        <f>G16</f>
+        <v>74909</v>
+      </c>
+    </row>
+    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F21" s="23">
-        <v>194701</v>
-      </c>
-    </row>
-    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C22" s="21"/>
-      <c r="D22" s="22"/>
-      <c r="E22" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F22" s="23">
-        <f>G18</f>
-        <v>94909</v>
-      </c>
-    </row>
-    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C23" s="21"/>
-      <c r="D23" s="22"/>
-      <c r="E23" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F23" s="23">
-        <f>F21-F22</f>
-        <v>99792</v>
+        <f>F19-F20</f>
+        <v>154688</v>
       </c>
     </row>
   </sheetData>
@@ -6237,7 +6321,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C18:E18"/>
+    <mergeCell ref="C16:E16"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -6252,24 +6336,24 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="5.33203125" customWidth="1"/>
-    <col min="2" max="2" width="13.109375" customWidth="1"/>
-    <col min="3" max="3" width="40.6640625" customWidth="1"/>
-    <col min="4" max="4" width="14.44140625" customWidth="1"/>
-    <col min="5" max="5" width="15.6640625" customWidth="1"/>
-    <col min="6" max="6" width="30.5546875" customWidth="1"/>
+    <col min="1" max="1" width="5.36328125" customWidth="1"/>
+    <col min="2" max="2" width="13.08984375" customWidth="1"/>
+    <col min="3" max="3" width="40.6328125" customWidth="1"/>
+    <col min="4" max="4" width="14.453125" customWidth="1"/>
+    <col min="5" max="5" width="15.6328125" customWidth="1"/>
+    <col min="6" max="6" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="224.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
-      <c r="A1" s="135" t="s">
+      <c r="A1" s="139" t="s">
         <v>12</v>
       </c>
-      <c r="B1" s="135"/>
-      <c r="C1" s="135"/>
-      <c r="D1" s="135"/>
-      <c r="E1" s="135"/>
+      <c r="B1" s="139"/>
+      <c r="C1" s="139"/>
+      <c r="D1" s="139"/>
+      <c r="E1" s="139"/>
       <c r="F1" s="4"/>
     </row>
     <row r="2" spans="1:7" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6549,7 +6633,7 @@
       </c>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.5">
       <c r="A18" s="26">
         <v>16</v>
       </c>
@@ -6567,7 +6651,7 @@
       </c>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A19" s="26"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -6575,7 +6659,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
       <c r="A20" s="26"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -6583,12 +6667,12 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
-      <c r="A21" s="136" t="s">
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="A21" s="140" t="s">
         <v>33</v>
       </c>
-      <c r="B21" s="137"/>
-      <c r="C21" s="138"/>
+      <c r="B21" s="141"/>
+      <c r="C21" s="142"/>
       <c r="D21" s="32"/>
       <c r="E21" s="37">
         <f>SUM(E3:E20)</f>
@@ -6596,8 +6680,8 @@
       </c>
       <c r="F21" s="33"/>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="24" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C24" s="38" t="s">
         <v>9</v>
       </c>
@@ -6605,7 +6689,7 @@
         <v>129080</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C25" s="38" t="s">
         <v>10</v>
       </c>
@@ -6613,7 +6697,7 @@
         <v>83458</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C26" s="38" t="s">
         <v>11</v>
       </c>
@@ -6634,50 +6718,50 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I25"/>
+  <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A5" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3:G3"/>
+    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>314</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>282</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -6706,13 +6790,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>298</v>
+        <v>270</v>
       </c>
       <c r="G5" s="17">
         <v>17000</v>
@@ -6724,13 +6808,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>297</v>
+        <v>269</v>
       </c>
       <c r="G6" s="17">
         <v>14000</v>
@@ -6742,13 +6826,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>299</v>
+        <v>271</v>
       </c>
       <c r="G7" s="17">
         <v>5000</v>
@@ -6760,248 +6844,200 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>300</v>
+        <v>272</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>292</v>
+        <v>267</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>301</v>
+        <v>273</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C10" s="14">
-        <v>6</v>
-      </c>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C10" s="14"/>
       <c r="D10" s="15" t="s">
-        <v>293</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
+        <v>333</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>277</v>
       </c>
       <c r="F10" s="17"/>
       <c r="G10" s="17">
-        <v>11350</v>
+        <v>400</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C11" s="14">
-        <v>7</v>
-      </c>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C11" s="14"/>
       <c r="D11" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F11" s="17" t="s">
-        <v>286</v>
-      </c>
+        <v>278</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F11" s="17"/>
       <c r="G11" s="17">
-        <v>0</v>
+        <v>300</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C12" s="14">
-        <v>8</v>
-      </c>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C12" s="14"/>
       <c r="D12" s="15" t="s">
-        <v>309</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>25</v>
-      </c>
-      <c r="F12" s="20" t="s">
-        <v>286</v>
-      </c>
-      <c r="G12" s="20">
-        <v>0</v>
+        <v>279</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>277</v>
+      </c>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17">
+        <v>1860</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C13" s="14">
-        <v>9</v>
-      </c>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C13" s="14"/>
       <c r="D13" s="15" t="s">
-        <v>312</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>302</v>
+        <v>280</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>274</v>
       </c>
       <c r="F13" s="17" t="s">
-        <v>303</v>
+        <v>275</v>
       </c>
       <c r="G13" s="17">
         <v>200</v>
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C14" s="14">
-        <v>10</v>
-      </c>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C14" s="14"/>
       <c r="D14" s="15" t="s">
-        <v>313</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>304</v>
+        <v>334</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>335</v>
       </c>
       <c r="F14" s="17"/>
       <c r="G14" s="17">
-        <v>1400</v>
+        <v>1260</v>
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C15" s="14">
-        <v>11</v>
-      </c>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C15" s="14"/>
       <c r="D15" s="15" t="s">
-        <v>294</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>306</v>
+        <v>336</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>39</v>
       </c>
       <c r="F15" s="17"/>
       <c r="G15" s="17">
-        <v>400</v>
+        <v>2000</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>310</v>
+        <v>268</v>
       </c>
       <c r="E16" s="19" t="s">
-        <v>307</v>
+        <v>8</v>
       </c>
       <c r="F16" s="17"/>
       <c r="G16" s="17">
-        <v>300</v>
+        <v>11350</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14">
-        <v>13</v>
+        <v>7</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>311</v>
+        <v>281</v>
       </c>
       <c r="E17" s="19" t="s">
-        <v>308</v>
+        <v>276</v>
       </c>
       <c r="F17" s="17"/>
       <c r="G17" s="17">
-        <v>1860</v>
+        <v>1400</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C18" s="14">
-        <v>14</v>
-      </c>
-      <c r="D18" s="15" t="s">
-        <v>295</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20">
-        <v>1260</v>
-      </c>
-      <c r="H18" s="18"/>
-    </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C19" s="14">
-        <v>15</v>
-      </c>
-      <c r="D19" s="15" t="s">
-        <v>296</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>39</v>
-      </c>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20">
-        <v>2000</v>
-      </c>
-      <c r="H19" s="18"/>
-    </row>
-    <row r="20" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C20" s="148" t="s">
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D20" s="149"/>
-      <c r="E20" s="150"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="25">
-        <f>SUM(G5:G19)</f>
+      <c r="D18" s="153"/>
+      <c r="E18" s="154"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="25">
+        <f>SUM(G5:G17)</f>
         <v>60770</v>
       </c>
-      <c r="H20" s="2"/>
-    </row>
-    <row r="21" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="22" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="23" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="H18" s="2"/>
+    </row>
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C21" s="21"/>
+      <c r="D21" s="22"/>
+      <c r="E21" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F21" s="23">
+        <v>304578</v>
+      </c>
+    </row>
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+      <c r="C22" s="21"/>
+      <c r="D22" s="22"/>
+      <c r="E22" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F22" s="23">
+        <f>G18</f>
+        <v>60770</v>
+      </c>
+    </row>
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F23" s="23">
-        <v>194701</v>
-      </c>
-    </row>
-    <row r="24" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C24" s="21"/>
-      <c r="D24" s="22"/>
-      <c r="E24" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F24" s="23">
-        <f>G20</f>
-        <v>60770</v>
-      </c>
-    </row>
-    <row r="25" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C25" s="21"/>
-      <c r="D25" s="22"/>
-      <c r="E25" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F25" s="23">
-        <f>F23-F24</f>
-        <v>133931</v>
+        <f>F21-F22</f>
+        <v>243808</v>
       </c>
     </row>
   </sheetData>
@@ -7009,7 +7045,7 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C20:E20"/>
+    <mergeCell ref="C18:E18"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
@@ -7017,51 +7053,51 @@
 </file>
 
 <file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="C1:I32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="C1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B19" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
+    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147" t="s">
+      <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147" t="s">
+      <c r="C2" s="151" t="s">
         <v>52</v>
       </c>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152" t="s">
-        <v>315</v>
-      </c>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -7090,13 +7126,13 @@
         <v>1</v>
       </c>
       <c r="D5" s="15" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E5" s="16" t="s">
         <v>16</v>
       </c>
       <c r="F5" s="17" t="s">
-        <v>316</v>
+        <v>284</v>
       </c>
       <c r="G5" s="17">
         <v>17000</v>
@@ -7108,13 +7144,13 @@
         <v>2</v>
       </c>
       <c r="D6" s="15" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E6" s="16" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="17" t="s">
-        <v>317</v>
+        <v>285</v>
       </c>
       <c r="G6" s="17">
         <v>14000</v>
@@ -7126,13 +7162,13 @@
         <v>3</v>
       </c>
       <c r="D7" s="15" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E7" s="16" t="s">
         <v>18</v>
       </c>
       <c r="F7" s="17" t="s">
-        <v>318</v>
+        <v>286</v>
       </c>
       <c r="G7" s="17">
         <v>5000</v>
@@ -7144,380 +7180,362 @@
         <v>4</v>
       </c>
       <c r="D8" s="15" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E8" s="16" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="17" t="s">
-        <v>319</v>
+        <v>287</v>
       </c>
       <c r="G8" s="17">
         <v>3000</v>
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="14">
         <v>5</v>
       </c>
       <c r="D9" s="15" t="s">
-        <v>330</v>
+        <v>291</v>
       </c>
       <c r="E9" s="16" t="s">
         <v>19</v>
       </c>
       <c r="F9" s="17" t="s">
-        <v>320</v>
+        <v>288</v>
       </c>
       <c r="G9" s="17">
         <v>3000</v>
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14">
         <v>6</v>
       </c>
       <c r="D10" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E10" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F10" s="17"/>
+        <v>291</v>
+      </c>
+      <c r="E10" s="16" t="s">
+        <v>337</v>
+      </c>
+      <c r="F10" s="17" t="s">
+        <v>338</v>
+      </c>
       <c r="G10" s="17">
-        <v>19902</v>
+        <v>1500</v>
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14">
         <v>7</v>
       </c>
       <c r="D11" s="15" t="s">
-        <v>335</v>
-      </c>
-      <c r="E11" s="19" t="s">
-        <v>322</v>
-      </c>
-      <c r="F11" s="17"/>
+        <v>295</v>
+      </c>
+      <c r="E11" s="16" t="s">
+        <v>339</v>
+      </c>
+      <c r="F11" s="17" t="s">
+        <v>340</v>
+      </c>
       <c r="G11" s="17">
-        <v>3780</v>
+        <v>2000</v>
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="14">
         <v>8</v>
       </c>
       <c r="D12" s="15" t="s">
-        <v>331</v>
-      </c>
-      <c r="E12" s="19" t="s">
-        <v>321</v>
-      </c>
-      <c r="F12" s="17"/>
+        <v>295</v>
+      </c>
+      <c r="E12" s="16" t="s">
+        <v>341</v>
+      </c>
+      <c r="F12" s="17">
+        <v>2792</v>
+      </c>
       <c r="G12" s="17">
-        <v>680</v>
+        <v>16000</v>
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="14">
         <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E13" s="19" t="s">
-        <v>322</v>
+        <v>343</v>
+      </c>
+      <c r="E13" s="16" t="s">
+        <v>342</v>
       </c>
       <c r="F13" s="17"/>
       <c r="G13" s="17">
-        <v>2800</v>
+        <v>3780</v>
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
         <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E14" s="19" t="s">
-        <v>323</v>
-      </c>
-      <c r="F14" s="17"/>
+        <v>344</v>
+      </c>
+      <c r="E14" s="16" t="s">
+        <v>289</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>345</v>
+      </c>
       <c r="G14" s="17">
         <v>7650</v>
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
         <v>11</v>
       </c>
       <c r="D15" s="15" t="s">
-        <v>336</v>
-      </c>
-      <c r="E15" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F15" s="17"/>
+        <v>344</v>
+      </c>
+      <c r="E15" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F15" s="15"/>
       <c r="G15" s="17">
         <v>3000</v>
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14">
         <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
-        <v>330</v>
-      </c>
-      <c r="E16" s="19" t="s">
-        <v>324</v>
-      </c>
-      <c r="F16" s="17"/>
+        <v>292</v>
+      </c>
+      <c r="E16" s="16" t="s">
+        <v>347</v>
+      </c>
+      <c r="F16" s="15"/>
       <c r="G16" s="17">
-        <v>1500</v>
+        <v>680</v>
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C17" s="14">
         <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
-        <v>338</v>
-      </c>
-      <c r="E17" s="19" t="s">
-        <v>325</v>
-      </c>
-      <c r="F17" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="E17" s="16" t="s">
+        <v>348</v>
+      </c>
+      <c r="F17" s="15"/>
       <c r="G17" s="17">
-        <v>2000</v>
+        <v>2800</v>
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C18" s="14">
         <v>14</v>
       </c>
       <c r="D18" s="15" t="s">
-        <v>339</v>
-      </c>
-      <c r="E18" s="19" t="s">
-        <v>343</v>
-      </c>
-      <c r="F18" s="17"/>
+        <v>294</v>
+      </c>
+      <c r="E18" s="16" t="s">
+        <v>351</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>357</v>
+      </c>
       <c r="G18" s="17">
-        <v>5000</v>
+        <v>1100</v>
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C19" s="14">
         <v>15</v>
       </c>
       <c r="D19" s="15" t="s">
-        <v>337</v>
-      </c>
-      <c r="E19" s="19" t="s">
-        <v>326</v>
-      </c>
-      <c r="F19" s="17"/>
+        <v>297</v>
+      </c>
+      <c r="E19" s="16" t="s">
+        <v>352</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>298</v>
+      </c>
       <c r="G19" s="17">
-        <v>1100</v>
+        <v>7500</v>
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C20" s="14">
         <v>16</v>
       </c>
       <c r="D20" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>327</v>
-      </c>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20">
+        <v>297</v>
+      </c>
+      <c r="E20" s="16" t="s">
+        <v>353</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>358</v>
+      </c>
+      <c r="G20" s="17">
         <v>3300</v>
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C21" s="14">
         <v>17</v>
       </c>
       <c r="D21" s="15" t="s">
-        <v>340</v>
-      </c>
-      <c r="E21" s="19" t="s">
-        <v>342</v>
-      </c>
-      <c r="F21" s="17" t="s">
-        <v>341</v>
-      </c>
+        <v>296</v>
+      </c>
+      <c r="E21" s="16" t="s">
+        <v>349</v>
+      </c>
+      <c r="F21" s="15"/>
       <c r="G21" s="17">
-        <v>7500</v>
+        <v>5000</v>
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C22" s="14">
         <v>18</v>
       </c>
       <c r="D22" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E22" s="19" t="s">
-        <v>329</v>
-      </c>
-      <c r="F22" s="17"/>
+        <v>350</v>
+      </c>
+      <c r="E22" s="16" t="s">
+        <v>346</v>
+      </c>
+      <c r="F22" s="15"/>
       <c r="G22" s="17">
-        <v>3000</v>
+        <v>690</v>
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C23" s="14">
         <v>19</v>
       </c>
       <c r="D23" s="15" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="E23" s="19" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="F23" s="17"/>
       <c r="G23" s="17">
-        <v>2090</v>
+        <v>19902</v>
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C24" s="14">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="D24" s="15" t="s">
-        <v>334</v>
+        <v>293</v>
       </c>
       <c r="E24" s="19" t="s">
-        <v>305</v>
+        <v>8</v>
       </c>
       <c r="F24" s="17"/>
       <c r="G24" s="17">
-        <v>1875</v>
+        <v>1416</v>
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C25" s="14">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D25" s="15" t="s">
-        <v>332</v>
+        <v>354</v>
       </c>
       <c r="E25" s="19" t="s">
-        <v>305</v>
-      </c>
-      <c r="F25" s="17"/>
+        <v>355</v>
+      </c>
+      <c r="F25" s="17" t="s">
+        <v>356</v>
+      </c>
       <c r="G25" s="17">
-        <v>980</v>
+        <v>3000</v>
       </c>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C26" s="14">
-        <v>21</v>
-      </c>
-      <c r="D26" s="15" t="s">
-        <v>334</v>
-      </c>
-      <c r="E26" s="19" t="s">
-        <v>8</v>
-      </c>
-      <c r="F26" s="17"/>
-      <c r="G26" s="17">
-        <v>1416</v>
-      </c>
-      <c r="H26" s="18"/>
-    </row>
-    <row r="27" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C27" s="14">
-        <v>22</v>
-      </c>
-      <c r="D27" s="15" t="s">
-        <v>333</v>
-      </c>
-      <c r="E27" s="19" t="s">
-        <v>344</v>
-      </c>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20">
-        <v>16000</v>
-      </c>
-      <c r="H27" s="18"/>
-    </row>
-    <row r="28" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C28" s="148" t="s">
+    <row r="26" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C26" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D28" s="149"/>
-      <c r="E28" s="150"/>
-      <c r="F28" s="24"/>
-      <c r="G28" s="25" t="s">
-        <v>328</v>
-      </c>
-      <c r="H28" s="2"/>
-    </row>
-    <row r="29" spans="3:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C29" s="158"/>
-      <c r="D29" s="158"/>
-      <c r="E29" s="158"/>
-      <c r="F29" s="159"/>
-      <c r="G29" s="158">
-        <f>SUM(G5:G28)</f>
-        <v>125573</v>
-      </c>
-      <c r="H29" s="160"/>
-    </row>
-    <row r="30" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="D26" s="153"/>
+      <c r="E26" s="154"/>
+      <c r="F26" s="24"/>
+      <c r="G26" s="25" t="s">
+        <v>290</v>
+      </c>
+      <c r="H26" s="2"/>
+    </row>
+    <row r="27" spans="3:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="C27" s="131"/>
+      <c r="D27" s="131"/>
+      <c r="E27" s="131"/>
+      <c r="F27" s="132"/>
+      <c r="G27" s="131">
+        <f>SUM(G5:G26)</f>
+        <v>121318</v>
+      </c>
+      <c r="H27" s="133"/>
+    </row>
+    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C28" s="21"/>
+      <c r="D28" s="22"/>
+      <c r="E28" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F28" s="23">
+        <v>194701</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+      <c r="C29" s="21"/>
+      <c r="D29" s="22"/>
+      <c r="E29" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F29" s="23">
+        <f>G27</f>
+        <v>121318</v>
+      </c>
+    </row>
+    <row r="30" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
       <c r="E30" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F30" s="23">
-        <v>194701</v>
-      </c>
-    </row>
-    <row r="31" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C31" s="21"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F31" s="23">
-        <f>G29</f>
-        <v>125573</v>
-      </c>
-    </row>
-    <row r="32" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
-      <c r="C32" s="21"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F32" s="23">
-        <f>F30-F31</f>
-        <v>69128</v>
+        <f>F28-F29</f>
+        <v>73383</v>
       </c>
     </row>
   </sheetData>
@@ -7525,11 +7543,10 @@
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="C2:G2"/>
     <mergeCell ref="C3:G3"/>
-    <mergeCell ref="C28:E28"/>
+    <mergeCell ref="C26:E26"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="48" fitToWidth="0" fitToHeight="0" orientation="portrait" r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7541,24 +7558,24 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="7.6640625" customWidth="1"/>
+    <col min="3" max="3" width="7.6328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="58.21875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="23.88671875" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="58.1796875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="23.90625" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="278.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
-      <c r="C1" s="139" t="s">
+      <c r="C1" s="143" t="s">
         <v>148</v>
       </c>
-      <c r="D1" s="139"/>
-      <c r="E1" s="139"/>
-      <c r="F1" s="139"/>
-      <c r="G1" s="139"/>
+      <c r="D1" s="143"/>
+      <c r="E1" s="143"/>
+      <c r="F1" s="143"/>
+      <c r="G1" s="143"/>
       <c r="H1" s="40"/>
     </row>
     <row r="2" spans="3:9" ht="51" thickBot="1" x14ac:dyDescent="0.35">
@@ -7581,7 +7598,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="49">
         <v>1</v>
       </c>
@@ -7599,7 +7616,7 @@
       </c>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -7618,7 +7635,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -7636,7 +7653,7 @@
       </c>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -7654,7 +7671,7 @@
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -7672,7 +7689,7 @@
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -7688,7 +7705,7 @@
       </c>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -7704,7 +7721,7 @@
       </c>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -7720,7 +7737,7 @@
       </c>
       <c r="H10" s="51"/>
     </row>
-    <row r="11" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -7736,7 +7753,7 @@
       </c>
       <c r="H11" s="51"/>
     </row>
-    <row r="12" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -7754,7 +7771,7 @@
       </c>
       <c r="H12" s="52"/>
     </row>
-    <row r="13" spans="3:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C13" s="53">
         <v>11</v>
       </c>
@@ -7772,12 +7789,12 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="140" t="s">
+    <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C14" s="144" t="s">
         <v>33</v>
       </c>
-      <c r="D14" s="141"/>
-      <c r="E14" s="142"/>
+      <c r="D14" s="145"/>
+      <c r="E14" s="146"/>
       <c r="F14" s="56"/>
       <c r="G14" s="64">
         <f>SUM(G3:G13)</f>
@@ -7785,9 +7802,9 @@
       </c>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="3:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="17" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="17" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="69" t="s">
@@ -7797,7 +7814,7 @@
         <v>142622</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="69" t="s">
@@ -7808,7 +7825,7 @@
         <v>40020</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="19" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="69" t="s">
@@ -7819,8 +7836,8 @@
         <v>102602</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="21" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
@@ -7839,27 +7856,27 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="10.44140625" customWidth="1"/>
+    <col min="3" max="3" width="10.453125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="57.109375" customWidth="1"/>
+    <col min="5" max="5" width="57.08984375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.88671875" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="23.90625" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
-      <c r="C1" s="146" t="s">
+    <row r="1" spans="3:9" ht="325.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+      <c r="C1" s="150" t="s">
         <v>149</v>
       </c>
-      <c r="D1" s="146"/>
-      <c r="E1" s="146"/>
-      <c r="F1" s="146"/>
-      <c r="G1" s="146"/>
-      <c r="H1" s="146"/>
-    </row>
-    <row r="2" spans="3:9" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="D1" s="150"/>
+      <c r="E1" s="150"/>
+      <c r="F1" s="150"/>
+      <c r="G1" s="150"/>
+      <c r="H1" s="150"/>
+    </row>
+    <row r="2" spans="3:9" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="76" t="s">
         <v>0</v>
       </c>
@@ -7970,7 +7987,7 @@
       </c>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="41">
         <v>6</v>
       </c>
@@ -7986,7 +8003,7 @@
       </c>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="41">
         <v>7</v>
       </c>
@@ -8002,7 +8019,7 @@
       </c>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="41">
         <v>8</v>
       </c>
@@ -8018,7 +8035,7 @@
       </c>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C11" s="45">
         <v>9</v>
       </c>
@@ -8034,12 +8051,12 @@
       </c>
       <c r="H11" s="75"/>
     </row>
-    <row r="12" spans="3:9" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="143" t="s">
+    <row r="12" spans="3:9" ht="54.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="C12" s="147" t="s">
         <v>33</v>
       </c>
-      <c r="D12" s="144"/>
-      <c r="E12" s="145"/>
+      <c r="D12" s="148"/>
+      <c r="E12" s="149"/>
       <c r="F12" s="47"/>
       <c r="G12" s="82">
         <f>SUM(G3:G11)</f>
@@ -8047,7 +8064,7 @@
       </c>
       <c r="H12" s="77"/>
     </row>
-    <row r="13" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -8055,7 +8072,7 @@
       <c r="G13" s="73"/>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
@@ -8063,7 +8080,7 @@
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="15" spans="3:9" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="83" t="s">
@@ -8075,7 +8092,7 @@
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="16" spans="3:9" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="83" t="s">
@@ -8088,7 +8105,7 @@
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="3:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:8" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="83" t="s">
@@ -8101,7 +8118,7 @@
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
@@ -8127,33 +8144,33 @@
       <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="226.2" customHeight="1" x14ac:dyDescent="0.7">
-      <c r="C1" s="147"/>
-      <c r="D1" s="147"/>
-      <c r="E1" s="147"/>
-      <c r="F1" s="147"/>
-      <c r="G1" s="147"/>
+    <row r="1" spans="3:9" ht="226.25" customHeight="1" x14ac:dyDescent="0.7">
+      <c r="C1" s="151"/>
+      <c r="D1" s="151"/>
+      <c r="E1" s="151"/>
+      <c r="F1" s="151"/>
+      <c r="G1" s="151"/>
       <c r="H1" s="5"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="61.8" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="3:9" ht="61.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C3" s="84" t="s">
         <v>54</v>
       </c>
@@ -8274,7 +8291,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -8290,7 +8307,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="14">
         <v>7</v>
       </c>
@@ -8306,7 +8323,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -8322,7 +8339,7 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -8338,7 +8355,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -8354,7 +8371,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -8370,7 +8387,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C16" s="14">
         <v>12</v>
       </c>
@@ -8386,12 +8403,12 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C17" s="148" t="s">
+    <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="C17" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="150"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f>SUM(G5:G16)</f>
@@ -8399,8 +8416,8 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:10" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:10" ht="26" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
@@ -8408,7 +8425,7 @@
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="91" t="s">
@@ -8422,7 +8439,7 @@
       <c r="I20" s="90"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="3:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="91" t="s">
@@ -8437,7 +8454,7 @@
       <c r="I21" s="90"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="3:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="91" t="s">
@@ -8452,7 +8469,7 @@
       <c r="I22" s="90"/>
       <c r="J22" s="89"/>
     </row>
-    <row r="23" spans="3:10" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
       <c r="E23" s="91"/>
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
@@ -8479,17 +8496,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="310.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="3:9" ht="310.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C1" s="84" t="s">
         <v>66</v>
       </c>
@@ -8755,11 +8772,11 @@
       <c r="H16" s="100"/>
     </row>
     <row r="17" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C17" s="148" t="s">
+      <c r="C17" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D17" s="149"/>
-      <c r="E17" s="150"/>
+      <c r="D17" s="153"/>
+      <c r="E17" s="154"/>
       <c r="F17" s="24"/>
       <c r="G17" s="25">
         <f>SUM(G3:G16)</f>
@@ -8767,9 +8784,9 @@
       </c>
       <c r="H17" s="102"/>
     </row>
-    <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="91" t="s">
@@ -8779,7 +8796,7 @@
         <v>244448</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="91" t="s">
@@ -8790,7 +8807,7 @@
         <v>152011</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="91" t="s">
@@ -8818,25 +8835,25 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="309.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
-      <c r="C1" s="151" t="s">
+    <row r="1" spans="3:9" ht="309.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+      <c r="C1" s="155" t="s">
         <v>77</v>
       </c>
-      <c r="D1" s="151"/>
-      <c r="E1" s="151"/>
-      <c r="F1" s="151"/>
-      <c r="G1" s="151"/>
-      <c r="H1" s="151"/>
+      <c r="D1" s="155"/>
+      <c r="E1" s="155"/>
+      <c r="F1" s="155"/>
+      <c r="G1" s="155"/>
+      <c r="H1" s="155"/>
     </row>
     <row r="2" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="85" t="s">
@@ -9154,11 +9171,11 @@
       <c r="H20" s="104"/>
     </row>
     <row r="21" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="C21" s="148" t="s">
+      <c r="C21" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D21" s="149"/>
-      <c r="E21" s="150"/>
+      <c r="D21" s="153"/>
+      <c r="E21" s="154"/>
       <c r="F21" s="24"/>
       <c r="G21" s="25">
         <f>SUM(G3:G20)</f>
@@ -9216,7 +9233,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9230,40 +9247,40 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="3" max="3" width="5.33203125" customWidth="1"/>
+    <col min="3" max="3" width="5.36328125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.44140625" customWidth="1"/>
-    <col min="6" max="6" width="21.77734375" customWidth="1"/>
-    <col min="7" max="7" width="29.109375" customWidth="1"/>
-    <col min="8" max="8" width="30.5546875" customWidth="1"/>
+    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="6" max="6" width="21.81640625" customWidth="1"/>
+    <col min="7" max="7" width="29.08984375" customWidth="1"/>
+    <col min="8" max="8" width="30.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
-      <c r="C1" s="153" t="s">
+      <c r="C1" s="157" t="s">
         <v>126</v>
       </c>
-      <c r="D1" s="153"/>
-      <c r="E1" s="153"/>
-      <c r="F1" s="153"/>
-      <c r="G1" s="153"/>
-      <c r="H1" s="153"/>
+      <c r="D1" s="157"/>
+      <c r="E1" s="157"/>
+      <c r="F1" s="157"/>
+      <c r="G1" s="157"/>
+      <c r="H1" s="157"/>
     </row>
     <row r="2" spans="3:9" ht="30" x14ac:dyDescent="0.7">
-      <c r="C2" s="147"/>
-      <c r="D2" s="147"/>
-      <c r="E2" s="147"/>
-      <c r="F2" s="147"/>
-      <c r="G2" s="147"/>
+      <c r="C2" s="151"/>
+      <c r="D2" s="151"/>
+      <c r="E2" s="151"/>
+      <c r="F2" s="151"/>
+      <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
-      <c r="C3" s="152"/>
-      <c r="D3" s="152"/>
-      <c r="E3" s="152"/>
-      <c r="F3" s="152"/>
-      <c r="G3" s="152"/>
+    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+      <c r="C3" s="156"/>
+      <c r="D3" s="156"/>
+      <c r="E3" s="156"/>
+      <c r="F3" s="156"/>
+      <c r="G3" s="156"/>
       <c r="H3" s="4"/>
     </row>
     <row r="4" spans="3:9" ht="50.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
@@ -9277,7 +9294,7 @@
         <v>5</v>
       </c>
       <c r="F4" s="112" t="s">
-        <v>203</v>
+        <v>200</v>
       </c>
       <c r="G4" s="112" t="s">
         <v>2</v>
@@ -9292,7 +9309,7 @@
         <v>1</v>
       </c>
       <c r="D5" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E5" s="98" t="s">
         <v>16</v>
@@ -9310,7 +9327,7 @@
         <v>2</v>
       </c>
       <c r="D6" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E6" s="98" t="s">
         <v>17</v>
@@ -9323,12 +9340,12 @@
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C7" s="96">
         <v>3</v>
       </c>
       <c r="D7" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E7" s="98" t="s">
         <v>18</v>
@@ -9341,12 +9358,12 @@
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C8" s="96">
         <v>4</v>
       </c>
       <c r="D8" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E8" s="98" t="s">
         <v>15</v>
@@ -9359,12 +9376,12 @@
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C9" s="96">
         <v>5</v>
       </c>
       <c r="D9" s="97" t="s">
-        <v>202</v>
+        <v>199</v>
       </c>
       <c r="E9" s="98" t="s">
         <v>19</v>
@@ -9377,12 +9394,12 @@
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C10" s="96">
         <v>6</v>
       </c>
       <c r="D10" s="97" t="s">
-        <v>201</v>
+        <v>198</v>
       </c>
       <c r="E10" s="101" t="s">
         <v>6</v>
@@ -9393,12 +9410,12 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C11" s="96">
         <v>7</v>
       </c>
       <c r="D11" s="97" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E11" s="101" t="s">
         <v>8</v>
@@ -9409,12 +9426,12 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C12" s="96">
         <v>8</v>
       </c>
       <c r="D12" s="97" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="E12" s="101" t="s">
         <v>8</v>
@@ -9425,12 +9442,12 @@
       </c>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C13" s="96">
         <v>9</v>
       </c>
       <c r="D13" s="97" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
       <c r="E13" s="101" t="s">
         <v>25</v>
@@ -9441,12 +9458,12 @@
       </c>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C14" s="96">
         <v>10</v>
       </c>
       <c r="D14" s="97" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="E14" s="101" t="s">
         <v>120</v>
@@ -9457,12 +9474,12 @@
       </c>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
       <c r="C15" s="96">
         <v>11</v>
       </c>
       <c r="D15" s="97" t="s">
-        <v>198</v>
+        <v>195</v>
       </c>
       <c r="E15" s="101" t="s">
         <v>120</v>
@@ -9473,12 +9490,12 @@
       </c>
       <c r="H15" s="116"/>
     </row>
-    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="C16" s="148" t="s">
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+      <c r="C16" s="152" t="s">
         <v>33</v>
       </c>
-      <c r="D16" s="149"/>
-      <c r="E16" s="150"/>
+      <c r="D16" s="153"/>
+      <c r="E16" s="154"/>
       <c r="F16" s="24"/>
       <c r="G16" s="108">
         <f>SUM(G5:G15)</f>
@@ -9486,9 +9503,9 @@
       </c>
       <c r="H16" s="102"/>
     </row>
-    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
+    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="110" t="s">
@@ -9498,7 +9515,7 @@
         <v>290397</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="110" t="s">
@@ -9509,7 +9526,7 @@
         <v>153105</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
+    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="110" t="s">

--- a/Expence - Copy.xlsx
+++ b/Expence - Copy.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\HP\Downloads\Masjid-record-master\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="19420" windowHeight="11020" firstSheet="12" activeTab="20"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="19416" windowHeight="11016" firstSheet="12" activeTab="19"/>
   </bookViews>
   <sheets>
     <sheet name="June-2019" sheetId="1" r:id="rId1"/>
@@ -50,7 +55,7 @@
     <definedName name="_xlnm.Print_Area" localSheetId="3">'Sep-2019'!$A$1:$I$22</definedName>
     <definedName name="_xlnm.Print_Area" localSheetId="16">'sep-2020 '!$A$1:$I$34</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -1150,7 +1155,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="43" formatCode="_(* #,##0.00_);_(* \(#,##0.00\);_(* &quot;-&quot;??_);_(@_)"/>
     <numFmt numFmtId="164" formatCode="_(* #,##0_);_(* \(#,##0\);_(* &quot;-&quot;??_);_(@_)"/>
@@ -2440,7 +2445,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2454,17 +2459,17 @@
       <selection activeCell="E10" sqref="E10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="2" max="2" width="25.54296875" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="28.08984375" customWidth="1"/>
-    <col min="6" max="6" width="40.90625" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="25.5546875" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="28.109375" customWidth="1"/>
+    <col min="6" max="6" width="40.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="279.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
+    <row r="1" spans="1:7" ht="279.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.35">
       <c r="A1" s="135" t="s">
         <v>4</v>
       </c>
@@ -2474,7 +2479,7 @@
       <c r="E1" s="136"/>
       <c r="F1" s="4"/>
     </row>
-    <row r="2" spans="1:7" ht="43.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:7" ht="43.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="6" t="s">
         <v>0</v>
       </c>
@@ -2494,7 +2499,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="22.25" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:7" ht="22.2" thickTop="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="11">
         <v>1</v>
       </c>
@@ -2686,14 +2691,14 @@
       <selection activeCell="D21" sqref="D21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="22.90625" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="22.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -2714,7 +2719,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="1:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="1:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -3017,14 +3022,14 @@
       <selection activeCell="C28" sqref="C28"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.08984375" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.109375" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -3045,7 +3050,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -3363,7 +3368,7 @@
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
     </row>
-    <row r="24" spans="3:8" ht="25.75" x14ac:dyDescent="0.5">
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -3392,14 +3397,14 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="20.36328125" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="20.33203125" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -3420,7 +3425,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -3485,7 +3490,7 @@
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -3503,7 +3508,7 @@
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -3521,7 +3526,7 @@
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -3539,7 +3544,7 @@
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="96">
         <v>6</v>
       </c>
@@ -3555,7 +3560,7 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="96">
         <v>7</v>
       </c>
@@ -3571,7 +3576,7 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="96">
         <v>8</v>
       </c>
@@ -3587,7 +3592,7 @@
       </c>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="96">
         <v>9</v>
       </c>
@@ -3603,7 +3608,7 @@
       </c>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="96">
         <v>10</v>
       </c>
@@ -3619,7 +3624,7 @@
       </c>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="96">
         <v>11</v>
       </c>
@@ -3635,7 +3640,7 @@
       </c>
       <c r="H15" s="100"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="96">
         <v>12</v>
       </c>
@@ -3651,7 +3656,7 @@
       </c>
       <c r="H16" s="100"/>
     </row>
-    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="96">
         <v>13</v>
       </c>
@@ -3667,7 +3672,7 @@
       </c>
       <c r="H17" s="116"/>
     </row>
-    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
@@ -3680,7 +3685,7 @@
       </c>
       <c r="H18" s="102"/>
     </row>
-    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C19" s="117"/>
       <c r="D19" s="117"/>
       <c r="E19" s="117"/>
@@ -3688,7 +3693,7 @@
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
     </row>
-    <row r="20" spans="3:8" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="20" spans="3:8" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
       <c r="E20" s="117"/>
@@ -3696,7 +3701,7 @@
       <c r="G20" s="117"/>
       <c r="H20" s="117"/>
     </row>
-    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C21" s="117"/>
       <c r="D21" s="119"/>
       <c r="E21" s="120" t="s">
@@ -3708,7 +3713,7 @@
       <c r="G21" s="117"/>
       <c r="H21" s="117"/>
     </row>
-    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C22" s="117"/>
       <c r="D22" s="119"/>
       <c r="E22" s="120" t="s">
@@ -3721,7 +3726,7 @@
       <c r="G22" s="117"/>
       <c r="H22" s="117"/>
     </row>
-    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C23" s="117"/>
       <c r="D23" s="119"/>
       <c r="E23" s="120" t="s">
@@ -3734,7 +3739,7 @@
       <c r="G23" s="117"/>
       <c r="H23" s="117"/>
     </row>
-    <row r="24" spans="3:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="24" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C24" s="117"/>
       <c r="D24" s="117"/>
       <c r="E24" s="117"/>
@@ -3763,14 +3768,14 @@
       <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -3791,7 +3796,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -3856,7 +3861,7 @@
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -3874,7 +3879,7 @@
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -3892,7 +3897,7 @@
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -3910,7 +3915,7 @@
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="96">
         <v>10</v>
       </c>
@@ -3926,7 +3931,7 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="96">
         <v>11</v>
       </c>
@@ -3942,7 +3947,7 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="96">
         <v>12</v>
       </c>
@@ -3952,7 +3957,7 @@
       <c r="G12" s="115"/>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="96">
         <v>13</v>
       </c>
@@ -3962,7 +3967,7 @@
       <c r="G13" s="115"/>
       <c r="H13" s="116"/>
     </row>
-    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="14" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C14" s="152" t="s">
         <v>33</v>
       </c>
@@ -3975,7 +3980,7 @@
       </c>
       <c r="H14" s="102"/>
     </row>
-    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="15" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C15" s="117"/>
       <c r="D15" s="117"/>
       <c r="E15" s="117"/>
@@ -3983,7 +3988,7 @@
       <c r="G15" s="117"/>
       <c r="H15" s="117"/>
     </row>
-    <row r="16" spans="3:9" ht="26.5" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="16" spans="3:9" ht="26.4" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C16" s="117"/>
       <c r="D16" s="117"/>
       <c r="E16" s="117"/>
@@ -3991,7 +3996,7 @@
       <c r="G16" s="117"/>
       <c r="H16" s="117"/>
     </row>
-    <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="17" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C17" s="117"/>
       <c r="D17" s="119"/>
       <c r="E17" s="120" t="s">
@@ -4003,7 +4008,7 @@
       <c r="G17" s="117"/>
       <c r="H17" s="117"/>
     </row>
-    <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="18" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C18" s="117"/>
       <c r="D18" s="119"/>
       <c r="E18" s="120" t="s">
@@ -4016,7 +4021,7 @@
       <c r="G18" s="117"/>
       <c r="H18" s="117"/>
     </row>
-    <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.65">
+    <row r="19" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
       <c r="C19" s="117"/>
       <c r="D19" s="119"/>
       <c r="E19" s="120" t="s">
@@ -4029,7 +4034,7 @@
       <c r="G19" s="117"/>
       <c r="H19" s="117"/>
     </row>
-    <row r="20" spans="3:8" ht="26" x14ac:dyDescent="0.6">
+    <row r="20" spans="3:8" ht="25.8" x14ac:dyDescent="0.5">
       <c r="C20" s="117"/>
       <c r="D20" s="117"/>
       <c r="E20" s="117"/>
@@ -4058,14 +4063,14 @@
       <selection activeCell="F22" sqref="F22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.90625" customWidth="1"/>
+    <col min="3" max="3" width="7.88671875" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -4086,7 +4091,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -4410,14 +4415,14 @@
       <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -4440,7 +4445,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>171</v>
       </c>
@@ -4593,7 +4598,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -4754,18 +4759,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I24"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F23" sqref="F23"/>
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C9" sqref="C9:C18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -4788,7 +4793,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>185</v>
       </c>
@@ -4909,7 +4914,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -4927,8 +4932,10 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="14"/>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>307</v>
       </c>
@@ -4941,7 +4948,7 @@
       </c>
       <c r="H11" s="134"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -4959,7 +4966,7 @@
       </c>
       <c r="H12" s="19"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -4975,7 +4982,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -4991,7 +4998,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -5007,8 +5014,10 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C16" s="14"/>
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C16" s="14">
+        <v>12</v>
+      </c>
       <c r="D16" s="15" t="s">
         <v>308</v>
       </c>
@@ -5021,9 +5030,9 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>305</v>
@@ -5039,7 +5048,7 @@
     </row>
     <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D18" s="15"/>
       <c r="E18" s="19"/>
@@ -5083,7 +5092,7 @@
         <v>177719</v>
       </c>
     </row>
-    <row r="24" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="24" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="21"/>
       <c r="D24" s="22"/>
       <c r="E24" s="23" t="s">
@@ -5110,21 +5119,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I29"/>
   <sheetViews>
-    <sheetView topLeftCell="A8" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+    <sheetView topLeftCell="A18" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F25" sqref="F25:F27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="3:9" ht="313.8" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
@@ -5144,7 +5153,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>228</v>
       </c>
@@ -5247,7 +5256,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -5265,7 +5274,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -5281,7 +5290,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>7</v>
       </c>
@@ -5299,7 +5308,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -5315,7 +5324,7 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -5331,7 +5340,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -5347,7 +5356,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -5363,7 +5372,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>12</v>
       </c>
@@ -5379,7 +5388,7 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>13</v>
       </c>
@@ -5395,7 +5404,7 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14">
         <v>14</v>
       </c>
@@ -5411,7 +5420,7 @@
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14">
         <v>15</v>
       </c>
@@ -5427,7 +5436,7 @@
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14">
         <v>16</v>
       </c>
@@ -5445,7 +5454,7 @@
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14">
         <v>17</v>
       </c>
@@ -5461,7 +5470,7 @@
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:8" ht="21" x14ac:dyDescent="0.3">
       <c r="C22" s="14">
         <v>18</v>
       </c>
@@ -5477,7 +5486,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" ht="37.799999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14">
         <v>19</v>
       </c>
@@ -5493,7 +5502,7 @@
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C24" s="152" t="s">
         <v>33</v>
       </c>
@@ -5506,39 +5515,41 @@
       </c>
       <c r="H24" s="2"/>
     </row>
-    <row r="25" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="26" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="27" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="3:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E25" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F25" s="23">
+        <v>227111</v>
+      </c>
+    </row>
+    <row r="26" spans="3:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F26" s="23">
+        <f>G24</f>
+        <v>71750</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C27" s="21"/>
       <c r="D27" s="22"/>
       <c r="E27" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F27" s="23">
-        <v>227111</v>
-      </c>
-    </row>
-    <row r="28" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <f>F25-F26</f>
+        <v>155361</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
-      <c r="E28" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F28" s="23">
-        <f>G24</f>
-        <v>71750</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="29" spans="3:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F29" s="23">
-        <f>F27-F28</f>
-        <v>155361</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -5556,21 +5567,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I30"/>
   <sheetViews>
-    <sheetView topLeftCell="A20" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F30" sqref="F30"/>
+    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E22" sqref="E22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="3:9" ht="259.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C1" s="151" t="s">
         <v>53</v>
       </c>
@@ -5590,7 +5601,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>246</v>
       </c>
@@ -5693,7 +5704,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -5711,7 +5722,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -5727,7 +5738,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>7</v>
       </c>
@@ -5745,7 +5756,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -5763,7 +5774,7 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -5781,7 +5792,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -5797,7 +5808,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -5813,7 +5824,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>12</v>
       </c>
@@ -5829,7 +5840,7 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>13</v>
       </c>
@@ -5845,7 +5856,7 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14">
         <v>14</v>
       </c>
@@ -5861,7 +5872,7 @@
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14">
         <v>15</v>
       </c>
@@ -5877,7 +5888,7 @@
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14">
         <v>16</v>
       </c>
@@ -5893,7 +5904,7 @@
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14">
         <v>17</v>
       </c>
@@ -5909,7 +5920,7 @@
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:8" ht="31.8" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14">
         <v>18</v>
       </c>
@@ -5925,7 +5936,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14">
         <v>19</v>
       </c>
@@ -5941,7 +5952,7 @@
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" ht="25.2" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14">
         <v>20</v>
       </c>
@@ -5957,7 +5968,7 @@
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C25" s="152" t="s">
         <v>33</v>
       </c>
@@ -5970,39 +5981,41 @@
       </c>
       <c r="H25" s="2"/>
     </row>
-    <row r="26" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="3:8" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E26" s="23" t="s">
+        <v>9</v>
+      </c>
+      <c r="F26" s="23">
+        <v>228371</v>
+      </c>
+    </row>
+    <row r="27" spans="3:8" ht="21.6" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="E27" s="23" t="s">
+        <v>10</v>
+      </c>
+      <c r="F27" s="23">
+        <f>G25</f>
+        <v>119214</v>
+      </c>
+    </row>
+    <row r="28" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C28" s="21"/>
       <c r="D28" s="22"/>
       <c r="E28" s="23" t="s">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="F28" s="23">
-        <v>228371</v>
-      </c>
-    </row>
-    <row r="29" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+        <f>F26-F27</f>
+        <v>109157</v>
+      </c>
+    </row>
+    <row r="29" spans="3:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C29" s="21"/>
       <c r="D29" s="22"/>
-      <c r="E29" s="23" t="s">
-        <v>10</v>
-      </c>
-      <c r="F29" s="23">
-        <f>G25</f>
-        <v>119214</v>
-      </c>
-    </row>
-    <row r="30" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    </row>
+    <row r="30" spans="3:8" ht="21" customHeight="1" x14ac:dyDescent="0.4">
       <c r="C30" s="21"/>
       <c r="D30" s="22"/>
-      <c r="E30" s="23" t="s">
-        <v>11</v>
-      </c>
-      <c r="F30" s="23">
-        <f>F28-F29</f>
-        <v>109157</v>
-      </c>
     </row>
   </sheetData>
   <mergeCells count="4">
@@ -6020,18 +6033,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I21"/>
   <sheetViews>
-    <sheetView topLeftCell="A11" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F20" sqref="F20"/>
+    <sheetView topLeftCell="A6" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C8" sqref="C8:C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -6054,7 +6067,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>266</v>
       </c>
@@ -6157,7 +6170,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -6175,8 +6188,10 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="14"/>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>329</v>
       </c>
@@ -6191,8 +6206,10 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="14"/>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>329</v>
       </c>
@@ -6205,8 +6222,10 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="14"/>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>330</v>
       </c>
@@ -6221,9 +6240,9 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="D13" s="15" t="s">
         <v>331</v>
@@ -6239,7 +6258,7 @@
     </row>
     <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D14" s="15" t="s">
         <v>331</v>
@@ -6253,9 +6272,9 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="D15" s="15" t="s">
         <v>332</v>
@@ -6269,7 +6288,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="152" t="s">
         <v>33</v>
       </c>
@@ -6282,9 +6301,9 @@
       </c>
       <c r="H16" s="2"/>
     </row>
-    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="23" t="s">
@@ -6294,7 +6313,7 @@
         <v>229597</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="23" t="s">
@@ -6305,7 +6324,7 @@
         <v>74909</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
@@ -6336,14 +6355,14 @@
       <selection sqref="A1:E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="5.36328125" customWidth="1"/>
-    <col min="2" max="2" width="13.08984375" customWidth="1"/>
-    <col min="3" max="3" width="40.6328125" customWidth="1"/>
-    <col min="4" max="4" width="14.453125" customWidth="1"/>
-    <col min="5" max="5" width="15.6328125" customWidth="1"/>
-    <col min="6" max="6" width="30.54296875" customWidth="1"/>
+    <col min="1" max="1" width="5.33203125" customWidth="1"/>
+    <col min="2" max="2" width="13.109375" customWidth="1"/>
+    <col min="3" max="3" width="40.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14.44140625" customWidth="1"/>
+    <col min="5" max="5" width="15.6640625" customWidth="1"/>
+    <col min="6" max="6" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" ht="224.4" customHeight="1" thickBot="1" x14ac:dyDescent="0.95">
@@ -6633,7 +6652,7 @@
       </c>
       <c r="F17" s="33"/>
     </row>
-    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:6" ht="42" x14ac:dyDescent="0.4">
       <c r="A18" s="26">
         <v>16</v>
       </c>
@@ -6651,7 +6670,7 @@
       </c>
       <c r="F18" s="33"/>
     </row>
-    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A19" s="26"/>
       <c r="B19" s="32"/>
       <c r="C19" s="31"/>
@@ -6659,7 +6678,7 @@
       <c r="E19" s="32"/>
       <c r="F19" s="33"/>
     </row>
-    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:6" ht="21" x14ac:dyDescent="0.4">
       <c r="A20" s="26"/>
       <c r="B20" s="32"/>
       <c r="C20" s="31"/>
@@ -6667,7 +6686,7 @@
       <c r="E20" s="32"/>
       <c r="F20" s="33"/>
     </row>
-    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="21" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
       <c r="A21" s="140" t="s">
         <v>33</v>
       </c>
@@ -6680,8 +6699,8 @@
       </c>
       <c r="F21" s="33"/>
     </row>
-    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="24" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="1:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C24" s="38" t="s">
         <v>9</v>
       </c>
@@ -6689,7 +6708,7 @@
         <v>129080</v>
       </c>
     </row>
-    <row r="25" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="25" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C25" s="38" t="s">
         <v>10</v>
       </c>
@@ -6697,7 +6716,7 @@
         <v>83458</v>
       </c>
     </row>
-    <row r="26" spans="1:6" ht="21.5" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="26" spans="1:6" ht="21.6" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C26" s="38" t="s">
         <v>11</v>
       </c>
@@ -6720,18 +6739,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I23"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+    <sheetView tabSelected="1" zoomScale="73" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1:G1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -6754,7 +6773,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>282</v>
       </c>
@@ -6857,7 +6876,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -6875,8 +6894,10 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C10" s="14"/>
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C10" s="14">
+        <v>6</v>
+      </c>
       <c r="D10" s="15" t="s">
         <v>333</v>
       </c>
@@ -6889,8 +6910,10 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C11" s="14"/>
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C11" s="14">
+        <v>7</v>
+      </c>
       <c r="D11" s="15" t="s">
         <v>278</v>
       </c>
@@ -6903,8 +6926,10 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C12" s="14"/>
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C12" s="14">
+        <v>8</v>
+      </c>
       <c r="D12" s="15" t="s">
         <v>279</v>
       </c>
@@ -6917,8 +6942,10 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C13" s="14"/>
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C13" s="14">
+        <v>9</v>
+      </c>
       <c r="D13" s="15" t="s">
         <v>280</v>
       </c>
@@ -6933,8 +6960,10 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C14" s="14"/>
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C14" s="14">
+        <v>10</v>
+      </c>
       <c r="D14" s="15" t="s">
         <v>334</v>
       </c>
@@ -6947,8 +6976,10 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="C15" s="14"/>
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="C15" s="14">
+        <v>11</v>
+      </c>
       <c r="D15" s="15" t="s">
         <v>336</v>
       </c>
@@ -6961,9 +6992,9 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="D16" s="15" t="s">
         <v>268</v>
@@ -6977,9 +7008,9 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="D17" s="15" t="s">
         <v>281</v>
@@ -6993,7 +7024,7 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="152" t="s">
         <v>33</v>
       </c>
@@ -7006,9 +7037,9 @@
       </c>
       <c r="H18" s="2"/>
     </row>
-    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="20" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="21" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="23" t="s">
@@ -7018,7 +7049,7 @@
         <v>304578</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="23" t="s">
@@ -7029,7 +7060,7 @@
         <v>60770</v>
       </c>
     </row>
-    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="23" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C23" s="21"/>
       <c r="D23" s="22"/>
       <c r="E23" s="23" t="s">
@@ -7056,18 +7087,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C1:I30"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A18" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="G25" sqref="G25"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" x14ac:dyDescent="0.7">
@@ -7090,7 +7121,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156" t="s">
         <v>283</v>
       </c>
@@ -7193,7 +7224,7 @@
       </c>
       <c r="H8" s="18"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="14">
         <v>5</v>
       </c>
@@ -7211,7 +7242,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -7229,7 +7260,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>7</v>
       </c>
@@ -7247,7 +7278,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -7265,7 +7296,7 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -7281,7 +7312,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -7299,7 +7330,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -7315,7 +7346,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>12</v>
       </c>
@@ -7331,7 +7362,7 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="14">
         <v>13</v>
       </c>
@@ -7347,7 +7378,7 @@
       </c>
       <c r="H17" s="18"/>
     </row>
-    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C18" s="14">
         <v>14</v>
       </c>
@@ -7365,7 +7396,7 @@
       </c>
       <c r="H18" s="18"/>
     </row>
-    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C19" s="14">
         <v>15</v>
       </c>
@@ -7383,7 +7414,7 @@
       </c>
       <c r="H19" s="18"/>
     </row>
-    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C20" s="14">
         <v>16</v>
       </c>
@@ -7401,7 +7432,7 @@
       </c>
       <c r="H20" s="18"/>
     </row>
-    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C21" s="14">
         <v>17</v>
       </c>
@@ -7417,7 +7448,7 @@
       </c>
       <c r="H21" s="18"/>
     </row>
-    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C22" s="14">
         <v>18</v>
       </c>
@@ -7433,7 +7464,7 @@
       </c>
       <c r="H22" s="18"/>
     </row>
-    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C23" s="14">
         <v>19</v>
       </c>
@@ -7449,7 +7480,7 @@
       </c>
       <c r="H23" s="18"/>
     </row>
-    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C24" s="14">
         <v>20</v>
       </c>
@@ -7465,7 +7496,7 @@
       </c>
       <c r="H24" s="18"/>
     </row>
-    <row r="25" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="3:8" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C25" s="14">
         <v>21</v>
       </c>
@@ -7483,7 +7514,7 @@
       </c>
       <c r="H25" s="18"/>
     </row>
-    <row r="26" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="3:8" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C26" s="152" t="s">
         <v>33</v>
       </c>
@@ -7558,14 +7589,14 @@
       <selection activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="7.6328125" customWidth="1"/>
+    <col min="3" max="3" width="7.6640625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="58.1796875" style="39" customWidth="1"/>
-    <col min="6" max="6" width="23.90625" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="58.21875" style="39" customWidth="1"/>
+    <col min="6" max="6" width="23.88671875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="278.39999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="0.9">
@@ -7598,7 +7629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C3" s="49">
         <v>1</v>
       </c>
@@ -7616,7 +7647,7 @@
       </c>
       <c r="H3" s="51"/>
     </row>
-    <row r="4" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C4" s="49">
         <v>2</v>
       </c>
@@ -7635,7 +7666,7 @@
       <c r="H4" s="51"/>
       <c r="I4" s="1"/>
     </row>
-    <row r="5" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C5" s="49">
         <v>3</v>
       </c>
@@ -7653,7 +7684,7 @@
       </c>
       <c r="H5" s="51"/>
     </row>
-    <row r="6" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C6" s="49">
         <v>4</v>
       </c>
@@ -7671,7 +7702,7 @@
       </c>
       <c r="H6" s="51"/>
     </row>
-    <row r="7" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="49">
         <v>5</v>
       </c>
@@ -7689,7 +7720,7 @@
       </c>
       <c r="H7" s="51"/>
     </row>
-    <row r="8" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="49">
         <v>6</v>
       </c>
@@ -7705,7 +7736,7 @@
       </c>
       <c r="H8" s="51"/>
     </row>
-    <row r="9" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="49">
         <v>7</v>
       </c>
@@ -7721,7 +7752,7 @@
       </c>
       <c r="H9" s="51"/>
     </row>
-    <row r="10" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="49">
         <v>8</v>
       </c>
@@ -7737,7 +7768,7 @@
       </c>
       <c r="H10" s="51"/>
     </row>
-    <row r="11" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="49">
         <v>9</v>
       </c>
@@ -7753,7 +7784,7 @@
       </c>
       <c r="H11" s="51"/>
     </row>
-    <row r="12" spans="3:9" ht="40" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="40.049999999999997" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="49">
         <v>10</v>
       </c>
@@ -7771,7 +7802,7 @@
       </c>
       <c r="H12" s="52"/>
     </row>
-    <row r="13" spans="3:9" ht="40" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="3:9" ht="40.049999999999997" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C13" s="53">
         <v>11</v>
       </c>
@@ -7789,7 +7820,7 @@
       </c>
       <c r="H13" s="55"/>
     </row>
-    <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:9" ht="46.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="144" t="s">
         <v>33</v>
       </c>
@@ -7802,9 +7833,9 @@
       </c>
       <c r="H14" s="57"/>
     </row>
-    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="3:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="17" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="17" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="21"/>
       <c r="D17" s="22"/>
       <c r="E17" s="69" t="s">
@@ -7814,7 +7845,7 @@
         <v>142622</v>
       </c>
     </row>
-    <row r="18" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C18" s="21"/>
       <c r="D18" s="22"/>
       <c r="E18" s="69" t="s">
@@ -7825,7 +7856,7 @@
         <v>40020</v>
       </c>
     </row>
-    <row r="19" spans="3:6" ht="33.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="3:6" ht="33.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="69" t="s">
@@ -7836,8 +7867,8 @@
         <v>102602</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="21" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="21" spans="3:6" ht="21" customHeight="1" x14ac:dyDescent="0.3"/>
   </sheetData>
   <mergeCells count="2">
     <mergeCell ref="C1:G1"/>
@@ -7856,17 +7887,17 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="10.453125" customWidth="1"/>
+    <col min="3" max="3" width="10.44140625" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="57.08984375" customWidth="1"/>
+    <col min="5" max="5" width="57.109375" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="23.90625" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="23.88671875" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="325.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="3:9" ht="325.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C1" s="150" t="s">
         <v>149</v>
       </c>
@@ -7876,7 +7907,7 @@
       <c r="G1" s="150"/>
       <c r="H1" s="150"/>
     </row>
-    <row r="2" spans="3:9" ht="55.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="2" spans="3:9" ht="55.2" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C2" s="76" t="s">
         <v>0</v>
       </c>
@@ -7987,7 +8018,7 @@
       </c>
       <c r="H7" s="44"/>
     </row>
-    <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="41">
         <v>6</v>
       </c>
@@ -8003,7 +8034,7 @@
       </c>
       <c r="H8" s="44"/>
     </row>
-    <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="41">
         <v>7</v>
       </c>
@@ -8019,7 +8050,7 @@
       </c>
       <c r="H9" s="44"/>
     </row>
-    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="41">
         <v>8</v>
       </c>
@@ -8035,7 +8066,7 @@
       </c>
       <c r="H10" s="44"/>
     </row>
-    <row r="11" spans="3:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="3:9" ht="47.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C11" s="45">
         <v>9</v>
       </c>
@@ -8051,7 +8082,7 @@
       </c>
       <c r="H11" s="75"/>
     </row>
-    <row r="12" spans="3:9" ht="54.65" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="3:9" ht="54.6" customHeight="1" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C12" s="147" t="s">
         <v>33</v>
       </c>
@@ -8064,7 +8095,7 @@
       </c>
       <c r="H12" s="77"/>
     </row>
-    <row r="13" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="73"/>
       <c r="D13" s="73"/>
       <c r="E13" s="73"/>
@@ -8072,7 +8103,7 @@
       <c r="G13" s="73"/>
       <c r="H13" s="73"/>
     </row>
-    <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="14" spans="3:9" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="C14" s="73"/>
       <c r="D14" s="73"/>
       <c r="E14" s="73"/>
@@ -8080,7 +8111,7 @@
       <c r="G14" s="73"/>
       <c r="H14" s="73"/>
     </row>
-    <row r="15" spans="3:9" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="15" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C15" s="72"/>
       <c r="D15" s="72"/>
       <c r="E15" s="83" t="s">
@@ -8092,7 +8123,7 @@
       <c r="G15" s="73"/>
       <c r="H15" s="73"/>
     </row>
-    <row r="16" spans="3:9" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="16" spans="3:9" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C16" s="72"/>
       <c r="D16" s="72"/>
       <c r="E16" s="83" t="s">
@@ -8105,7 +8136,7 @@
       <c r="G16" s="73"/>
       <c r="H16" s="73"/>
     </row>
-    <row r="17" spans="3:8" ht="37.25" customHeight="1" thickBot="1" x14ac:dyDescent="0.5">
+    <row r="17" spans="3:8" ht="37.200000000000003" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C17" s="72"/>
       <c r="D17" s="72"/>
       <c r="E17" s="83" t="s">
@@ -8118,7 +8149,7 @@
       <c r="G17" s="73"/>
       <c r="H17" s="73"/>
     </row>
-    <row r="18" spans="3:8" x14ac:dyDescent="0.35">
+    <row r="18" spans="3:8" x14ac:dyDescent="0.3">
       <c r="C18" s="73"/>
       <c r="D18" s="73"/>
       <c r="E18" s="73"/>
@@ -8144,17 +8175,17 @@
       <selection activeCell="C2" sqref="C2:G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="226.25" customHeight="1" x14ac:dyDescent="0.7">
+    <row r="1" spans="3:9" ht="226.2" customHeight="1" x14ac:dyDescent="0.7">
       <c r="C1" s="151"/>
       <c r="D1" s="151"/>
       <c r="E1" s="151"/>
@@ -8170,7 +8201,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="61.75" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="3" spans="3:9" ht="61.8" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C3" s="84" t="s">
         <v>54</v>
       </c>
@@ -8291,7 +8322,7 @@
       </c>
       <c r="H9" s="18"/>
     </row>
-    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="14">
         <v>6</v>
       </c>
@@ -8307,7 +8338,7 @@
       </c>
       <c r="H10" s="18"/>
     </row>
-    <row r="11" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="14">
         <v>7</v>
       </c>
@@ -8323,7 +8354,7 @@
       </c>
       <c r="H11" s="18"/>
     </row>
-    <row r="12" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="48" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="14">
         <v>8</v>
       </c>
@@ -8339,7 +8370,7 @@
       </c>
       <c r="H12" s="18"/>
     </row>
-    <row r="13" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="14">
         <v>9</v>
       </c>
@@ -8355,7 +8386,7 @@
       </c>
       <c r="H13" s="18"/>
     </row>
-    <row r="14" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="14">
         <v>10</v>
       </c>
@@ -8371,7 +8402,7 @@
       </c>
       <c r="H14" s="18"/>
     </row>
-    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="14">
         <v>11</v>
       </c>
@@ -8387,7 +8418,7 @@
       </c>
       <c r="H15" s="18"/>
     </row>
-    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C16" s="14">
         <v>12</v>
       </c>
@@ -8403,7 +8434,7 @@
       </c>
       <c r="H16" s="18"/>
     </row>
-    <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="3:10" ht="28.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C17" s="152" t="s">
         <v>33</v>
       </c>
@@ -8416,8 +8447,8 @@
       </c>
       <c r="H17" s="2"/>
     </row>
-    <row r="18" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:10" ht="26" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="3:10" ht="39.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:10" ht="25.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E19" s="76"/>
       <c r="F19" s="76"/>
       <c r="G19" s="76"/>
@@ -8425,7 +8456,7 @@
       <c r="I19" s="88"/>
       <c r="J19" s="88"/>
     </row>
-    <row r="20" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:10" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="91" t="s">
@@ -8439,7 +8470,7 @@
       <c r="I20" s="90"/>
       <c r="J20" s="89"/>
     </row>
-    <row r="21" spans="3:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:10" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="91" t="s">
@@ -8454,7 +8485,7 @@
       <c r="I21" s="90"/>
       <c r="J21" s="89"/>
     </row>
-    <row r="22" spans="3:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:10" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="91" t="s">
@@ -8469,7 +8500,7 @@
       <c r="I22" s="90"/>
       <c r="J22" s="89"/>
     </row>
-    <row r="23" spans="3:10" ht="28.5" thickBot="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="3:10" ht="28.8" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E23" s="91"/>
       <c r="F23" s="92"/>
       <c r="G23" s="93"/>
@@ -8496,17 +8527,17 @@
       <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="310.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
+    <row r="1" spans="3:9" ht="310.2" customHeight="1" thickBot="1" x14ac:dyDescent="1.1499999999999999">
       <c r="C1" s="84" t="s">
         <v>66</v>
       </c>
@@ -8784,9 +8815,9 @@
       </c>
       <c r="H17" s="102"/>
     </row>
-    <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="3:8" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="3:8" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="3:8" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="91" t="s">
@@ -8796,7 +8827,7 @@
         <v>244448</v>
       </c>
     </row>
-    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:8" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="91" t="s">
@@ -8807,7 +8838,7 @@
         <v>152011</v>
       </c>
     </row>
-    <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="22" spans="3:8" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C22" s="21"/>
       <c r="D22" s="22"/>
       <c r="E22" s="91" t="s">
@@ -8835,17 +8866,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
     <col min="6" max="6" width="18" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="3:9" ht="309.64999999999998" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
+    <row r="1" spans="3:9" ht="309.60000000000002" customHeight="1" thickBot="1" x14ac:dyDescent="1.25">
       <c r="C1" s="155" t="s">
         <v>77</v>
       </c>
@@ -9233,7 +9264,7 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -9247,14 +9278,14 @@
       <selection activeCell="C1" sqref="C1:H1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="3" max="3" width="5.36328125" customWidth="1"/>
+    <col min="3" max="3" width="5.33203125" customWidth="1"/>
     <col min="4" max="4" width="18" customWidth="1"/>
-    <col min="5" max="5" width="43.453125" customWidth="1"/>
-    <col min="6" max="6" width="21.81640625" customWidth="1"/>
-    <col min="7" max="7" width="29.08984375" customWidth="1"/>
-    <col min="8" max="8" width="30.54296875" customWidth="1"/>
+    <col min="5" max="5" width="43.44140625" customWidth="1"/>
+    <col min="6" max="6" width="21.77734375" customWidth="1"/>
+    <col min="7" max="7" width="29.109375" customWidth="1"/>
+    <col min="8" max="8" width="30.5546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="3:9" ht="374.25" customHeight="1" thickBot="1" x14ac:dyDescent="1.05">
@@ -9275,7 +9306,7 @@
       <c r="G2" s="151"/>
       <c r="H2" s="4"/>
     </row>
-    <row r="3" spans="3:9" ht="30.65" thickBot="1" x14ac:dyDescent="0.75">
+    <row r="3" spans="3:9" ht="30.6" thickBot="1" x14ac:dyDescent="0.75">
       <c r="C3" s="156"/>
       <c r="D3" s="156"/>
       <c r="E3" s="156"/>
@@ -9340,7 +9371,7 @@
       </c>
       <c r="H6" s="100"/>
     </row>
-    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="3:9" ht="41.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C7" s="96">
         <v>3</v>
       </c>
@@ -9358,7 +9389,7 @@
       </c>
       <c r="H7" s="100"/>
     </row>
-    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="3:9" ht="48.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C8" s="96">
         <v>4</v>
       </c>
@@ -9376,7 +9407,7 @@
       </c>
       <c r="H8" s="100"/>
     </row>
-    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C9" s="96">
         <v>5</v>
       </c>
@@ -9394,7 +9425,7 @@
       </c>
       <c r="H9" s="100"/>
     </row>
-    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="3:9" ht="51.75" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C10" s="96">
         <v>6</v>
       </c>
@@ -9410,7 +9441,7 @@
       </c>
       <c r="H10" s="100"/>
     </row>
-    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C11" s="96">
         <v>7</v>
       </c>
@@ -9426,7 +9457,7 @@
       </c>
       <c r="H11" s="100"/>
     </row>
-    <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="3:9" ht="49.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C12" s="96">
         <v>8</v>
       </c>
@@ -9442,7 +9473,7 @@
       </c>
       <c r="H12" s="100"/>
     </row>
-    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C13" s="96">
         <v>9</v>
       </c>
@@ -9458,7 +9489,7 @@
       </c>
       <c r="H13" s="100"/>
     </row>
-    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="3:9" ht="47.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C14" s="96">
         <v>10</v>
       </c>
@@ -9474,7 +9505,7 @@
       </c>
       <c r="H14" s="100"/>
     </row>
-    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="3:9" ht="44.25" customHeight="1" x14ac:dyDescent="0.3">
       <c r="C15" s="96">
         <v>11</v>
       </c>
@@ -9490,7 +9521,7 @@
       </c>
       <c r="H15" s="116"/>
     </row>
-    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.6">
+    <row r="16" spans="3:9" ht="28.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="C16" s="152" t="s">
         <v>33</v>
       </c>
@@ -9503,9 +9534,9 @@
       </c>
       <c r="H16" s="102"/>
     </row>
-    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.35"/>
-    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.4"/>
-    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="3:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.3"/>
+    <row r="18" spans="3:6" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="3:6" ht="27" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C19" s="21"/>
       <c r="D19" s="22"/>
       <c r="E19" s="110" t="s">
@@ -9515,7 +9546,7 @@
         <v>290397</v>
       </c>
     </row>
-    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="3:6" ht="37.5" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C20" s="21"/>
       <c r="D20" s="22"/>
       <c r="E20" s="110" t="s">
@@ -9526,7 +9557,7 @@
         <v>153105</v>
       </c>
     </row>
-    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="3:6" ht="21" customHeight="1" thickBot="1" x14ac:dyDescent="0.45">
       <c r="C21" s="21"/>
       <c r="D21" s="22"/>
       <c r="E21" s="110" t="s">
